--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC4EC3D-06F4-491F-833E-1BE26580C9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B282C-74FF-4985-BA6F-AEC853B587FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <t>Енисейская</t>
   </si>
   <si>
-    <t>Бабайкальская</t>
-  </si>
-  <si>
     <t>Иркутская</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Забайкальская</t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
         <v>860345</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>600110</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>28837</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>517863</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>7770</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>1898053</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>3453985</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>270370</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>8756166</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>1217834</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>431308</v>
@@ -2131,21 +2131,21 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>879745</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>898291</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>1117365</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>1710174</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>680510</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>777976</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>1996425</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>9709623</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>39977624</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>160229948</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B282C-74FF-4985-BA6F-AEC853B587FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1786412E-F63E-432E-9ABF-7E09349EF8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
+    <workbookView xWindow="26970" yWindow="1935" windowWidth="9570" windowHeight="21630" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2246,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>39977624</v>
+        <v>30077624</v>
       </c>
       <c r="C108" s="2">
         <v>1198077</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1786412E-F63E-432E-9ABF-7E09349EF8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5998F6-FD80-476B-BE23-4529A56E338B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="1935" windowWidth="9570" windowHeight="21630" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <t>губ</t>
   </si>
@@ -370,13 +370,67 @@
   </si>
   <si>
     <t>Забайкальская</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>Я15447</t>
+  </si>
+  <si>
+    <t>2575В</t>
+  </si>
+  <si>
+    <t>III17343</t>
+  </si>
+  <si>
+    <t>ИЗО</t>
+  </si>
+  <si>
+    <t>88557»</t>
+  </si>
+  <si>
+    <t>7«90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +445,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,10 +473,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,19 +800,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
-  <dimension ref="A1:D467"/>
+  <dimension ref="A1:Q467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+      <selection activeCell="V98" sqref="V98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,8 +831,44 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -770,8 +881,44 @@
       <c r="D2" s="2">
         <v>12280</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>16637</v>
+      </c>
+      <c r="G2" s="3">
+        <v>18087</v>
+      </c>
+      <c r="H2" s="3">
+        <v>907</v>
+      </c>
+      <c r="I2" s="3">
+        <v>907</v>
+      </c>
+      <c r="J2" s="3">
+        <v>922</v>
+      </c>
+      <c r="K2" s="3">
+        <v>681</v>
+      </c>
+      <c r="L2" s="3">
+        <v>181013</v>
+      </c>
+      <c r="M2" s="3">
+        <v>200832</v>
+      </c>
+      <c r="N2" s="3">
+        <v>8623</v>
+      </c>
+      <c r="O2" s="3">
+        <v>8007</v>
+      </c>
+      <c r="P2" s="3">
+        <v>5505</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -784,8 +931,44 @@
       <c r="D3" s="2">
         <v>33425</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>89505</v>
+      </c>
+      <c r="G3" s="3">
+        <v>87034</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3772</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3503</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3937</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2796</v>
+      </c>
+      <c r="L3" s="3">
+        <v>568050</v>
+      </c>
+      <c r="M3" s="3">
+        <v>537037</v>
+      </c>
+      <c r="N3" s="3">
+        <v>20935</v>
+      </c>
+      <c r="O3" s="3">
+        <v>19494</v>
+      </c>
+      <c r="P3" s="3">
+        <v>14285</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>12407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -798,8 +981,44 @@
       <c r="D4" s="2">
         <v>35231</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>113823</v>
+      </c>
+      <c r="G4" s="3">
+        <v>110682</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3366</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2865</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2397</v>
+      </c>
+      <c r="L4" s="3">
+        <v>828374</v>
+      </c>
+      <c r="M4" s="3">
+        <v>845210</v>
+      </c>
+      <c r="N4" s="3">
+        <v>28498</v>
+      </c>
+      <c r="O4" s="3">
+        <v>27076</v>
+      </c>
+      <c r="P4" s="3">
+        <v>15597</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>14372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -812,8 +1031,44 @@
       <c r="D5" s="2">
         <v>37115</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>166332</v>
+      </c>
+      <c r="G5" s="3">
+        <v>160496</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4050</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3358</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3218</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2706</v>
+      </c>
+      <c r="L5" s="3">
+        <v>729472</v>
+      </c>
+      <c r="M5" s="3">
+        <v>763603</v>
+      </c>
+      <c r="N5" s="3">
+        <v>28896</v>
+      </c>
+      <c r="O5" s="3">
+        <v>27236</v>
+      </c>
+      <c r="P5" s="3">
+        <v>16517</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>14674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -826,8 +1081,44 @@
       <c r="D6" s="2">
         <v>87064</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>151030</v>
+      </c>
+      <c r="G6" s="3">
+        <v>165197</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4774</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4187</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3394</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2796</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1663619</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1656977</v>
+      </c>
+      <c r="N6" s="3">
+        <v>73054</v>
+      </c>
+      <c r="O6" s="3">
+        <v>68102</v>
+      </c>
+      <c r="P6" s="3">
+        <v>42352</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>38522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -840,8 +1131,44 @@
       <c r="D7" s="2">
         <v>39405</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>125308</v>
+      </c>
+      <c r="G7" s="3">
+        <v>126165</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3384</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2684</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2086</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1748</v>
+      </c>
+      <c r="L7" s="3">
+        <v>770947</v>
+      </c>
+      <c r="M7" s="3">
+        <v>759342</v>
+      </c>
+      <c r="N7" s="3">
+        <v>29413</v>
+      </c>
+      <c r="O7" s="3">
+        <v>26889</v>
+      </c>
+      <c r="P7" s="3">
+        <v>18436</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>17135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -854,8 +1181,44 @@
       <c r="D8" s="2">
         <v>121426</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>368426</v>
+      </c>
+      <c r="G8" s="3">
+        <v>383503</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10788</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10227</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8633</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6836</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1893121</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1915784</v>
+      </c>
+      <c r="N8" s="3">
+        <v>78977</v>
+      </c>
+      <c r="O8" s="3">
+        <v>73420</v>
+      </c>
+      <c r="P8" s="3">
+        <v>55243</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>50714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -868,8 +1231,44 @@
       <c r="D9" s="2">
         <v>33749</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>89949</v>
+      </c>
+      <c r="G9" s="3">
+        <v>75046</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2089</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1886</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1647</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1435</v>
+      </c>
+      <c r="L9" s="3">
+        <v>797873</v>
+      </c>
+      <c r="M9" s="3">
+        <v>818302</v>
+      </c>
+      <c r="N9" s="3">
+        <v>23829</v>
+      </c>
+      <c r="O9" s="3">
+        <v>22991</v>
+      </c>
+      <c r="P9" s="3">
+        <v>15610</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>15057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -882,8 +1281,44 @@
       <c r="D10" s="2">
         <v>53291</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>132274</v>
+      </c>
+      <c r="G10" s="3">
+        <v>129781</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4840</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3958</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2826</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2220</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1255715</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1254819</v>
+      </c>
+      <c r="N10" s="3">
+        <v>51337</v>
+      </c>
+      <c r="O10" s="3">
+        <v>47984</v>
+      </c>
+      <c r="P10" s="3">
+        <v>25340</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>22905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -896,8 +1331,44 @@
       <c r="D11" s="2">
         <v>43633</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>119685</v>
+      </c>
+      <c r="G11" s="3">
+        <v>114697</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3112</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2665</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1804</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1531</v>
+      </c>
+      <c r="L11" s="3">
+        <v>974347</v>
+      </c>
+      <c r="M11" s="3">
+        <v>969602</v>
+      </c>
+      <c r="N11" s="3">
+        <v>38687</v>
+      </c>
+      <c r="O11" s="3">
+        <v>37717</v>
+      </c>
+      <c r="P11" s="3">
+        <v>19376</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>20422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -910,8 +1381,44 @@
       <c r="D12" s="2">
         <v>80424</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>124905</v>
+      </c>
+      <c r="G12" s="3">
+        <v>121020</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6964</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6587</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5785</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5082</v>
+      </c>
+      <c r="L12" s="3">
+        <v>920021</v>
+      </c>
+      <c r="M12" s="3">
+        <v>912654</v>
+      </c>
+      <c r="N12" s="3">
+        <v>56726</v>
+      </c>
+      <c r="O12" s="3">
+        <v>54194</v>
+      </c>
+      <c r="P12" s="3">
+        <v>36022</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>33535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -924,8 +1431,44 @@
       <c r="D13" s="2">
         <v>92569</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>127670</v>
+      </c>
+      <c r="G13" s="3">
+        <v>130884</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3567</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3162</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2857</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2276</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1630171</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1656558</v>
+      </c>
+      <c r="N13" s="3">
+        <v>70218</v>
+      </c>
+      <c r="O13" s="3">
+        <v>65888</v>
+      </c>
+      <c r="P13" s="3">
+        <v>45774</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>41662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -938,8 +1481,44 @@
       <c r="D14" s="2">
         <v>669612</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>1625544</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1622592</v>
+      </c>
+      <c r="H14" s="3">
+        <v>52244</v>
+      </c>
+      <c r="I14" s="3">
+        <v>46490</v>
+      </c>
+      <c r="J14" s="3">
+        <v>39974</v>
+      </c>
+      <c r="K14" s="3">
+        <v>32504</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12213223</v>
+      </c>
+      <c r="M14" s="3">
+        <v>12290720</v>
+      </c>
+      <c r="N14" s="3">
+        <v>509193</v>
+      </c>
+      <c r="O14" s="3">
+        <v>478998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>310567</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>286577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -952,8 +1531,44 @@
       <c r="D15" s="2">
         <v>33596</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>68968</v>
+      </c>
+      <c r="G15" s="3">
+        <v>69485</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2883</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2205</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L15" s="3">
+        <v>823732</v>
+      </c>
+      <c r="M15" s="3">
+        <v>850640</v>
+      </c>
+      <c r="N15" s="3">
+        <v>26475</v>
+      </c>
+      <c r="O15" s="3">
+        <v>23837</v>
+      </c>
+      <c r="P15" s="3">
+        <v>15170</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>14221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -966,8 +1581,44 @@
       <c r="D16" s="2">
         <v>16645</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>366057</v>
+      </c>
+      <c r="G16" s="3">
+        <v>397997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12501</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11884</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8717</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7928</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -980,8 +1631,44 @@
       <c r="D17" s="2">
         <v>25399</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>59582</v>
+      </c>
+      <c r="G17" s="3">
+        <v>58787</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1653</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1316</v>
+      </c>
+      <c r="J17" s="3">
+        <v>967</v>
+      </c>
+      <c r="K17" s="3">
+        <v>831</v>
+      </c>
+      <c r="L17" s="3">
+        <v>564263</v>
+      </c>
+      <c r="M17" s="3">
+        <v>603986</v>
+      </c>
+      <c r="N17" s="3">
+        <v>22137</v>
+      </c>
+      <c r="O17" s="3">
+        <v>22315</v>
+      </c>
+      <c r="P17" s="3">
+        <v>11529</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -994,8 +1681,44 @@
       <c r="D18" s="2">
         <v>19976</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>26190</v>
+      </c>
+      <c r="G18" s="3">
+        <v>28059</v>
+      </c>
+      <c r="H18" s="3">
+        <v>871</v>
+      </c>
+      <c r="I18" s="3">
+        <v>734</v>
+      </c>
+      <c r="J18" s="3">
+        <v>638</v>
+      </c>
+      <c r="K18" s="3">
+        <v>504</v>
+      </c>
+      <c r="L18" s="3">
+        <v>530248</v>
+      </c>
+      <c r="M18" s="3">
+        <v>530023</v>
+      </c>
+      <c r="N18" s="3">
+        <v>16418</v>
+      </c>
+      <c r="O18" s="3">
+        <v>15438</v>
+      </c>
+      <c r="P18" s="3">
+        <v>9018</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1008,8 +1731,44 @@
       <c r="D19" s="2">
         <v>12438</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>40376</v>
+      </c>
+      <c r="G19" s="3">
+        <v>46860</v>
+      </c>
+      <c r="H19" s="3">
+        <v>639</v>
+      </c>
+      <c r="I19" s="3">
+        <v>825</v>
+      </c>
+      <c r="J19" s="3">
+        <v>584</v>
+      </c>
+      <c r="K19" s="3">
+        <v>578</v>
+      </c>
+      <c r="L19" s="3">
+        <v>305821</v>
+      </c>
+      <c r="M19" s="3">
+        <v>348267</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7876</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8046</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5929</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1022,8 +1781,44 @@
       <c r="D20" s="2">
         <v>30381</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>81514</v>
+      </c>
+      <c r="G20" s="3">
+        <v>81215</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2109</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1982</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1521</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1379</v>
+      </c>
+      <c r="L20" s="3">
+        <v>671635</v>
+      </c>
+      <c r="M20" s="3">
+        <v>662656</v>
+      </c>
+      <c r="N20" s="3">
+        <v>23209</v>
+      </c>
+      <c r="O20" s="3">
+        <v>22011</v>
+      </c>
+      <c r="P20" s="3">
+        <v>14288</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>13193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1036,8 +1831,44 @@
       <c r="D21" s="2">
         <v>47934</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>303159</v>
+      </c>
+      <c r="G21" s="3">
+        <v>322879</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17956</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17868</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8778</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8326</v>
+      </c>
+      <c r="L21" s="3">
+        <v>645975</v>
+      </c>
+      <c r="M21" s="3">
+        <v>648266</v>
+      </c>
+      <c r="N21" s="3">
+        <v>29744</v>
+      </c>
+      <c r="O21" s="3">
+        <v>27824</v>
+      </c>
+      <c r="P21" s="3">
+        <v>15840</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1050,8 +1881,44 @@
       <c r="D22" s="2">
         <v>14014</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>42827</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46085</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1337</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1214</v>
+      </c>
+      <c r="J22" s="3">
+        <v>741</v>
+      </c>
+      <c r="K22" s="3">
+        <v>730</v>
+      </c>
+      <c r="L22" s="3">
+        <v>333024</v>
+      </c>
+      <c r="M22" s="3">
+        <v>337406</v>
+      </c>
+      <c r="N22" s="3">
+        <v>9496</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9277</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6191</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1064,8 +1931,44 @@
       <c r="D23" s="2">
         <v>23836</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>43734</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44355</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2085</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2237</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1167</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1299</v>
+      </c>
+      <c r="L23" s="3">
+        <v>528327</v>
+      </c>
+      <c r="M23" s="3">
+        <v>521385</v>
+      </c>
+      <c r="N23" s="3">
+        <v>19176</v>
+      </c>
+      <c r="O23" s="3">
+        <v>18805</v>
+      </c>
+      <c r="P23" s="3">
+        <v>10749</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>10621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1078,8 +1981,44 @@
       <c r="D24" s="2">
         <v>12973</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>32092</v>
+      </c>
+      <c r="G24" s="3">
+        <v>34051</v>
+      </c>
+      <c r="H24" s="3">
+        <v>665</v>
+      </c>
+      <c r="I24" s="3">
+        <v>622</v>
+      </c>
+      <c r="J24" s="3">
+        <v>470</v>
+      </c>
+      <c r="K24" s="3">
+        <v>426</v>
+      </c>
+      <c r="L24" s="3">
+        <v>295803</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7994</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7820</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5943</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1092,8 +2031,44 @@
       <c r="D25" s="2">
         <v>21370</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>54779</v>
+      </c>
+      <c r="G25" s="3">
+        <v>51077</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1806</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1654</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1232</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1027</v>
+      </c>
+      <c r="L25" s="3">
+        <v>457431</v>
+      </c>
+      <c r="M25" s="3">
+        <v>458424</v>
+      </c>
+      <c r="N25" s="3">
+        <v>16775</v>
+      </c>
+      <c r="O25" s="3">
+        <v>16092</v>
+      </c>
+      <c r="P25" s="3">
+        <v>9448</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>9663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1106,8 +2081,44 @@
       <c r="D26" s="2">
         <v>258562</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>1119278</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1180850</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45022</v>
+      </c>
+      <c r="I26" s="3">
+        <v>43219</v>
+      </c>
+      <c r="J26" s="3">
+        <v>27020</v>
+      </c>
+      <c r="K26" s="3">
+        <v>25028</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5156259</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5276499</v>
+      </c>
+      <c r="N26" s="3">
+        <v>179300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>171465</v>
+      </c>
+      <c r="P26" s="3">
+        <v>104105</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>102409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1120,8 +2131,44 @@
       <c r="D27" s="2">
         <v>12293</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>93052</v>
+      </c>
+      <c r="G27" s="3">
+        <v>89801</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2494</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2505</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1957</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1692</v>
+      </c>
+      <c r="L27" s="3">
+        <v>266400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>289800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5566</v>
+      </c>
+      <c r="O27" s="3">
+        <v>5263</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4457</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1134,8 +2181,44 @@
       <c r="D28" s="2">
         <v>26028</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>189834</v>
+      </c>
+      <c r="G28" s="3">
+        <v>193966</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6558</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6125</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5797</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4939</v>
+      </c>
+      <c r="L28" s="3">
+        <v>507396</v>
+      </c>
+      <c r="M28" s="3">
+        <v>543026</v>
+      </c>
+      <c r="N28" s="3">
+        <v>10797</v>
+      </c>
+      <c r="O28" s="3">
+        <v>10176</v>
+      </c>
+      <c r="P28" s="3">
+        <v>7790</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1148,8 +2231,44 @@
       <c r="D29" s="2">
         <v>8297</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>42163</v>
+      </c>
+      <c r="G29" s="3">
+        <v>41503</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1355</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1274</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1078</v>
+      </c>
+      <c r="K29" s="3">
+        <v>849</v>
+      </c>
+      <c r="L29" s="3">
+        <v>185576</v>
+      </c>
+      <c r="M29" s="3">
+        <v>193830</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4832</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4509</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3285</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1162,8 +2281,44 @@
       <c r="D30" s="2">
         <v>46618</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>325049</v>
+      </c>
+      <c r="G30" s="3">
+        <v>325270</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10407</v>
+      </c>
+      <c r="I30" s="3">
+        <v>9904</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8832</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7480</v>
+      </c>
+      <c r="L30" s="3">
+        <v>959372</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1026656</v>
+      </c>
+      <c r="N30" s="3">
+        <v>21193</v>
+      </c>
+      <c r="O30" s="3">
+        <v>19948</v>
+      </c>
+      <c r="P30" s="3">
+        <v>15532</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>14774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1176,8 +2331,44 @@
       <c r="D31" s="2">
         <v>62498</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <v>165548</v>
+      </c>
+      <c r="G31" s="3">
+        <v>156335</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5939</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5084</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4744</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3945</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1062789</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1020499</v>
+      </c>
+      <c r="N31" s="3">
+        <v>49371</v>
+      </c>
+      <c r="O31" s="3">
+        <v>45287</v>
+      </c>
+      <c r="P31" s="3">
+        <v>28126</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>25683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1190,8 +2381,44 @@
       <c r="D32" s="2">
         <v>61919</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="5">
+        <v>140099</v>
+      </c>
+      <c r="G32" s="3">
+        <v>135370</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5980</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5835</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4994</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4251</v>
+      </c>
+      <c r="L32" s="3">
+        <v>877363</v>
+      </c>
+      <c r="M32" s="3">
+        <v>897695</v>
+      </c>
+      <c r="N32" s="3">
+        <v>39355</v>
+      </c>
+      <c r="O32" s="3">
+        <v>37623</v>
+      </c>
+      <c r="P32" s="3">
+        <v>26916</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1204,8 +2431,44 @@
       <c r="D33" s="2">
         <v>44290</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>33903</v>
+      </c>
+      <c r="G33" s="3">
+        <v>33539</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1690</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1725</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1426</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1094</v>
+      </c>
+      <c r="L33" s="3">
+        <v>720960</v>
+      </c>
+      <c r="M33" s="3">
+        <v>788814</v>
+      </c>
+      <c r="N33" s="3">
+        <v>34611</v>
+      </c>
+      <c r="O33" s="3">
+        <v>33111</v>
+      </c>
+      <c r="P33" s="3">
+        <v>21602</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1218,8 +2481,44 @@
       <c r="D34" s="2">
         <v>124953</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="5">
+        <v>77809</v>
+      </c>
+      <c r="G34" s="3">
+        <v>70408</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2346</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2264</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2527</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1965</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1651381</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1626457</v>
+      </c>
+      <c r="N34" s="3">
+        <v>83491</v>
+      </c>
+      <c r="O34" s="3">
+        <v>79867</v>
+      </c>
+      <c r="P34" s="3">
+        <v>61371</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>59090</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1232,8 +2531,44 @@
       <c r="D35" s="2">
         <v>128332</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="5">
+        <v>60819</v>
+      </c>
+      <c r="G35" s="3">
+        <v>58510</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2106</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2040</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1852</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1527</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1698182</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1773152</v>
+      </c>
+      <c r="N35" s="3">
+        <v>92086</v>
+      </c>
+      <c r="O35" s="3">
+        <v>88818</v>
+      </c>
+      <c r="P35" s="3">
+        <v>63648</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>61305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1246,8 +2581,44 @@
       <c r="D36" s="2">
         <v>84543</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <v>255576</v>
+      </c>
+      <c r="G36" s="3">
+        <v>219271</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10085</v>
+      </c>
+      <c r="I36" s="3">
+        <v>8483</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7620</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5089</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1389988</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1220043</v>
+      </c>
+      <c r="N36" s="3">
+        <v>71381</v>
+      </c>
+      <c r="O36" s="3">
+        <v>68562</v>
+      </c>
+      <c r="P36" s="3">
+        <v>38514</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>33320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1260,8 +2631,44 @@
       <c r="D37" s="2">
         <v>82040</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="5">
+        <v>121239</v>
+      </c>
+      <c r="G37" s="3">
+        <v>120741</v>
+      </c>
+      <c r="H37" s="4">
+        <v>4050</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3904</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3801</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3382</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1195956</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1190961</v>
+      </c>
+      <c r="N37" s="3">
+        <v>55505</v>
+      </c>
+      <c r="O37" s="3">
+        <v>53331</v>
+      </c>
+      <c r="P37" s="3">
+        <v>37746</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>37111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1274,8 +2681,44 @@
       <c r="D38" s="2">
         <v>46685</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <v>46661</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46737</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1725</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1634</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1803</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1358</v>
+      </c>
+      <c r="L38" s="3">
+        <v>615793</v>
+      </c>
+      <c r="M38" s="3">
+        <v>704664</v>
+      </c>
+      <c r="N38" s="3">
+        <v>29981</v>
+      </c>
+      <c r="O38" s="3">
+        <v>28379</v>
+      </c>
+      <c r="P38" s="3">
+        <v>22209</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>21315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1288,8 +2731,44 @@
       <c r="D39" s="2">
         <v>53472</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="5">
+        <v>46128</v>
+      </c>
+      <c r="G39" s="3">
+        <v>48547</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2068</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1793</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1513</v>
+      </c>
+      <c r="L39" s="3">
+        <v>746313</v>
+      </c>
+      <c r="M39" s="3">
+        <v>849413</v>
+      </c>
+      <c r="N39" s="3">
+        <v>36326</v>
+      </c>
+      <c r="O39" s="3">
+        <v>34718</v>
+      </c>
+      <c r="P39" s="3">
+        <v>24612</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>25554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1302,8 +2781,44 @@
       <c r="D40" s="2">
         <v>62643</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="5">
+        <v>121331</v>
+      </c>
+      <c r="G40" s="3">
+        <v>123054</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3587</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3269</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2699</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2531</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1322321</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1333753</v>
+      </c>
+      <c r="N40" s="3">
+        <v>48316</v>
+      </c>
+      <c r="O40" s="3">
+        <v>46288</v>
+      </c>
+      <c r="P40" s="3">
+        <v>29274</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>28139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1316,8 +2831,44 @@
       <c r="D41" s="2">
         <v>61993</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="5">
+        <v>63207</v>
+      </c>
+      <c r="G41" s="3">
+        <v>55772</v>
+      </c>
+      <c r="H41" s="4">
+        <v>3395</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3202</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2823</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2388</v>
+      </c>
+      <c r="L41" s="3">
+        <v>715058</v>
+      </c>
+      <c r="M41" s="3">
+        <v>893823</v>
+      </c>
+      <c r="N41" s="3">
+        <v>36726</v>
+      </c>
+      <c r="O41" s="3">
+        <v>35427</v>
+      </c>
+      <c r="P41" s="3">
+        <v>29768</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>27014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1330,8 +2881,44 @@
       <c r="D42" s="2">
         <v>42956</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="5">
+        <v>798000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>654100</v>
+      </c>
+      <c r="H42" s="4">
+        <v>26683</v>
+      </c>
+      <c r="I42" s="3">
+        <v>25597</v>
+      </c>
+      <c r="J42" s="3">
+        <v>23623</v>
+      </c>
+      <c r="K42" s="3">
+        <v>19333</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1344,8 +2931,44 @@
       <c r="D43" s="2">
         <v>67230</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="5">
+        <v>70582</v>
+      </c>
+      <c r="G43" s="3">
+        <v>71412</v>
+      </c>
+      <c r="H43" s="4">
+        <v>3361</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3268</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2630</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2229</v>
+      </c>
+      <c r="L43" s="3">
+        <v>875652</v>
+      </c>
+      <c r="M43" s="3">
+        <v>942209</v>
+      </c>
+      <c r="N43" s="3">
+        <v>47127</v>
+      </c>
+      <c r="O43" s="3">
+        <v>44838</v>
+      </c>
+      <c r="P43" s="3">
+        <v>32171</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1358,8 +2981,44 @@
       <c r="D44" s="2">
         <v>46580</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="5">
+        <v>47521</v>
+      </c>
+      <c r="G44" s="3">
+        <v>49079</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1851</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1766</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1973</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1505</v>
+      </c>
+      <c r="L44" s="3">
+        <v>710696</v>
+      </c>
+      <c r="M44" s="3">
+        <v>778211</v>
+      </c>
+      <c r="N44" s="3">
+        <v>30866</v>
+      </c>
+      <c r="O44" s="3">
+        <v>29156</v>
+      </c>
+      <c r="P44" s="3">
+        <v>22513</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>20589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1372,8 +3031,44 @@
       <c r="D45" s="2">
         <v>14727</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="5">
+        <v>14301</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14867</v>
+      </c>
+      <c r="H45" s="4">
+        <v>599</v>
+      </c>
+      <c r="I45" s="3">
+        <v>562</v>
+      </c>
+      <c r="J45" s="3">
+        <v>499</v>
+      </c>
+      <c r="K45" s="3">
+        <v>456</v>
+      </c>
+      <c r="L45" s="3">
+        <v>193674</v>
+      </c>
+      <c r="M45" s="3">
+        <v>201549</v>
+      </c>
+      <c r="N45" s="3">
+        <v>9712</v>
+      </c>
+      <c r="O45" s="3">
+        <v>9307</v>
+      </c>
+      <c r="P45" s="3">
+        <v>7049</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1386,8 +3081,44 @@
       <c r="D46" s="2">
         <v>82717</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="5">
+        <v>148530</v>
+      </c>
+      <c r="G46" s="3">
+        <v>132560</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5428</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4918</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4767</v>
+      </c>
+      <c r="K46" s="3">
+        <v>4083</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1134769</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1127762</v>
+      </c>
+      <c r="N46" s="3">
+        <v>52554</v>
+      </c>
+      <c r="O46" s="3">
+        <v>52222</v>
+      </c>
+      <c r="P46" s="3">
+        <v>39019</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>34848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1400,8 +3131,44 @@
       <c r="D47" s="2">
         <v>64838</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="5">
+        <v>77842</v>
+      </c>
+      <c r="G47" s="3">
+        <v>78720</v>
+      </c>
+      <c r="H47" s="4">
+        <v>4036</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3776</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3338</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2768</v>
+      </c>
+      <c r="L47" s="3">
+        <v>839159</v>
+      </c>
+      <c r="M47" s="3">
+        <v>869655</v>
+      </c>
+      <c r="N47" s="3">
+        <v>45952</v>
+      </c>
+      <c r="O47" s="3">
+        <v>43998</v>
+      </c>
+      <c r="P47" s="3">
+        <v>29990</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>28742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1414,8 +3181,44 @@
       <c r="D48" s="2">
         <v>157802</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="5">
+        <v>101881</v>
+      </c>
+      <c r="G48" s="3">
+        <v>99211</v>
+      </c>
+      <c r="H48" s="4">
+        <v>4894</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4661</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4789</v>
+      </c>
+      <c r="K48" s="3">
+        <v>4095</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1605091</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1735219</v>
+      </c>
+      <c r="N48" s="3">
+        <v>94626</v>
+      </c>
+      <c r="O48" s="3">
+        <v>90199</v>
+      </c>
+      <c r="P48" s="3">
+        <v>76879</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>72039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1428,8 +3231,44 @@
       <c r="D49" s="2">
         <v>80011</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <v>171441</v>
+      </c>
+      <c r="G49" s="3">
+        <v>175068</v>
+      </c>
+      <c r="H49" s="4">
+        <v>7221</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6946</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5272</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4396</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1541797</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1534060</v>
+      </c>
+      <c r="N49" s="3">
+        <v>60589</v>
+      </c>
+      <c r="O49" s="3">
+        <v>57266</v>
+      </c>
+      <c r="P49" s="3">
+        <v>36396</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>33947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1442,8 +3281,44 @@
       <c r="D50" s="2">
         <v>35876</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <v>47394</v>
+      </c>
+      <c r="G50" s="3">
+        <v>49630</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2257</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2210</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1990</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1619</v>
+      </c>
+      <c r="L50" s="3">
+        <v>618495</v>
+      </c>
+      <c r="M50" s="3">
+        <v>654858</v>
+      </c>
+      <c r="N50" s="3">
+        <v>27199</v>
+      </c>
+      <c r="O50" s="3">
+        <v>25362</v>
+      </c>
+      <c r="P50" s="3">
+        <v>17052</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>15215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1456,8 +3331,44 @@
       <c r="D51" s="2">
         <v>74619</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <v>73459</v>
+      </c>
+      <c r="G51" s="3">
+        <v>66975</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3448</v>
+      </c>
+      <c r="I51" s="3">
+        <v>3273</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3139</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2614</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1163446</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1178699</v>
+      </c>
+      <c r="N51" s="3">
+        <v>52403</v>
+      </c>
+      <c r="O51" s="3">
+        <v>50031</v>
+      </c>
+      <c r="P51" s="3">
+        <v>35693</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>33173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1470,8 +3381,44 @@
       <c r="D52" s="2">
         <v>137334</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="5">
+        <v>83403</v>
+      </c>
+      <c r="G52" s="3">
+        <v>89300</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5566</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5259</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5709</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4804</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1662734</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1699749</v>
+      </c>
+      <c r="N52" s="3">
+        <v>93113</v>
+      </c>
+      <c r="O52" s="3">
+        <v>88866</v>
+      </c>
+      <c r="P52" s="3">
+        <v>64793</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>62028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1484,8 +3431,44 @@
       <c r="D53" s="2">
         <v>33407</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="5">
+        <v>244786</v>
+      </c>
+      <c r="G53" s="3">
+        <v>199628</v>
+      </c>
+      <c r="H53" s="4">
+        <v>7541</v>
+      </c>
+      <c r="I53" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J53" s="3">
+        <v>7381</v>
+      </c>
+      <c r="K53" s="3">
+        <v>5853</v>
+      </c>
+      <c r="L53" s="3">
+        <v>427784</v>
+      </c>
+      <c r="M53" s="3">
+        <v>430995</v>
+      </c>
+      <c r="N53" s="3">
+        <v>14541</v>
+      </c>
+      <c r="O53" s="3">
+        <v>13364</v>
+      </c>
+      <c r="P53" s="3">
+        <v>10856</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1498,8 +3481,44 @@
       <c r="D54" s="2">
         <v>39254</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="5">
+        <v>859940</v>
+      </c>
+      <c r="G54" s="3">
+        <v>725060</v>
+      </c>
+      <c r="H54" s="4">
+        <v>23581</v>
+      </c>
+      <c r="I54" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21812</v>
+      </c>
+      <c r="K54" s="3">
+        <v>17442</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1512,8 +3531,44 @@
       <c r="D55" s="2">
         <v>101146</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <v>233587</v>
+      </c>
+      <c r="G55" s="3">
+        <v>260196</v>
+      </c>
+      <c r="H55" s="4">
+        <v>10753</v>
+      </c>
+      <c r="I55" s="3">
+        <v>10487</v>
+      </c>
+      <c r="J55" s="3">
+        <v>8086</v>
+      </c>
+      <c r="K55" s="3">
+        <v>6886</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1324408</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1340625</v>
+      </c>
+      <c r="N55" s="3">
+        <v>65142</v>
+      </c>
+      <c r="O55" s="3">
+        <v>62741</v>
+      </c>
+      <c r="P55" s="3">
+        <v>44071</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>42103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1526,8 +3581,44 @@
       <c r="D56" s="2">
         <v>63717</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="5">
+        <v>73719</v>
+      </c>
+      <c r="G56" s="3">
+        <v>71187</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3678</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3516</v>
+      </c>
+      <c r="J56" s="3">
+        <v>3015</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2667</v>
+      </c>
+      <c r="L56" s="3">
+        <v>864633</v>
+      </c>
+      <c r="M56" s="3">
+        <v>884739</v>
+      </c>
+      <c r="N56" s="3">
+        <v>46706</v>
+      </c>
+      <c r="O56" s="3">
+        <v>44504</v>
+      </c>
+      <c r="P56" s="3">
+        <v>29612</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>28423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1540,8 +3631,44 @@
       <c r="D57" s="2">
         <v>61388</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="5">
+        <v>101618</v>
+      </c>
+      <c r="G57" s="3">
+        <v>87599</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2247</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2137</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1879</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1564</v>
+      </c>
+      <c r="L57" s="3">
+        <v>896876</v>
+      </c>
+      <c r="M57" s="3">
+        <v>889799</v>
+      </c>
+      <c r="N57" s="3">
+        <v>43093</v>
+      </c>
+      <c r="O57" s="3">
+        <v>41014</v>
+      </c>
+      <c r="P57" s="3">
+        <v>30110</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>27835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1554,8 +3681,44 @@
       <c r="D58" s="2">
         <v>45006</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="5">
+        <v>148392</v>
+      </c>
+      <c r="G58" s="3">
+        <v>127288</v>
+      </c>
+      <c r="H58" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5694</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3544</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3915</v>
+      </c>
+      <c r="L58" s="3">
+        <v>773330</v>
+      </c>
+      <c r="M58" s="3">
+        <v>737230</v>
+      </c>
+      <c r="N58" s="3">
+        <v>37699</v>
+      </c>
+      <c r="O58" s="3">
+        <v>35314</v>
+      </c>
+      <c r="P58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>17747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1568,8 +3731,44 @@
       <c r="D59" s="2">
         <v>1321</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="5">
+        <v>51030</v>
+      </c>
+      <c r="G59" s="3">
+        <v>25561</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1131</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1171</v>
+      </c>
+      <c r="J59" s="3">
+        <v>749</v>
+      </c>
+      <c r="K59" s="3">
+        <v>572</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1582,8 +3781,44 @@
       <c r="D60" s="2">
         <v>114507</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="5">
+        <v>127019</v>
+      </c>
+      <c r="G60" s="3">
+        <v>116227</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5917</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5722</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4975</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4472</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1655500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1671201</v>
+      </c>
+      <c r="N60" s="3">
+        <v>81650</v>
+      </c>
+      <c r="O60" s="3">
+        <v>78665</v>
+      </c>
+      <c r="P60" s="3">
+        <v>54586</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>50474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1596,8 +3831,44 @@
       <c r="D61" s="2">
         <v>67240</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="5">
+        <v>81303</v>
+      </c>
+      <c r="G61" s="3">
+        <v>81735</v>
+      </c>
+      <c r="H61" s="4">
+        <v>3250</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3147</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2656</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2436</v>
+      </c>
+      <c r="L61" s="3">
+        <v>952345</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1144380</v>
+      </c>
+      <c r="N61" s="3">
+        <v>43338</v>
+      </c>
+      <c r="O61" s="3">
+        <v>41078</v>
+      </c>
+      <c r="P61" s="3">
+        <v>32437</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>29711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1610,8 +3881,44 @@
       <c r="D62" s="2">
         <v>65023</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="5">
+        <v>98621</v>
+      </c>
+      <c r="G62" s="3">
+        <v>86987</v>
+      </c>
+      <c r="H62" s="4">
+        <v>4124</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3849</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3564</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3015</v>
+      </c>
+      <c r="L62" s="3">
+        <v>829290</v>
+      </c>
+      <c r="M62" s="3">
+        <v>844311</v>
+      </c>
+      <c r="N62" s="3">
+        <v>41824</v>
+      </c>
+      <c r="O62" s="3">
+        <v>39908</v>
+      </c>
+      <c r="P62" s="3">
+        <v>30593</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>27851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1624,8 +3931,44 @@
       <c r="D63" s="2">
         <v>93080</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="5">
+        <v>81726</v>
+      </c>
+      <c r="G63" s="3">
+        <v>83873</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4505</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4242</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3670</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1317583</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1416819</v>
+      </c>
+      <c r="N63" s="3">
+        <v>71049</v>
+      </c>
+      <c r="O63" s="3">
+        <v>67891</v>
+      </c>
+      <c r="P63" s="3">
+        <v>43475</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1638,8 +3981,44 @@
       <c r="D64" s="2">
         <v>87498</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="5">
+        <v>210390</v>
+      </c>
+      <c r="G64" s="3">
+        <v>197020</v>
+      </c>
+      <c r="H64" s="4">
+        <v>7841</v>
+      </c>
+      <c r="I64" s="3">
+        <v>7140</v>
+      </c>
+      <c r="J64" s="3">
+        <v>6893</v>
+      </c>
+      <c r="K64" s="3">
+        <v>5439</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1443051</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1358769</v>
+      </c>
+      <c r="N64" s="3">
+        <v>64492</v>
+      </c>
+      <c r="O64" s="3">
+        <v>59977</v>
+      </c>
+      <c r="P64" s="3">
+        <v>39591</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>35575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1652,8 +4031,44 @@
       <c r="D65" s="2">
         <v>72266</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="5">
+        <v>111006</v>
+      </c>
+      <c r="G65" s="3">
+        <v>103915</v>
+      </c>
+      <c r="H65" s="4">
+        <v>4082</v>
+      </c>
+      <c r="I65" s="3">
+        <v>3674</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3170</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2718</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1366400</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1272873</v>
+      </c>
+      <c r="N65" s="3">
+        <v>58747</v>
+      </c>
+      <c r="O65" s="3">
+        <v>54298</v>
+      </c>
+      <c r="P65" s="3">
+        <v>34378</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1666,8 +4081,44 @@
       <c r="D66" s="2">
         <v>2759</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="5">
+        <v>53169</v>
+      </c>
+      <c r="G66" s="3">
+        <v>50322</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2062</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1997</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1269</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1680,8 +4131,44 @@
       <c r="D67" s="2">
         <v>11358</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="5">
+        <v>281538</v>
+      </c>
+      <c r="G67" s="3">
+        <v>269693</v>
+      </c>
+      <c r="H67" s="4">
+        <v>7541</v>
+      </c>
+      <c r="I67" s="3">
+        <v>7016</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6483</v>
+      </c>
+      <c r="K67" s="3">
+        <v>4875</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1694,8 +4181,44 @@
       <c r="D68" s="2">
         <v>65231</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="5">
+        <v>129501</v>
+      </c>
+      <c r="G68" s="3">
+        <v>129580</v>
+      </c>
+      <c r="H68" s="4">
+        <v>3846</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3507</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2990</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2582</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1274210</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1257224</v>
+      </c>
+      <c r="N68" s="3">
+        <v>52811</v>
+      </c>
+      <c r="O68" s="3">
+        <v>49395</v>
+      </c>
+      <c r="P68" s="3">
+        <v>31201</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>28458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1708,8 +4231,44 @@
       <c r="D69" s="2">
         <v>36351</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="5">
+        <v>90981</v>
+      </c>
+      <c r="G69" s="3">
+        <v>93550</v>
+      </c>
+      <c r="H69" s="4">
+        <v>4181</v>
+      </c>
+      <c r="I69" s="3">
+        <v>4211</v>
+      </c>
+      <c r="J69" s="3">
+        <v>4169</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3359</v>
+      </c>
+      <c r="L69" s="3">
+        <v>536618</v>
+      </c>
+      <c r="M69" s="3">
+        <v>594767</v>
+      </c>
+      <c r="N69" s="3">
+        <v>20262</v>
+      </c>
+      <c r="O69" s="3">
+        <v>19170</v>
+      </c>
+      <c r="P69" s="3">
+        <v>14443</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>14380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1722,8 +4281,44 @@
       <c r="D70" s="2">
         <v>2578610</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="5">
+        <v>5745200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>5258627</v>
+      </c>
+      <c r="H70" s="4">
+        <v>210595</v>
+      </c>
+      <c r="I70" s="3">
+        <v>198601</v>
+      </c>
+      <c r="J70" s="3">
+        <v>180337</v>
+      </c>
+      <c r="K70" s="3">
+        <v>119609</v>
+      </c>
+      <c r="L70" s="3">
+        <v>30003645</v>
+      </c>
+      <c r="M70" s="3">
+        <v>36804977</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1732614</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1649975</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1160494</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1088770</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1736,8 +4331,44 @@
       <c r="D71" s="2">
         <v>108406</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="5">
+        <v>189085</v>
+      </c>
+      <c r="G71" s="3">
+        <v>175860</v>
+      </c>
+      <c r="H71" s="4">
+        <v>8331</v>
+      </c>
+      <c r="I71" s="3">
+        <v>7936</v>
+      </c>
+      <c r="J71" s="3">
+        <v>7367</v>
+      </c>
+      <c r="K71" s="3">
+        <v>5793</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1425597</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1368021</v>
+      </c>
+      <c r="N71" s="3">
+        <v>77238</v>
+      </c>
+      <c r="O71" s="3">
+        <v>73193</v>
+      </c>
+      <c r="P71" s="3">
+        <v>49425</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1750,8 +4381,44 @@
       <c r="D72" s="2">
         <v>3661808</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="5">
+        <v>9004156</v>
+      </c>
+      <c r="G72" s="3">
+        <v>8563199</v>
+      </c>
+      <c r="H72" s="4">
+        <v>326599</v>
+      </c>
+      <c r="I72" s="3">
+        <v>306153</v>
+      </c>
+      <c r="J72" s="3">
+        <v>263530</v>
+      </c>
+      <c r="K72" s="3">
+        <v>219811</v>
+      </c>
+      <c r="L72" s="3">
+        <v>55758090</v>
+      </c>
+      <c r="M72" s="3">
+        <v>50826873</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2519570</v>
+      </c>
+      <c r="O72" s="3">
+        <v>2893579</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1640113</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1038351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1764,8 +4431,44 @@
       <c r="D73" s="2">
         <v>14158</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>42729</v>
+      </c>
+      <c r="G73" s="3">
+        <v>37316</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1230</v>
+      </c>
+      <c r="I73" s="3">
+        <v>795</v>
+      </c>
+      <c r="J73" s="3">
+        <v>774</v>
+      </c>
+      <c r="K73" s="3">
+        <v>606</v>
+      </c>
+      <c r="L73" s="3">
+        <v>371334</v>
+      </c>
+      <c r="M73" s="3">
+        <v>306748</v>
+      </c>
+      <c r="N73" s="3">
+        <v>9157</v>
+      </c>
+      <c r="O73" s="3">
+        <v>8027</v>
+      </c>
+      <c r="P73" s="3">
+        <v>7089</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1778,8 +4481,44 @@
       <c r="D74" s="2">
         <v>5659</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="3">
+        <v>205822</v>
+      </c>
+      <c r="G74" s="3">
+        <v>122265</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4409</v>
+      </c>
+      <c r="I74" s="3">
+        <v>3986</v>
+      </c>
+      <c r="J74" s="3">
+        <v>3238</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2421</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1792,8 +4531,44 @@
       <c r="D75" s="2">
         <v>3234</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>22045</v>
+      </c>
+      <c r="G75" s="3">
+        <v>17585</v>
+      </c>
+      <c r="H75" s="3">
+        <v>576</v>
+      </c>
+      <c r="I75" s="3">
+        <v>520</v>
+      </c>
+      <c r="J75" s="3">
+        <v>542</v>
+      </c>
+      <c r="K75" s="3">
+        <v>347</v>
+      </c>
+      <c r="L75" s="3">
+        <v>61983</v>
+      </c>
+      <c r="M75" s="3">
+        <v>58996</v>
+      </c>
+      <c r="N75" s="3">
+        <v>1656</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1784</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1199</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1806,8 +4581,44 @@
       <c r="D76" s="2">
         <v>13424</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="3">
+        <v>38427</v>
+      </c>
+      <c r="G76" s="3">
+        <v>24111</v>
+      </c>
+      <c r="H76" s="3">
+        <v>733</v>
+      </c>
+      <c r="I76" s="3">
+        <v>706</v>
+      </c>
+      <c r="J76" s="3">
+        <v>688</v>
+      </c>
+      <c r="K76" s="3">
+        <v>552</v>
+      </c>
+      <c r="L76" s="3">
+        <v>319844</v>
+      </c>
+      <c r="M76" s="3">
+        <v>296786</v>
+      </c>
+      <c r="N76" s="3">
+        <v>7014</v>
+      </c>
+      <c r="O76" s="3">
+        <v>6179</v>
+      </c>
+      <c r="P76" s="3">
+        <v>6659</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1820,8 +4631,44 @@
       <c r="D77" s="2">
         <v>15462</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>55470</v>
+      </c>
+      <c r="G77" s="3">
+        <v>51058</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1021</v>
+      </c>
+      <c r="I77" s="3">
+        <v>935</v>
+      </c>
+      <c r="J77" s="3">
+        <v>881</v>
+      </c>
+      <c r="K77" s="3">
+        <v>655</v>
+      </c>
+      <c r="L77" s="3">
+        <v>521956</v>
+      </c>
+      <c r="M77" s="3">
+        <v>468224</v>
+      </c>
+      <c r="N77" s="3">
+        <v>10758</v>
+      </c>
+      <c r="O77" s="3">
+        <v>9348</v>
+      </c>
+      <c r="P77" s="3">
+        <v>7611</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1834,8 +4681,44 @@
       <c r="D78" s="2">
         <v>8881</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>22278</v>
+      </c>
+      <c r="G78" s="3">
+        <v>18905</v>
+      </c>
+      <c r="H78" s="3">
+        <v>374</v>
+      </c>
+      <c r="I78" s="3">
+        <v>330</v>
+      </c>
+      <c r="J78" s="3">
+        <v>239</v>
+      </c>
+      <c r="K78" s="3">
+        <v>216</v>
+      </c>
+      <c r="L78" s="3">
+        <v>158265</v>
+      </c>
+      <c r="M78" s="3">
+        <v>150241</v>
+      </c>
+      <c r="N78" s="3">
+        <v>6765</v>
+      </c>
+      <c r="O78" s="3">
+        <v>6249</v>
+      </c>
+      <c r="P78" s="3">
+        <v>4682</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1848,8 +4731,44 @@
       <c r="D79" s="2">
         <v>87372</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>108576</v>
+      </c>
+      <c r="G79" s="3">
+        <v>103248</v>
+      </c>
+      <c r="H79" s="3">
+        <v>5139</v>
+      </c>
+      <c r="I79" s="3">
+        <v>4653</v>
+      </c>
+      <c r="J79" s="3">
+        <v>4385</v>
+      </c>
+      <c r="K79" s="3">
+        <v>3521</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1209538</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1184223</v>
+      </c>
+      <c r="N79" s="3">
+        <v>64842</v>
+      </c>
+      <c r="O79" s="3">
+        <v>64188</v>
+      </c>
+      <c r="P79" s="3">
+        <v>41100</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>38366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1862,8 +4781,44 @@
       <c r="D80" s="2">
         <v>17056</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>48576</v>
+      </c>
+      <c r="G80" s="3">
+        <v>29617</v>
+      </c>
+      <c r="H80" s="3">
+        <v>855</v>
+      </c>
+      <c r="I80" s="3">
+        <v>669</v>
+      </c>
+      <c r="J80" s="3">
+        <v>480</v>
+      </c>
+      <c r="K80" s="3">
+        <v>411</v>
+      </c>
+      <c r="L80" s="3">
+        <v>551290</v>
+      </c>
+      <c r="M80" s="3">
+        <v>473354</v>
+      </c>
+      <c r="N80" s="3">
+        <v>14193</v>
+      </c>
+      <c r="O80" s="3">
+        <v>12845</v>
+      </c>
+      <c r="P80" s="3">
+        <v>8459</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -1876,8 +4831,44 @@
       <c r="D81" s="2">
         <v>48995</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>34840</v>
+      </c>
+      <c r="G81" s="3">
+        <v>34249</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1373</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1263</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1105</v>
+      </c>
+      <c r="K81" s="3">
+        <v>932</v>
+      </c>
+      <c r="L81" s="3">
+        <v>571937</v>
+      </c>
+      <c r="M81" s="3">
+        <v>559774</v>
+      </c>
+      <c r="N81" s="3">
+        <v>33783</v>
+      </c>
+      <c r="O81" s="3">
+        <v>31612</v>
+      </c>
+      <c r="P81" s="3">
+        <v>23954</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>22914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1890,8 +4881,44 @@
       <c r="D82" s="2">
         <v>28418</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>96124</v>
+      </c>
+      <c r="G82" s="3">
+        <v>82133</v>
+      </c>
+      <c r="H82" s="3">
+        <v>4525</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4502</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2882</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2430</v>
+      </c>
+      <c r="L82" s="3">
+        <v>500446</v>
+      </c>
+      <c r="M82" s="3">
+        <v>447188</v>
+      </c>
+      <c r="N82" s="3">
+        <v>20304</v>
+      </c>
+      <c r="O82" s="3">
+        <v>18803</v>
+      </c>
+      <c r="P82" s="3">
+        <v>12141</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>10965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -1904,8 +4931,44 @@
       <c r="D83" s="2">
         <v>23892</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>196156</v>
+      </c>
+      <c r="G83" s="3">
+        <v>153413</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4566</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5122</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2764</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2615</v>
+      </c>
+      <c r="L83" s="3">
+        <v>455740</v>
+      </c>
+      <c r="M83" s="3">
+        <v>396579</v>
+      </c>
+      <c r="N83" s="3">
+        <v>17961</v>
+      </c>
+      <c r="O83" s="3">
+        <v>16446</v>
+      </c>
+      <c r="P83" s="3">
+        <v>9890</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -1918,8 +4981,44 @@
       <c r="D84" s="2">
         <v>2753</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>35454</v>
+      </c>
+      <c r="G84" s="3">
+        <v>23920</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1018</v>
+      </c>
+      <c r="I84" s="3">
+        <v>985</v>
+      </c>
+      <c r="J84" s="3">
+        <v>821</v>
+      </c>
+      <c r="K84" s="3">
+        <v>554</v>
+      </c>
+      <c r="L84" s="3">
+        <v>34671</v>
+      </c>
+      <c r="M84" s="3">
+        <v>26570</v>
+      </c>
+      <c r="N84" s="3">
+        <v>1207</v>
+      </c>
+      <c r="O84" s="3">
+        <v>1115</v>
+      </c>
+      <c r="P84" s="3">
+        <v>771</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -1932,8 +5031,44 @@
       <c r="D85" s="2">
         <v>21646</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>52346</v>
+      </c>
+      <c r="G85" s="3">
+        <v>37423</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1701</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1711</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1341</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1077</v>
+      </c>
+      <c r="L85" s="3">
+        <v>420550</v>
+      </c>
+      <c r="M85" s="3">
+        <v>372101</v>
+      </c>
+      <c r="N85" s="3">
+        <v>15803</v>
+      </c>
+      <c r="O85" s="3">
+        <v>14071</v>
+      </c>
+      <c r="P85" s="3">
+        <v>10045</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -1946,8 +5081,44 @@
       <c r="D86" s="2">
         <v>290866</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>958813</v>
+      </c>
+      <c r="G86" s="3">
+        <v>735243</v>
+      </c>
+      <c r="H86" s="3">
+        <v>27520</v>
+      </c>
+      <c r="I86" s="3">
+        <v>26177</v>
+      </c>
+      <c r="J86" s="3">
+        <v>20140</v>
+      </c>
+      <c r="K86" s="3">
+        <v>16337</v>
+      </c>
+      <c r="L86" s="3">
+        <v>5177560</v>
+      </c>
+      <c r="M86" s="3">
+        <v>4740184</v>
+      </c>
+      <c r="N86" s="3">
+        <v>203443</v>
+      </c>
+      <c r="O86" s="3">
+        <v>190667</v>
+      </c>
+      <c r="P86" s="3">
+        <v>133600</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>120783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -1960,8 +5131,44 @@
       <c r="D87" s="2">
         <v>5226</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>42530</v>
+      </c>
+      <c r="G87" s="3">
+        <v>25534</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1108</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1115</v>
+      </c>
+      <c r="J87" s="3">
+        <v>898</v>
+      </c>
+      <c r="K87" s="3">
+        <v>682</v>
+      </c>
+      <c r="L87" s="3">
+        <v>72392</v>
+      </c>
+      <c r="M87" s="3">
+        <v>58404</v>
+      </c>
+      <c r="N87" s="3">
+        <v>3036</v>
+      </c>
+      <c r="O87" s="3">
+        <v>3092</v>
+      </c>
+      <c r="P87" s="3">
+        <v>1871</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1974,8 +5181,44 @@
       <c r="D88" s="2">
         <v>34376</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <v>69052</v>
+      </c>
+      <c r="G88" s="3">
+        <v>54103</v>
+      </c>
+      <c r="H88" s="3">
+        <v>2718</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2666</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2529</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1996</v>
+      </c>
+      <c r="L88" s="3">
+        <v>422558</v>
+      </c>
+      <c r="M88" s="3">
+        <v>374260</v>
+      </c>
+      <c r="N88" s="3">
+        <v>24517</v>
+      </c>
+      <c r="O88" s="3">
+        <v>23480</v>
+      </c>
+      <c r="P88" s="3">
+        <v>15785</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>14066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -1988,8 +5231,44 @@
       <c r="D89" s="2">
         <v>22053</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>74591</v>
+      </c>
+      <c r="G89" s="3">
+        <v>42061</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2180</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2184</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1497</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1176</v>
+      </c>
+      <c r="L89" s="3">
+        <v>383686</v>
+      </c>
+      <c r="M89" s="3">
+        <v>360007</v>
+      </c>
+      <c r="N89" s="3">
+        <v>15781</v>
+      </c>
+      <c r="O89" s="3">
+        <v>14920</v>
+      </c>
+      <c r="P89" s="3">
+        <v>9996</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2002,8 +5281,44 @@
       <c r="D90" s="2">
         <v>20563</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>31482</v>
+      </c>
+      <c r="G90" s="3">
+        <v>32840</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1501</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1805</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1763</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1527</v>
+      </c>
+      <c r="L90" s="3">
+        <v>286891</v>
+      </c>
+      <c r="M90" s="3">
+        <v>248897</v>
+      </c>
+      <c r="N90" s="3">
+        <v>12708</v>
+      </c>
+      <c r="O90" s="3">
+        <v>11683</v>
+      </c>
+      <c r="P90" s="3">
+        <v>9239</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2016,8 +5331,44 @@
       <c r="D91" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2030,8 +5381,44 @@
       <c r="D92" s="2">
         <v>7380</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>119188</v>
+      </c>
+      <c r="G92" s="3">
+        <v>54474</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3329</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2979</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1560</v>
+      </c>
+      <c r="K92" s="3">
+        <v>803</v>
+      </c>
+      <c r="L92" s="3">
+        <v>213539</v>
+      </c>
+      <c r="M92" s="3">
+        <v>130662</v>
+      </c>
+      <c r="N92" s="3">
+        <v>4898</v>
+      </c>
+      <c r="O92" s="3">
+        <v>4633</v>
+      </c>
+      <c r="P92" s="3">
+        <v>2702</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2044,8 +5431,44 @@
       <c r="D93" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L93" s="3">
+        <v>5094</v>
+      </c>
+      <c r="M93" s="3">
+        <v>2676</v>
+      </c>
+      <c r="N93" s="3">
+        <v>84</v>
+      </c>
+      <c r="O93" s="3">
+        <v>99</v>
+      </c>
+      <c r="P93" s="3">
+        <v>95</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2058,8 +5481,44 @@
       <c r="D94" s="2">
         <v>80766</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>70403</v>
+      </c>
+      <c r="G94" s="3">
+        <v>59395</v>
+      </c>
+      <c r="H94" s="3">
+        <v>2704</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2682</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2518</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2141</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M94" s="3">
+        <v>882677</v>
+      </c>
+      <c r="N94" s="3">
+        <v>52078</v>
+      </c>
+      <c r="O94" s="3">
+        <v>49784</v>
+      </c>
+      <c r="P94" s="3">
+        <v>39360</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>36747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2072,8 +5531,44 @@
       <c r="D95" s="2">
         <v>123826</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>105347</v>
+      </c>
+      <c r="G95" s="3">
+        <v>97860</v>
+      </c>
+      <c r="H95" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I95" s="3">
+        <v>5651</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3546</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3425</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1645632</v>
+      </c>
+      <c r="M95" s="3">
+        <v>1605146</v>
+      </c>
+      <c r="N95" s="3">
+        <v>97495</v>
+      </c>
+      <c r="O95" s="3">
+        <v>96572</v>
+      </c>
+      <c r="P95" s="3">
+        <v>60574</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>56281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2086,8 +5581,44 @@
       <c r="D96" s="2">
         <v>8020</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>5916</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4480</v>
+      </c>
+      <c r="H96" s="3">
+        <v>398</v>
+      </c>
+      <c r="I96" s="3">
+        <v>354</v>
+      </c>
+      <c r="J96" s="3">
+        <v>376</v>
+      </c>
+      <c r="K96" s="3">
+        <v>287</v>
+      </c>
+      <c r="L96" s="3">
+        <v>134866</v>
+      </c>
+      <c r="M96" s="3">
+        <v>125108</v>
+      </c>
+      <c r="N96" s="3">
+        <v>5349</v>
+      </c>
+      <c r="O96" s="3">
+        <v>5082</v>
+      </c>
+      <c r="P96" s="3">
+        <v>3812</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2100,8 +5631,44 @@
       <c r="D97" s="2">
         <v>302602</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <v>518509</v>
+      </c>
+      <c r="G97" s="3">
+        <v>370747</v>
+      </c>
+      <c r="H97" s="3">
+        <v>20088</v>
+      </c>
+      <c r="I97" s="3">
+        <v>19436</v>
+      </c>
+      <c r="J97" s="3">
+        <v>14687</v>
+      </c>
+      <c r="K97" s="3">
+        <v>12037</v>
+      </c>
+      <c r="L97" s="3">
+        <v>4950236</v>
+      </c>
+      <c r="M97" s="3">
+        <v>3787837</v>
+      </c>
+      <c r="N97" s="3">
+        <v>215944</v>
+      </c>
+      <c r="O97" s="3">
+        <v>209345</v>
+      </c>
+      <c r="P97" s="3">
+        <v>143434</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>132193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2114,8 +5681,44 @@
       <c r="D98" s="2">
         <v>26162</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="3">
+        <v>76492</v>
+      </c>
+      <c r="G98" s="3">
+        <v>76396</v>
+      </c>
+      <c r="H98" s="3">
+        <v>4042</v>
+      </c>
+      <c r="I98" s="3">
+        <v>3875</v>
+      </c>
+      <c r="J98" s="3">
+        <v>3246</v>
+      </c>
+      <c r="K98" s="3">
+        <v>3023</v>
+      </c>
+      <c r="L98" s="3">
+        <v>553467</v>
+      </c>
+      <c r="M98" s="3">
+        <v>511479</v>
+      </c>
+      <c r="N98" s="3">
+        <v>19425</v>
+      </c>
+      <c r="O98" s="3">
+        <v>18318</v>
+      </c>
+      <c r="P98" s="3">
+        <v>9921</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2128,8 +5731,44 @@
       <c r="D99" s="2">
         <v>7399</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2142,8 +5781,44 @@
       <c r="D100" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>73213</v>
+      </c>
+      <c r="G100" s="3">
+        <v>68548</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L100" s="3">
+        <v>396244</v>
+      </c>
+      <c r="M100" s="3">
+        <v>341740</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2156,8 +5831,44 @@
       <c r="D101" s="2">
         <v>14012</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>30421</v>
+      </c>
+      <c r="G101" s="3">
+        <v>28269</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1704</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1584</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1416</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1241</v>
+      </c>
+      <c r="L101" s="3">
+        <v>459080</v>
+      </c>
+      <c r="M101" s="3">
+        <v>380521</v>
+      </c>
+      <c r="N101" s="3">
+        <v>9932</v>
+      </c>
+      <c r="O101" s="3">
+        <v>8442</v>
+      </c>
+      <c r="P101" s="3">
+        <v>6247</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2170,8 +5881,44 @@
       <c r="D102" s="2">
         <v>23832</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="3">
+        <v>54214</v>
+      </c>
+      <c r="G102" s="3">
+        <v>44452</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2006</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1856</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1204</v>
+      </c>
+      <c r="K102" s="3">
+        <v>996</v>
+      </c>
+      <c r="L102" s="3">
+        <v>562830</v>
+      </c>
+      <c r="M102" s="3">
+        <v>455863</v>
+      </c>
+      <c r="N102" s="3">
+        <v>19346</v>
+      </c>
+      <c r="O102" s="3">
+        <v>15036</v>
+      </c>
+      <c r="P102" s="3">
+        <v>5211785</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>9847</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2184,8 +5931,44 @@
       <c r="D103" s="2">
         <v>35919</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="3">
+        <v>146937</v>
+      </c>
+      <c r="G103" s="3">
+        <v>115981</v>
+      </c>
+      <c r="H103" s="3">
+        <v>4705</v>
+      </c>
+      <c r="I103" s="3">
+        <v>4091</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2698</v>
+      </c>
+      <c r="K103" s="3">
+        <v>2347</v>
+      </c>
+      <c r="L103" s="3">
+        <v>807018</v>
+      </c>
+      <c r="M103" s="3">
+        <v>640288</v>
+      </c>
+      <c r="N103" s="3">
+        <v>26550</v>
+      </c>
+      <c r="O103" s="3">
+        <v>18151</v>
+      </c>
+      <c r="P103" s="3">
+        <v>17712</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>13162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2198,8 +5981,44 @@
       <c r="D104" s="2">
         <v>17616</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="3">
+        <v>18638</v>
+      </c>
+      <c r="G104" s="3">
+        <v>17199</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I104" s="3">
+        <v>965</v>
+      </c>
+      <c r="J104" s="3">
+        <v>847</v>
+      </c>
+      <c r="K104" s="3">
+        <v>704</v>
+      </c>
+      <c r="L104" s="3">
+        <v>331817</v>
+      </c>
+      <c r="M104" s="3">
+        <v>312856</v>
+      </c>
+      <c r="N104" s="3">
+        <v>13219</v>
+      </c>
+      <c r="O104" s="3">
+        <v>12735</v>
+      </c>
+      <c r="P104" s="3">
+        <v>8175</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2212,8 +6031,44 @@
       <c r="D105" s="2">
         <v>13893</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="3">
+        <v>31729</v>
+      </c>
+      <c r="G105" s="3">
+        <v>30356</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1457</v>
+      </c>
+      <c r="I105" s="3">
+        <v>1389</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1033</v>
+      </c>
+      <c r="K105" s="3">
+        <v>969</v>
+      </c>
+      <c r="L105" s="3">
+        <v>377298</v>
+      </c>
+      <c r="M105" s="3">
+        <v>338593</v>
+      </c>
+      <c r="N105" s="3">
+        <v>9095</v>
+      </c>
+      <c r="O105" s="3">
+        <v>8198</v>
+      </c>
+      <c r="P105" s="3">
+        <v>6125</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2226,8 +6081,44 @@
       <c r="D106" s="2">
         <v>31496</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="3">
+        <v>204191</v>
+      </c>
+      <c r="G106" s="3">
+        <v>175453</v>
+      </c>
+      <c r="H106" s="3">
+        <v>4858</v>
+      </c>
+      <c r="I106" s="3">
+        <v>4740</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2679</v>
+      </c>
+      <c r="K106" s="3">
+        <v>2892</v>
+      </c>
+      <c r="L106" s="3">
+        <v>858430</v>
+      </c>
+      <c r="M106" s="3">
+        <v>758351</v>
+      </c>
+      <c r="N106" s="3">
+        <v>28666</v>
+      </c>
+      <c r="O106" s="3">
+        <v>26716</v>
+      </c>
+      <c r="P106" s="3">
+        <v>13576</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2240,8 +6131,44 @@
       <c r="D107" s="2">
         <v>170329</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="3">
+        <v>635835</v>
+      </c>
+      <c r="G107" s="3">
+        <v>556604</v>
+      </c>
+      <c r="H107" s="3">
+        <v>19908</v>
+      </c>
+      <c r="I107" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J107" s="3">
+        <v>18123</v>
+      </c>
+      <c r="K107" s="3">
+        <v>12172</v>
+      </c>
+      <c r="L107" s="3">
+        <v>4340190</v>
+      </c>
+      <c r="M107" s="3">
+        <v>3739691</v>
+      </c>
+      <c r="N107" s="3">
+        <v>126233</v>
+      </c>
+      <c r="O107" s="3">
+        <v>107596</v>
+      </c>
+      <c r="P107" s="3">
+        <v>73541</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>64094</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2254,8 +6181,44 @@
       <c r="D108" s="2">
         <v>763791</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="3">
+        <v>2113187</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1662594</v>
+      </c>
+      <c r="H108" s="3">
+        <v>67466</v>
+      </c>
+      <c r="I108" s="3">
+        <v>64113</v>
+      </c>
+      <c r="J108" s="3">
+        <v>47950</v>
+      </c>
+      <c r="K108" s="3">
+        <v>40516</v>
+      </c>
+      <c r="L108" s="3">
+        <v>13573986</v>
+      </c>
+      <c r="M108" s="3">
+        <v>12267712</v>
+      </c>
+      <c r="N108" s="3">
+        <v>545629</v>
+      </c>
+      <c r="O108" s="3">
+        <v>507608</v>
+      </c>
+      <c r="P108" s="3">
+        <v>350575</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>317070</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2268,178 +6231,490 @@
       <c r="D109" s="2">
         <v>4425599</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="3">
+        <v>10225793</v>
+      </c>
+      <c r="H109" s="3">
+        <v>394065</v>
+      </c>
+      <c r="I109" s="3">
+        <v>370266</v>
+      </c>
+      <c r="J109" s="3">
+        <v>811480</v>
+      </c>
+      <c r="K109" s="3">
+        <v>260360</v>
+      </c>
+      <c r="L109" s="3">
+        <v>69332082</v>
+      </c>
+      <c r="M109" s="3">
+        <v>69094585</v>
+      </c>
+      <c r="N109" s="3">
+        <v>3065190</v>
+      </c>
+      <c r="O109" s="3">
+        <v>2901187</v>
+      </c>
+      <c r="P109" s="3">
+        <v>1990688</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>1855421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5998F6-FD80-476B-BE23-4529A56E338B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F371EB-AC4F-427D-97A6-1E10D5BC5987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="138">
   <si>
     <t>губ</t>
   </si>
@@ -424,6 +424,27 @@
   </si>
   <si>
     <t>7«90</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -800,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
-  <dimension ref="A1:Q467"/>
+  <dimension ref="A1:AC467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="V98" sqref="V98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,14 +832,26 @@
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,37 +871,73 @@
         <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -887,38 +956,49 @@
       <c r="G2" s="3">
         <v>18087</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>907</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>907</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
         <v>922</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>681</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3">
         <v>181013</v>
       </c>
-      <c r="M2" s="3">
+      <c r="T2" s="3">
         <v>200832</v>
       </c>
-      <c r="N2" s="3">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3">
         <v>8623</v>
       </c>
-      <c r="O2" s="3">
+      <c r="X2" s="3">
         <v>8007</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3">
         <v>5505</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="AB2" s="3">
         <v>5172</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -937,38 +1017,49 @@
       <c r="G3" s="3">
         <v>87034</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>3772</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>3503</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>3937</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>2796</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
         <v>568050</v>
       </c>
-      <c r="M3" s="3">
+      <c r="T3" s="3">
         <v>537037</v>
       </c>
-      <c r="N3" s="3">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
         <v>20935</v>
       </c>
-      <c r="O3" s="3">
+      <c r="X3" s="3">
         <v>19494</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3">
         <v>14285</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="AB3" s="3">
         <v>12407</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -987,38 +1078,49 @@
       <c r="G4" s="3">
         <v>110682</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>3997</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>3366</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
         <v>2865</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>2397</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
         <v>828374</v>
       </c>
-      <c r="M4" s="3">
+      <c r="T4" s="3">
         <v>845210</v>
       </c>
-      <c r="N4" s="3">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
         <v>28498</v>
       </c>
-      <c r="O4" s="3">
+      <c r="X4" s="3">
         <v>27076</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3">
         <v>15597</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="AB4" s="3">
         <v>14372</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1037,38 +1139,49 @@
       <c r="G5" s="3">
         <v>160496</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>4050</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>3358</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
         <v>3218</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>2706</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
         <v>729472</v>
       </c>
-      <c r="M5" s="3">
+      <c r="T5" s="3">
         <v>763603</v>
       </c>
-      <c r="N5" s="3">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
         <v>28896</v>
       </c>
-      <c r="O5" s="3">
+      <c r="X5" s="3">
         <v>27236</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3">
         <v>16517</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="AB5" s="3">
         <v>14674</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1087,38 +1200,49 @@
       <c r="G6" s="3">
         <v>165197</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>4774</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>4187</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
         <v>3394</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>2796</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
         <v>1663619</v>
       </c>
-      <c r="M6" s="3">
+      <c r="T6" s="3">
         <v>1656977</v>
       </c>
-      <c r="N6" s="3">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
         <v>73054</v>
       </c>
-      <c r="O6" s="3">
+      <c r="X6" s="3">
         <v>68102</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3">
         <v>42352</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AB6" s="3">
         <v>38522</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1137,38 +1261,49 @@
       <c r="G7" s="3">
         <v>126165</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>3384</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>2684</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
         <v>2086</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>1748</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
         <v>770947</v>
       </c>
-      <c r="M7" s="3">
+      <c r="T7" s="3">
         <v>759342</v>
       </c>
-      <c r="N7" s="3">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
         <v>29413</v>
       </c>
-      <c r="O7" s="3">
+      <c r="X7" s="3">
         <v>26889</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3">
         <v>18436</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AB7" s="3">
         <v>17135</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1187,38 +1322,49 @@
       <c r="G8" s="3">
         <v>383503</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>10788</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10227</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
         <v>8633</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>6836</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
         <v>1893121</v>
       </c>
-      <c r="M8" s="3">
+      <c r="T8" s="3">
         <v>1915784</v>
       </c>
-      <c r="N8" s="3">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3">
         <v>78977</v>
       </c>
-      <c r="O8" s="3">
+      <c r="X8" s="3">
         <v>73420</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3">
         <v>55243</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="AB8" s="3">
         <v>50714</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1237,38 +1383,49 @@
       <c r="G9" s="3">
         <v>75046</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>2089</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1886</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
         <v>1647</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>1435</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
         <v>797873</v>
       </c>
-      <c r="M9" s="3">
+      <c r="T9" s="3">
         <v>818302</v>
       </c>
-      <c r="N9" s="3">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3">
         <v>23829</v>
       </c>
-      <c r="O9" s="3">
+      <c r="X9" s="3">
         <v>22991</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
         <v>15610</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="AB9" s="3">
         <v>15057</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1287,38 +1444,49 @@
       <c r="G10" s="3">
         <v>129781</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>4840</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3958</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
         <v>2826</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>2220</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
         <v>1255715</v>
       </c>
-      <c r="M10" s="3">
+      <c r="T10" s="3">
         <v>1254819</v>
       </c>
-      <c r="N10" s="3">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3">
         <v>51337</v>
       </c>
-      <c r="O10" s="3">
+      <c r="X10" s="3">
         <v>47984</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3">
         <v>25340</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="AB10" s="3">
         <v>22905</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1337,38 +1505,49 @@
       <c r="G11" s="3">
         <v>114697</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>3112</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>2665</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
         <v>1804</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>1531</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
         <v>974347</v>
       </c>
-      <c r="M11" s="3">
+      <c r="T11" s="3">
         <v>969602</v>
       </c>
-      <c r="N11" s="3">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3">
         <v>38687</v>
       </c>
-      <c r="O11" s="3">
+      <c r="X11" s="3">
         <v>37717</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3">
         <v>19376</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="AB11" s="3">
         <v>20422</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1387,38 +1566,49 @@
       <c r="G12" s="3">
         <v>121020</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>6964</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6587</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
         <v>5785</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>5082</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
         <v>920021</v>
       </c>
-      <c r="M12" s="3">
+      <c r="T12" s="3">
         <v>912654</v>
       </c>
-      <c r="N12" s="3">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3">
         <v>56726</v>
       </c>
-      <c r="O12" s="3">
+      <c r="X12" s="3">
         <v>54194</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3">
         <v>36022</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="AB12" s="3">
         <v>33535</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1437,38 +1627,49 @@
       <c r="G13" s="3">
         <v>130884</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>3567</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>3162</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
         <v>2857</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>2276</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
         <v>1630171</v>
       </c>
-      <c r="M13" s="3">
+      <c r="T13" s="3">
         <v>1656558</v>
       </c>
-      <c r="N13" s="3">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
         <v>70218</v>
       </c>
-      <c r="O13" s="3">
+      <c r="X13" s="3">
         <v>65888</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3">
         <v>45774</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AB13" s="3">
         <v>41662</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1487,38 +1688,49 @@
       <c r="G14" s="3">
         <v>1622592</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>52244</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>46490</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
         <v>39974</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>32504</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
         <v>12213223</v>
       </c>
-      <c r="M14" s="3">
+      <c r="T14" s="3">
         <v>12290720</v>
       </c>
-      <c r="N14" s="3">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3">
         <v>509193</v>
       </c>
-      <c r="O14" s="3">
+      <c r="X14" s="3">
         <v>478998</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3">
         <v>310567</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="AB14" s="3">
         <v>286577</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1537,38 +1749,49 @@
       <c r="G15" s="3">
         <v>69485</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>3400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2883</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
         <v>2205</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
         <v>823732</v>
       </c>
-      <c r="M15" s="3">
+      <c r="T15" s="3">
         <v>850640</v>
       </c>
-      <c r="N15" s="3">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
         <v>26475</v>
       </c>
-      <c r="O15" s="3">
+      <c r="X15" s="3">
         <v>23837</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3">
         <v>15170</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="AB15" s="3">
         <v>14221</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1587,38 +1810,49 @@
       <c r="G16" s="3">
         <v>397997</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>12501</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>11884</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
         <v>8717</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>7928</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="T16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" s="3">
+      <c r="X16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="AB16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1637,38 +1871,49 @@
       <c r="G17" s="3">
         <v>58787</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>1653</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1316</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3">
         <v>967</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>831</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
         <v>564263</v>
       </c>
-      <c r="M17" s="3">
+      <c r="T17" s="3">
         <v>603986</v>
       </c>
-      <c r="N17" s="3">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3">
         <v>22137</v>
       </c>
-      <c r="O17" s="3">
+      <c r="X17" s="3">
         <v>22315</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3">
         <v>11529</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="AB17" s="3">
         <v>12072</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1687,38 +1932,49 @@
       <c r="G18" s="3">
         <v>28059</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>871</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>734</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3">
         <v>638</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>504</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
         <v>530248</v>
       </c>
-      <c r="M18" s="3">
+      <c r="T18" s="3">
         <v>530023</v>
       </c>
-      <c r="N18" s="3">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3">
         <v>16418</v>
       </c>
-      <c r="O18" s="3">
+      <c r="X18" s="3">
         <v>15438</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3">
         <v>9018</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="AB18" s="3">
         <v>9816</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1737,38 +1993,49 @@
       <c r="G19" s="3">
         <v>46860</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>639</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>825</v>
       </c>
-      <c r="J19" s="3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3">
         <v>584</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="3">
         <v>578</v>
       </c>
-      <c r="L19" s="3">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
         <v>305821</v>
       </c>
-      <c r="M19" s="3">
+      <c r="T19" s="3">
         <v>348267</v>
       </c>
-      <c r="N19" s="3">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3">
         <v>7876</v>
       </c>
-      <c r="O19" s="3">
+      <c r="X19" s="3">
         <v>8046</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3">
         <v>5929</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="AB19" s="3">
         <v>5347</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1787,38 +2054,49 @@
       <c r="G20" s="3">
         <v>81215</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>2109</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1982</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3">
         <v>1521</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>1379</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3">
         <v>671635</v>
       </c>
-      <c r="M20" s="3">
+      <c r="T20" s="3">
         <v>662656</v>
       </c>
-      <c r="N20" s="3">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3">
         <v>23209</v>
       </c>
-      <c r="O20" s="3">
+      <c r="X20" s="3">
         <v>22011</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3">
         <v>14288</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="AB20" s="3">
         <v>13193</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1837,38 +2115,49 @@
       <c r="G21" s="3">
         <v>322879</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>17956</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>17868</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3">
         <v>8778</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>8326</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3">
         <v>645975</v>
       </c>
-      <c r="M21" s="3">
+      <c r="T21" s="3">
         <v>648266</v>
       </c>
-      <c r="N21" s="3">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3">
         <v>29744</v>
       </c>
-      <c r="O21" s="3">
+      <c r="X21" s="3">
         <v>27824</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3">
         <v>15840</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="AB21" s="3">
         <v>14990</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1887,38 +2176,49 @@
       <c r="G22" s="3">
         <v>46085</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>1337</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1214</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <v>741</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>730</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3">
         <v>333024</v>
       </c>
-      <c r="M22" s="3">
+      <c r="T22" s="3">
         <v>337406</v>
       </c>
-      <c r="N22" s="3">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3">
         <v>9496</v>
       </c>
-      <c r="O22" s="3">
+      <c r="X22" s="3">
         <v>9277</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3">
         <v>6191</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="AB22" s="3">
         <v>6352</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1937,38 +2237,49 @@
       <c r="G23" s="3">
         <v>44355</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>2085</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2237</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3">
         <v>1167</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>1299</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3">
         <v>528327</v>
       </c>
-      <c r="M23" s="3">
+      <c r="T23" s="3">
         <v>521385</v>
       </c>
-      <c r="N23" s="3">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3">
         <v>19176</v>
       </c>
-      <c r="O23" s="3">
+      <c r="X23" s="3">
         <v>18805</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3">
         <v>10749</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="AB23" s="3">
         <v>10621</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1987,38 +2298,49 @@
       <c r="G24" s="3">
         <v>34051</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>665</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>622</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
         <v>470</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
         <v>426</v>
       </c>
-      <c r="L24" s="3">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3">
         <v>295803</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="3">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
         <v>7994</v>
       </c>
-      <c r="O24" s="3">
+      <c r="X24" s="3">
         <v>7820</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3">
         <v>5943</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="AB24" s="3">
         <v>6134</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2037,38 +2359,49 @@
       <c r="G25" s="3">
         <v>51077</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>1806</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>1654</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3">
         <v>1232</v>
       </c>
-      <c r="K25" s="3">
+      <c r="P25" s="3">
         <v>1027</v>
       </c>
-      <c r="L25" s="3">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3">
         <v>457431</v>
       </c>
-      <c r="M25" s="3">
+      <c r="T25" s="3">
         <v>458424</v>
       </c>
-      <c r="N25" s="3">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3">
         <v>16775</v>
       </c>
-      <c r="O25" s="3">
+      <c r="X25" s="3">
         <v>16092</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3">
         <v>9448</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="AB25" s="3">
         <v>9663</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2087,38 +2420,49 @@
       <c r="G26" s="3">
         <v>1180850</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>45022</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>43219</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
         <v>27020</v>
       </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
         <v>25028</v>
       </c>
-      <c r="L26" s="3">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3">
         <v>5156259</v>
       </c>
-      <c r="M26" s="3">
+      <c r="T26" s="3">
         <v>5276499</v>
       </c>
-      <c r="N26" s="3">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3">
         <v>179300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="X26" s="3">
         <v>171465</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3">
         <v>104105</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="AB26" s="3">
         <v>102409</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2137,38 +2481,49 @@
       <c r="G27" s="3">
         <v>89801</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>2494</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2505</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
         <v>1957</v>
       </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
         <v>1692</v>
       </c>
-      <c r="L27" s="3">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3">
         <v>266400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="T27" s="3">
         <v>289800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3">
         <v>5566</v>
       </c>
-      <c r="O27" s="3">
+      <c r="X27" s="3">
         <v>5263</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3">
         <v>4457</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="AB27" s="3">
         <v>4187</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2187,38 +2542,49 @@
       <c r="G28" s="3">
         <v>193966</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>6558</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>6125</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3">
         <v>5797</v>
       </c>
-      <c r="K28" s="3">
+      <c r="P28" s="3">
         <v>4939</v>
       </c>
-      <c r="L28" s="3">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3">
         <v>507396</v>
       </c>
-      <c r="M28" s="3">
+      <c r="T28" s="3">
         <v>543026</v>
       </c>
-      <c r="N28" s="3">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3">
         <v>10797</v>
       </c>
-      <c r="O28" s="3">
+      <c r="X28" s="3">
         <v>10176</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3">
         <v>7790</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="AB28" s="3">
         <v>7502</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2237,38 +2603,49 @@
       <c r="G29" s="3">
         <v>41503</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>1355</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>1274</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3">
         <v>1078</v>
       </c>
-      <c r="K29" s="3">
+      <c r="P29" s="3">
         <v>849</v>
       </c>
-      <c r="L29" s="3">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3">
         <v>185576</v>
       </c>
-      <c r="M29" s="3">
+      <c r="T29" s="3">
         <v>193830</v>
       </c>
-      <c r="N29" s="3">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3">
         <v>4832</v>
       </c>
-      <c r="O29" s="3">
+      <c r="X29" s="3">
         <v>4509</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3">
         <v>3285</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="AB29" s="3">
         <v>3085</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2287,38 +2664,49 @@
       <c r="G30" s="3">
         <v>325270</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>10407</v>
       </c>
-      <c r="I30" s="3">
+      <c r="K30" s="3">
         <v>9904</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3">
         <v>8832</v>
       </c>
-      <c r="K30" s="3">
+      <c r="P30" s="3">
         <v>7480</v>
       </c>
-      <c r="L30" s="3">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3">
         <v>959372</v>
       </c>
-      <c r="M30" s="3">
+      <c r="T30" s="3">
         <v>1026656</v>
       </c>
-      <c r="N30" s="3">
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3">
         <v>21193</v>
       </c>
-      <c r="O30" s="3">
+      <c r="X30" s="3">
         <v>19948</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3">
         <v>15532</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="AB30" s="3">
         <v>14774</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2337,38 +2725,49 @@
       <c r="G31" s="3">
         <v>156335</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4">
         <v>5939</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>5084</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3">
         <v>4744</v>
       </c>
-      <c r="K31" s="3">
+      <c r="P31" s="3">
         <v>3945</v>
       </c>
-      <c r="L31" s="3">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3">
         <v>1062789</v>
       </c>
-      <c r="M31" s="3">
+      <c r="T31" s="3">
         <v>1020499</v>
       </c>
-      <c r="N31" s="3">
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3">
         <v>49371</v>
       </c>
-      <c r="O31" s="3">
+      <c r="X31" s="3">
         <v>45287</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3">
         <v>28126</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="AB31" s="3">
         <v>25683</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2387,38 +2786,49 @@
       <c r="G32" s="3">
         <v>135370</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4">
         <v>5980</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5835</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3">
         <v>4994</v>
       </c>
-      <c r="K32" s="3">
+      <c r="P32" s="3">
         <v>4251</v>
       </c>
-      <c r="L32" s="3">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3">
         <v>877363</v>
       </c>
-      <c r="M32" s="3">
+      <c r="T32" s="3">
         <v>897695</v>
       </c>
-      <c r="N32" s="3">
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3">
         <v>39355</v>
       </c>
-      <c r="O32" s="3">
+      <c r="X32" s="3">
         <v>37623</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3">
         <v>26916</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="AB32" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2437,38 +2847,49 @@
       <c r="G33" s="3">
         <v>33539</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4">
         <v>1690</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1725</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
         <v>1426</v>
       </c>
-      <c r="K33" s="3">
+      <c r="P33" s="3">
         <v>1094</v>
       </c>
-      <c r="L33" s="3">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3">
         <v>720960</v>
       </c>
-      <c r="M33" s="3">
+      <c r="T33" s="3">
         <v>788814</v>
       </c>
-      <c r="N33" s="3">
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3">
         <v>34611</v>
       </c>
-      <c r="O33" s="3">
+      <c r="X33" s="3">
         <v>33111</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3">
         <v>21602</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="AB33" s="3">
         <v>20168</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2487,38 +2908,49 @@
       <c r="G34" s="3">
         <v>70408</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4">
         <v>2346</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>2264</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3">
         <v>2527</v>
       </c>
-      <c r="K34" s="3">
+      <c r="P34" s="3">
         <v>1965</v>
       </c>
-      <c r="L34" s="3">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3">
         <v>1651381</v>
       </c>
-      <c r="M34" s="3">
+      <c r="T34" s="3">
         <v>1626457</v>
       </c>
-      <c r="N34" s="3">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3">
         <v>83491</v>
       </c>
-      <c r="O34" s="3">
+      <c r="X34" s="3">
         <v>79867</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3">
         <v>61371</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="AB34" s="3">
         <v>59090</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2537,38 +2969,49 @@
       <c r="G35" s="3">
         <v>58510</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4">
         <v>2106</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2040</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3">
         <v>1852</v>
       </c>
-      <c r="K35" s="3">
+      <c r="P35" s="3">
         <v>1527</v>
       </c>
-      <c r="L35" s="3">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3">
         <v>1698182</v>
       </c>
-      <c r="M35" s="3">
+      <c r="T35" s="3">
         <v>1773152</v>
       </c>
-      <c r="N35" s="3">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3">
         <v>92086</v>
       </c>
-      <c r="O35" s="3">
+      <c r="X35" s="3">
         <v>88818</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3">
         <v>63648</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="AB35" s="3">
         <v>61305</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2587,38 +3030,49 @@
       <c r="G36" s="3">
         <v>219271</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4">
         <v>10085</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>8483</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3">
         <v>7620</v>
       </c>
-      <c r="K36" s="3">
+      <c r="P36" s="3">
         <v>5089</v>
       </c>
-      <c r="L36" s="3">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3">
         <v>1389988</v>
       </c>
-      <c r="M36" s="3">
+      <c r="T36" s="3">
         <v>1220043</v>
       </c>
-      <c r="N36" s="3">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3">
         <v>71381</v>
       </c>
-      <c r="O36" s="3">
+      <c r="X36" s="3">
         <v>68562</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3">
         <v>38514</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="AB36" s="3">
         <v>33320</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2637,38 +3091,49 @@
       <c r="G37" s="3">
         <v>120741</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4">
         <v>4050</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>3904</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3">
         <v>3801</v>
       </c>
-      <c r="K37" s="3">
+      <c r="P37" s="3">
         <v>3382</v>
       </c>
-      <c r="L37" s="3">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3">
         <v>1195956</v>
       </c>
-      <c r="M37" s="3">
+      <c r="T37" s="3">
         <v>1190961</v>
       </c>
-      <c r="N37" s="3">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3">
         <v>55505</v>
       </c>
-      <c r="O37" s="3">
+      <c r="X37" s="3">
         <v>53331</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3">
         <v>37746</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="AB37" s="3">
         <v>37111</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2687,38 +3152,49 @@
       <c r="G38" s="3">
         <v>46737</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4">
         <v>1725</v>
       </c>
-      <c r="I38" s="3">
+      <c r="K38" s="3">
         <v>1634</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3">
         <v>1803</v>
       </c>
-      <c r="K38" s="3">
+      <c r="P38" s="3">
         <v>1358</v>
       </c>
-      <c r="L38" s="3">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3">
         <v>615793</v>
       </c>
-      <c r="M38" s="3">
+      <c r="T38" s="3">
         <v>704664</v>
       </c>
-      <c r="N38" s="3">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3">
         <v>29981</v>
       </c>
-      <c r="O38" s="3">
+      <c r="X38" s="3">
         <v>28379</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3">
         <v>22209</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="AB38" s="3">
         <v>21315</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2737,38 +3213,49 @@
       <c r="G39" s="3">
         <v>48547</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4">
         <v>2068</v>
       </c>
-      <c r="I39" s="3">
+      <c r="K39" s="3">
         <v>2028</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3">
         <v>1793</v>
       </c>
-      <c r="K39" s="3">
+      <c r="P39" s="3">
         <v>1513</v>
       </c>
-      <c r="L39" s="3">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3">
         <v>746313</v>
       </c>
-      <c r="M39" s="3">
+      <c r="T39" s="3">
         <v>849413</v>
       </c>
-      <c r="N39" s="3">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3">
         <v>36326</v>
       </c>
-      <c r="O39" s="3">
+      <c r="X39" s="3">
         <v>34718</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3">
         <v>24612</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="AB39" s="3">
         <v>25554</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2787,38 +3274,49 @@
       <c r="G40" s="3">
         <v>123054</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4">
         <v>3587</v>
       </c>
-      <c r="I40" s="3">
+      <c r="K40" s="3">
         <v>3269</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3">
         <v>2699</v>
       </c>
-      <c r="K40" s="3">
+      <c r="P40" s="3">
         <v>2531</v>
       </c>
-      <c r="L40" s="3">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3">
         <v>1322321</v>
       </c>
-      <c r="M40" s="3">
+      <c r="T40" s="3">
         <v>1333753</v>
       </c>
-      <c r="N40" s="3">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3">
         <v>48316</v>
       </c>
-      <c r="O40" s="3">
+      <c r="X40" s="3">
         <v>46288</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3">
         <v>29274</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="AB40" s="3">
         <v>28139</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2837,38 +3335,49 @@
       <c r="G41" s="3">
         <v>55772</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4">
         <v>3395</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3202</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3">
         <v>2823</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>2388</v>
       </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3">
         <v>715058</v>
       </c>
-      <c r="M41" s="3">
+      <c r="T41" s="3">
         <v>893823</v>
       </c>
-      <c r="N41" s="3">
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3">
         <v>36726</v>
       </c>
-      <c r="O41" s="3">
+      <c r="X41" s="3">
         <v>35427</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3">
         <v>29768</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="AB41" s="3">
         <v>27014</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2887,38 +3396,49 @@
       <c r="G42" s="3">
         <v>654100</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4">
         <v>26683</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>25597</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3">
         <v>23623</v>
       </c>
-      <c r="K42" s="3">
+      <c r="P42" s="3">
         <v>19333</v>
       </c>
-      <c r="L42" s="3">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3">
+      <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="AB42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2937,38 +3457,49 @@
       <c r="G43" s="3">
         <v>71412</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4">
         <v>3361</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3268</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3">
         <v>2630</v>
       </c>
-      <c r="K43" s="3">
+      <c r="P43" s="3">
         <v>2229</v>
       </c>
-      <c r="L43" s="3">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3">
         <v>875652</v>
       </c>
-      <c r="M43" s="3">
+      <c r="T43" s="3">
         <v>942209</v>
       </c>
-      <c r="N43" s="3">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3">
         <v>47127</v>
       </c>
-      <c r="O43" s="3">
+      <c r="X43" s="3">
         <v>44838</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3">
         <v>32171</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="AB43" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2987,38 +3518,49 @@
       <c r="G44" s="3">
         <v>49079</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4">
         <v>1851</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1766</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3">
         <v>1973</v>
       </c>
-      <c r="K44" s="3">
+      <c r="P44" s="3">
         <v>1505</v>
       </c>
-      <c r="L44" s="3">
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3">
         <v>710696</v>
       </c>
-      <c r="M44" s="3">
+      <c r="T44" s="3">
         <v>778211</v>
       </c>
-      <c r="N44" s="3">
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3">
         <v>30866</v>
       </c>
-      <c r="O44" s="3">
+      <c r="X44" s="3">
         <v>29156</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3">
         <v>22513</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="AB44" s="3">
         <v>20589</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3037,38 +3579,49 @@
       <c r="G45" s="3">
         <v>14867</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4">
         <v>599</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>562</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3">
         <v>499</v>
       </c>
-      <c r="K45" s="3">
+      <c r="P45" s="3">
         <v>456</v>
       </c>
-      <c r="L45" s="3">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3">
         <v>193674</v>
       </c>
-      <c r="M45" s="3">
+      <c r="T45" s="3">
         <v>201549</v>
       </c>
-      <c r="N45" s="3">
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3">
         <v>9712</v>
       </c>
-      <c r="O45" s="3">
+      <c r="X45" s="3">
         <v>9307</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3">
         <v>7049</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="AB45" s="3">
         <v>6723</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3087,38 +3640,49 @@
       <c r="G46" s="3">
         <v>132560</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4">
         <v>5428</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4918</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3">
         <v>4767</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>4083</v>
       </c>
-      <c r="L46" s="3">
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3">
         <v>1134769</v>
       </c>
-      <c r="M46" s="3">
+      <c r="T46" s="3">
         <v>1127762</v>
       </c>
-      <c r="N46" s="3">
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3">
         <v>52554</v>
       </c>
-      <c r="O46" s="3">
+      <c r="X46" s="3">
         <v>52222</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3">
         <v>39019</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="AB46" s="3">
         <v>34848</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3137,38 +3701,49 @@
       <c r="G47" s="3">
         <v>78720</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4">
         <v>4036</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3776</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3">
         <v>3338</v>
       </c>
-      <c r="K47" s="3">
+      <c r="P47" s="3">
         <v>2768</v>
       </c>
-      <c r="L47" s="3">
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3">
         <v>839159</v>
       </c>
-      <c r="M47" s="3">
+      <c r="T47" s="3">
         <v>869655</v>
       </c>
-      <c r="N47" s="3">
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3">
         <v>45952</v>
       </c>
-      <c r="O47" s="3">
+      <c r="X47" s="3">
         <v>43998</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3">
         <v>29990</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="AB47" s="3">
         <v>28742</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3187,38 +3762,49 @@
       <c r="G48" s="3">
         <v>99211</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4">
         <v>4894</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4661</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3">
         <v>4789</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="3">
         <v>4095</v>
       </c>
-      <c r="L48" s="3">
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3">
         <v>1605091</v>
       </c>
-      <c r="M48" s="3">
+      <c r="T48" s="3">
         <v>1735219</v>
       </c>
-      <c r="N48" s="3">
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3">
         <v>94626</v>
       </c>
-      <c r="O48" s="3">
+      <c r="X48" s="3">
         <v>90199</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3">
         <v>76879</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="AB48" s="3">
         <v>72039</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3237,38 +3823,49 @@
       <c r="G49" s="3">
         <v>175068</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4">
         <v>7221</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6946</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3">
         <v>5272</v>
       </c>
-      <c r="K49" s="3">
+      <c r="P49" s="3">
         <v>4396</v>
       </c>
-      <c r="L49" s="3">
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3">
         <v>1541797</v>
       </c>
-      <c r="M49" s="3">
+      <c r="T49" s="3">
         <v>1534060</v>
       </c>
-      <c r="N49" s="3">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3">
         <v>60589</v>
       </c>
-      <c r="O49" s="3">
+      <c r="X49" s="3">
         <v>57266</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3">
         <v>36396</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="AB49" s="3">
         <v>33947</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3287,38 +3884,49 @@
       <c r="G50" s="3">
         <v>49630</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4">
         <v>2257</v>
       </c>
-      <c r="I50" s="3">
+      <c r="K50" s="3">
         <v>2210</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3">
         <v>1990</v>
       </c>
-      <c r="K50" s="3">
+      <c r="P50" s="3">
         <v>1619</v>
       </c>
-      <c r="L50" s="3">
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3">
         <v>618495</v>
       </c>
-      <c r="M50" s="3">
+      <c r="T50" s="3">
         <v>654858</v>
       </c>
-      <c r="N50" s="3">
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3">
         <v>27199</v>
       </c>
-      <c r="O50" s="3">
+      <c r="X50" s="3">
         <v>25362</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3">
         <v>17052</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="AB50" s="3">
         <v>15215</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3337,38 +3945,49 @@
       <c r="G51" s="3">
         <v>66975</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4">
         <v>3448</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>3273</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3">
         <v>3139</v>
       </c>
-      <c r="K51" s="3">
+      <c r="P51" s="3">
         <v>2614</v>
       </c>
-      <c r="L51" s="3">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3">
         <v>1163446</v>
       </c>
-      <c r="M51" s="3">
+      <c r="T51" s="3">
         <v>1178699</v>
       </c>
-      <c r="N51" s="3">
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3">
         <v>52403</v>
       </c>
-      <c r="O51" s="3">
+      <c r="X51" s="3">
         <v>50031</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3">
         <v>35693</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="AB51" s="3">
         <v>33173</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3387,38 +4006,49 @@
       <c r="G52" s="3">
         <v>89300</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4">
         <v>5566</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5259</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3">
         <v>5709</v>
       </c>
-      <c r="K52" s="3">
+      <c r="P52" s="3">
         <v>4804</v>
       </c>
-      <c r="L52" s="3">
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3">
         <v>1662734</v>
       </c>
-      <c r="M52" s="3">
+      <c r="T52" s="3">
         <v>1699749</v>
       </c>
-      <c r="N52" s="3">
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3">
         <v>93113</v>
       </c>
-      <c r="O52" s="3">
+      <c r="X52" s="3">
         <v>88866</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3">
         <v>64793</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="AB52" s="3">
         <v>62028</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3437,38 +4067,49 @@
       <c r="G53" s="3">
         <v>199628</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4">
         <v>7541</v>
       </c>
-      <c r="I53" s="3">
+      <c r="K53" s="3">
         <v>7300</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3">
         <v>7381</v>
       </c>
-      <c r="K53" s="3">
+      <c r="P53" s="3">
         <v>5853</v>
       </c>
-      <c r="L53" s="3">
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3">
         <v>427784</v>
       </c>
-      <c r="M53" s="3">
+      <c r="T53" s="3">
         <v>430995</v>
       </c>
-      <c r="N53" s="3">
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3">
         <v>14541</v>
       </c>
-      <c r="O53" s="3">
+      <c r="X53" s="3">
         <v>13364</v>
       </c>
-      <c r="P53" s="3">
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3">
         <v>10856</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="AB53" s="3">
         <v>9317</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3487,38 +4128,49 @@
       <c r="G54" s="3">
         <v>725060</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4">
         <v>23581</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3">
         <v>21812</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>17442</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3">
+      <c r="T54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3">
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3">
+      <c r="X54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="AB54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3537,38 +4189,49 @@
       <c r="G55" s="3">
         <v>260196</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4">
         <v>10753</v>
       </c>
-      <c r="I55" s="3">
+      <c r="K55" s="3">
         <v>10487</v>
       </c>
-      <c r="J55" s="3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3">
         <v>8086</v>
       </c>
-      <c r="K55" s="3">
+      <c r="P55" s="3">
         <v>6886</v>
       </c>
-      <c r="L55" s="3">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3">
         <v>1324408</v>
       </c>
-      <c r="M55" s="3">
+      <c r="T55" s="3">
         <v>1340625</v>
       </c>
-      <c r="N55" s="3">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3">
         <v>65142</v>
       </c>
-      <c r="O55" s="3">
+      <c r="X55" s="3">
         <v>62741</v>
       </c>
-      <c r="P55" s="3">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3">
         <v>44071</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="AB55" s="3">
         <v>42103</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3587,38 +4250,49 @@
       <c r="G56" s="3">
         <v>71187</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4">
         <v>3678</v>
       </c>
-      <c r="I56" s="3">
+      <c r="K56" s="3">
         <v>3516</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3">
         <v>3015</v>
       </c>
-      <c r="K56" s="3">
+      <c r="P56" s="3">
         <v>2667</v>
       </c>
-      <c r="L56" s="3">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3">
         <v>864633</v>
       </c>
-      <c r="M56" s="3">
+      <c r="T56" s="3">
         <v>884739</v>
       </c>
-      <c r="N56" s="3">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3">
         <v>46706</v>
       </c>
-      <c r="O56" s="3">
+      <c r="X56" s="3">
         <v>44504</v>
       </c>
-      <c r="P56" s="3">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3">
         <v>29612</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="AB56" s="3">
         <v>28423</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3637,38 +4311,49 @@
       <c r="G57" s="3">
         <v>87599</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4">
         <v>2247</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2137</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3">
         <v>1879</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="3">
         <v>1564</v>
       </c>
-      <c r="L57" s="3">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3">
         <v>896876</v>
       </c>
-      <c r="M57" s="3">
+      <c r="T57" s="3">
         <v>889799</v>
       </c>
-      <c r="N57" s="3">
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3">
         <v>43093</v>
       </c>
-      <c r="O57" s="3">
+      <c r="X57" s="3">
         <v>41014</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3">
         <v>30110</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="AB57" s="3">
         <v>27835</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3687,38 +4372,49 @@
       <c r="G58" s="3">
         <v>127288</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4">
         <v>6000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5694</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3">
         <v>3544</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="3">
         <v>3915</v>
       </c>
-      <c r="L58" s="3">
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3">
         <v>773330</v>
       </c>
-      <c r="M58" s="3">
+      <c r="T58" s="3">
         <v>737230</v>
       </c>
-      <c r="N58" s="3">
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3">
         <v>37699</v>
       </c>
-      <c r="O58" s="3">
+      <c r="X58" s="3">
         <v>35314</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3">
         <v>19800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="AB58" s="3">
         <v>17747</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3737,38 +4433,49 @@
       <c r="G59" s="3">
         <v>25561</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4">
         <v>1131</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1171</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3">
         <v>749</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="3">
         <v>572</v>
       </c>
-      <c r="L59" s="3">
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
+      <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3">
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
+      <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="AB59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3787,38 +4494,49 @@
       <c r="G60" s="3">
         <v>116227</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4">
         <v>5917</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5722</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3">
         <v>4975</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>4472</v>
       </c>
-      <c r="L60" s="3">
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3">
         <v>1655500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="T60" s="3">
         <v>1671201</v>
       </c>
-      <c r="N60" s="3">
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3">
         <v>81650</v>
       </c>
-      <c r="O60" s="3">
+      <c r="X60" s="3">
         <v>78665</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3">
         <v>54586</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="AB60" s="3">
         <v>50474</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3837,38 +4555,49 @@
       <c r="G61" s="3">
         <v>81735</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4">
         <v>3250</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3147</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3">
         <v>2656</v>
       </c>
-      <c r="K61" s="3">
+      <c r="P61" s="3">
         <v>2436</v>
       </c>
-      <c r="L61" s="3">
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3">
         <v>952345</v>
       </c>
-      <c r="M61" s="3">
+      <c r="T61" s="3">
         <v>1144380</v>
       </c>
-      <c r="N61" s="3">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3">
         <v>43338</v>
       </c>
-      <c r="O61" s="3">
+      <c r="X61" s="3">
         <v>41078</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3">
         <v>32437</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="AB61" s="3">
         <v>29711</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3887,38 +4616,49 @@
       <c r="G62" s="3">
         <v>86987</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4">
         <v>4124</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3849</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3">
         <v>3564</v>
       </c>
-      <c r="K62" s="3">
+      <c r="P62" s="3">
         <v>3015</v>
       </c>
-      <c r="L62" s="3">
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3">
         <v>829290</v>
       </c>
-      <c r="M62" s="3">
+      <c r="T62" s="3">
         <v>844311</v>
       </c>
-      <c r="N62" s="3">
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3">
         <v>41824</v>
       </c>
-      <c r="O62" s="3">
+      <c r="X62" s="3">
         <v>39908</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3">
         <v>30593</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="AB62" s="3">
         <v>27851</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3937,38 +4677,49 @@
       <c r="G63" s="3">
         <v>83873</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4">
         <v>4505</v>
       </c>
-      <c r="I63" s="3">
+      <c r="K63" s="3">
         <v>4242</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3">
         <v>3670</v>
       </c>
-      <c r="K63" s="3">
+      <c r="P63" s="3">
         <v>3000</v>
       </c>
-      <c r="L63" s="3">
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3">
         <v>1317583</v>
       </c>
-      <c r="M63" s="3">
+      <c r="T63" s="3">
         <v>1416819</v>
       </c>
-      <c r="N63" s="3">
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3">
         <v>71049</v>
       </c>
-      <c r="O63" s="3">
+      <c r="X63" s="3">
         <v>67891</v>
       </c>
-      <c r="P63" s="3">
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3">
         <v>43475</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="AB63" s="3">
         <v>42935</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -3987,38 +4738,49 @@
       <c r="G64" s="3">
         <v>197020</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4">
         <v>7841</v>
       </c>
-      <c r="I64" s="3">
+      <c r="K64" s="3">
         <v>7140</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3">
         <v>6893</v>
       </c>
-      <c r="K64" s="3">
+      <c r="P64" s="3">
         <v>5439</v>
       </c>
-      <c r="L64" s="3">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3">
         <v>1443051</v>
       </c>
-      <c r="M64" s="3">
+      <c r="T64" s="3">
         <v>1358769</v>
       </c>
-      <c r="N64" s="3">
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3">
         <v>64492</v>
       </c>
-      <c r="O64" s="3">
+      <c r="X64" s="3">
         <v>59977</v>
       </c>
-      <c r="P64" s="3">
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3">
         <v>39591</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="AB64" s="3">
         <v>35575</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4037,38 +4799,49 @@
       <c r="G65" s="3">
         <v>103915</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4">
         <v>4082</v>
       </c>
-      <c r="I65" s="3">
+      <c r="K65" s="3">
         <v>3674</v>
       </c>
-      <c r="J65" s="3">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3">
         <v>3170</v>
       </c>
-      <c r="K65" s="3">
+      <c r="P65" s="3">
         <v>2718</v>
       </c>
-      <c r="L65" s="3">
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3">
         <v>1366400</v>
       </c>
-      <c r="M65" s="3">
+      <c r="T65" s="3">
         <v>1272873</v>
       </c>
-      <c r="N65" s="3">
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3">
         <v>58747</v>
       </c>
-      <c r="O65" s="3">
+      <c r="X65" s="3">
         <v>54298</v>
       </c>
-      <c r="P65" s="3">
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3">
         <v>34378</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="AB65" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4087,38 +4860,49 @@
       <c r="G66" s="3">
         <v>50322</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4">
         <v>2062</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1997</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3">
         <v>1490</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>1269</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3">
+      <c r="T66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3">
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3">
+      <c r="X66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="AB66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4137,38 +4921,49 @@
       <c r="G67" s="3">
         <v>269693</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4">
         <v>7541</v>
       </c>
-      <c r="I67" s="3">
+      <c r="K67" s="3">
         <v>7016</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3">
         <v>6483</v>
       </c>
-      <c r="K67" s="3">
+      <c r="P67" s="3">
         <v>4875</v>
       </c>
-      <c r="L67" s="3">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
+      <c r="T67" s="3">
         <v>0</v>
       </c>
-      <c r="N67" s="3">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3">
         <v>0</v>
       </c>
-      <c r="O67" s="3">
+      <c r="X67" s="3">
         <v>0</v>
       </c>
-      <c r="P67" s="3">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="AB67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4187,38 +4982,49 @@
       <c r="G68" s="3">
         <v>129580</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4">
         <v>3846</v>
       </c>
-      <c r="I68" s="3">
+      <c r="K68" s="3">
         <v>3507</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3">
         <v>2990</v>
       </c>
-      <c r="K68" s="3">
+      <c r="P68" s="3">
         <v>2582</v>
       </c>
-      <c r="L68" s="3">
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3">
         <v>1274210</v>
       </c>
-      <c r="M68" s="3">
+      <c r="T68" s="3">
         <v>1257224</v>
       </c>
-      <c r="N68" s="3">
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3">
         <v>52811</v>
       </c>
-      <c r="O68" s="3">
+      <c r="X68" s="3">
         <v>49395</v>
       </c>
-      <c r="P68" s="3">
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3">
         <v>31201</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="AB68" s="3">
         <v>28458</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4237,38 +5043,49 @@
       <c r="G69" s="3">
         <v>93550</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4">
         <v>4181</v>
       </c>
-      <c r="I69" s="3">
+      <c r="K69" s="3">
         <v>4211</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3">
         <v>4169</v>
       </c>
-      <c r="K69" s="3">
+      <c r="P69" s="3">
         <v>3359</v>
       </c>
-      <c r="L69" s="3">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3">
         <v>536618</v>
       </c>
-      <c r="M69" s="3">
+      <c r="T69" s="3">
         <v>594767</v>
       </c>
-      <c r="N69" s="3">
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3">
         <v>20262</v>
       </c>
-      <c r="O69" s="3">
+      <c r="X69" s="3">
         <v>19170</v>
       </c>
-      <c r="P69" s="3">
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3">
         <v>14443</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="AB69" s="3">
         <v>14380</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4287,38 +5104,49 @@
       <c r="G70" s="3">
         <v>5258627</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4">
         <v>210595</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>198601</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3">
         <v>180337</v>
       </c>
-      <c r="K70" s="3">
+      <c r="P70" s="3">
         <v>119609</v>
       </c>
-      <c r="L70" s="3">
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3">
         <v>30003645</v>
       </c>
-      <c r="M70" s="3">
+      <c r="T70" s="3">
         <v>36804977</v>
       </c>
-      <c r="N70" s="3">
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3">
         <v>1732614</v>
       </c>
-      <c r="O70" s="3">
+      <c r="X70" s="3">
         <v>1649975</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3">
         <v>1160494</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="AB70" s="3">
         <v>1088770</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4337,38 +5165,49 @@
       <c r="G71" s="3">
         <v>175860</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4">
         <v>8331</v>
       </c>
-      <c r="I71" s="3">
+      <c r="K71" s="3">
         <v>7936</v>
       </c>
-      <c r="J71" s="3">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3">
         <v>7367</v>
       </c>
-      <c r="K71" s="3">
+      <c r="P71" s="3">
         <v>5793</v>
       </c>
-      <c r="L71" s="3">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3">
         <v>1425597</v>
       </c>
-      <c r="M71" s="3">
+      <c r="T71" s="3">
         <v>1368021</v>
       </c>
-      <c r="N71" s="3">
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3">
         <v>77238</v>
       </c>
-      <c r="O71" s="3">
+      <c r="X71" s="3">
         <v>73193</v>
       </c>
-      <c r="P71" s="3">
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3">
         <v>49425</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="AB71" s="3">
         <v>45821</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4387,38 +5226,49 @@
       <c r="G72" s="3">
         <v>8563199</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4">
         <v>326599</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>306153</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3">
         <v>263530</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>219811</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3">
         <v>55758090</v>
       </c>
-      <c r="M72" s="3">
+      <c r="T72" s="3">
         <v>50826873</v>
       </c>
-      <c r="N72" s="3">
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3">
         <v>2519570</v>
       </c>
-      <c r="O72" s="3">
+      <c r="X72" s="3">
         <v>2893579</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3">
         <v>1640113</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="AB72" s="3">
         <v>1038351</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4437,38 +5287,49 @@
       <c r="G73" s="3">
         <v>37316</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>1230</v>
       </c>
-      <c r="I73" s="3">
+      <c r="K73" s="3">
         <v>795</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3">
         <v>774</v>
       </c>
-      <c r="K73" s="3">
+      <c r="P73" s="3">
         <v>606</v>
       </c>
-      <c r="L73" s="3">
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3">
         <v>371334</v>
       </c>
-      <c r="M73" s="3">
+      <c r="T73" s="3">
         <v>306748</v>
       </c>
-      <c r="N73" s="3">
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3">
         <v>9157</v>
       </c>
-      <c r="O73" s="3">
+      <c r="X73" s="3">
         <v>8027</v>
       </c>
-      <c r="P73" s="3">
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3">
         <v>7089</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="AB73" s="3">
         <v>5689</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4487,38 +5348,49 @@
       <c r="G74" s="3">
         <v>122265</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
         <v>4409</v>
       </c>
-      <c r="I74" s="3">
+      <c r="K74" s="3">
         <v>3986</v>
       </c>
-      <c r="J74" s="3">
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3">
         <v>3238</v>
       </c>
-      <c r="K74" s="3">
+      <c r="P74" s="3">
         <v>2421</v>
       </c>
-      <c r="L74" s="3">
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3">
+      <c r="T74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3">
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3">
+      <c r="X74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3">
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3">
         <v>0</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="AB74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4537,38 +5409,49 @@
       <c r="G75" s="3">
         <v>17585</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>576</v>
       </c>
-      <c r="I75" s="3">
+      <c r="K75" s="3">
         <v>520</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3">
         <v>542</v>
       </c>
-      <c r="K75" s="3">
+      <c r="P75" s="3">
         <v>347</v>
       </c>
-      <c r="L75" s="3">
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3">
         <v>61983</v>
       </c>
-      <c r="M75" s="3">
+      <c r="T75" s="3">
         <v>58996</v>
       </c>
-      <c r="N75" s="3">
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3">
         <v>1656</v>
       </c>
-      <c r="O75" s="3">
+      <c r="X75" s="3">
         <v>1784</v>
       </c>
-      <c r="P75" s="3">
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3">
         <v>1199</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="AB75" s="3">
         <v>1146</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4587,38 +5470,49 @@
       <c r="G76" s="3">
         <v>24111</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
         <v>733</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>706</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3">
         <v>688</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>552</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3">
         <v>319844</v>
       </c>
-      <c r="M76" s="3">
+      <c r="T76" s="3">
         <v>296786</v>
       </c>
-      <c r="N76" s="3">
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3">
         <v>7014</v>
       </c>
-      <c r="O76" s="3">
+      <c r="X76" s="3">
         <v>6179</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3">
         <v>6659</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="AB76" s="3">
         <v>5525</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4637,38 +5531,49 @@
       <c r="G77" s="3">
         <v>51058</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>1021</v>
       </c>
-      <c r="I77" s="3">
+      <c r="K77" s="3">
         <v>935</v>
       </c>
-      <c r="J77" s="3">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3">
         <v>881</v>
       </c>
-      <c r="K77" s="3">
+      <c r="P77" s="3">
         <v>655</v>
       </c>
-      <c r="L77" s="3">
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3">
         <v>521956</v>
       </c>
-      <c r="M77" s="3">
+      <c r="T77" s="3">
         <v>468224</v>
       </c>
-      <c r="N77" s="3">
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3">
         <v>10758</v>
       </c>
-      <c r="O77" s="3">
+      <c r="X77" s="3">
         <v>9348</v>
       </c>
-      <c r="P77" s="3">
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3">
         <v>7611</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="AB77" s="3">
         <v>6315</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4687,38 +5592,49 @@
       <c r="G78" s="3">
         <v>18905</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>374</v>
       </c>
-      <c r="I78" s="3">
+      <c r="K78" s="3">
         <v>330</v>
       </c>
-      <c r="J78" s="3">
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3">
         <v>239</v>
       </c>
-      <c r="K78" s="3">
+      <c r="P78" s="3">
         <v>216</v>
       </c>
-      <c r="L78" s="3">
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3">
         <v>158265</v>
       </c>
-      <c r="M78" s="3">
+      <c r="T78" s="3">
         <v>150241</v>
       </c>
-      <c r="N78" s="3">
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3">
         <v>6765</v>
       </c>
-      <c r="O78" s="3">
+      <c r="X78" s="3">
         <v>6249</v>
       </c>
-      <c r="P78" s="3">
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3">
         <v>4682</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="AB78" s="3">
         <v>3744</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4737,38 +5653,49 @@
       <c r="G79" s="3">
         <v>103248</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
         <v>5139</v>
       </c>
-      <c r="I79" s="3">
+      <c r="K79" s="3">
         <v>4653</v>
       </c>
-      <c r="J79" s="3">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3">
         <v>4385</v>
       </c>
-      <c r="K79" s="3">
+      <c r="P79" s="3">
         <v>3521</v>
       </c>
-      <c r="L79" s="3">
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3">
         <v>1209538</v>
       </c>
-      <c r="M79" s="3">
+      <c r="T79" s="3">
         <v>1184223</v>
       </c>
-      <c r="N79" s="3">
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3">
         <v>64842</v>
       </c>
-      <c r="O79" s="3">
+      <c r="X79" s="3">
         <v>64188</v>
       </c>
-      <c r="P79" s="3">
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3">
         <v>41100</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="AB79" s="3">
         <v>38366</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4787,38 +5714,49 @@
       <c r="G80" s="3">
         <v>29617</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>855</v>
       </c>
-      <c r="I80" s="3">
+      <c r="K80" s="3">
         <v>669</v>
       </c>
-      <c r="J80" s="3">
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3">
         <v>480</v>
       </c>
-      <c r="K80" s="3">
+      <c r="P80" s="3">
         <v>411</v>
       </c>
-      <c r="L80" s="3">
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3">
         <v>551290</v>
       </c>
-      <c r="M80" s="3">
+      <c r="T80" s="3">
         <v>473354</v>
       </c>
-      <c r="N80" s="3">
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3">
         <v>14193</v>
       </c>
-      <c r="O80" s="3">
+      <c r="X80" s="3">
         <v>12845</v>
       </c>
-      <c r="P80" s="3">
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3">
         <v>8459</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="AB80" s="3">
         <v>7706</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4837,38 +5775,49 @@
       <c r="G81" s="3">
         <v>34249</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
         <v>1373</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1263</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3">
         <v>1105</v>
       </c>
-      <c r="K81" s="3">
+      <c r="P81" s="3">
         <v>932</v>
       </c>
-      <c r="L81" s="3">
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3">
         <v>571937</v>
       </c>
-      <c r="M81" s="3">
+      <c r="T81" s="3">
         <v>559774</v>
       </c>
-      <c r="N81" s="3">
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3">
         <v>33783</v>
       </c>
-      <c r="O81" s="3">
+      <c r="X81" s="3">
         <v>31612</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3">
         <v>23954</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="AB81" s="3">
         <v>22914</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4887,38 +5836,49 @@
       <c r="G82" s="3">
         <v>82133</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>4525</v>
       </c>
-      <c r="I82" s="3">
+      <c r="K82" s="3">
         <v>4502</v>
       </c>
-      <c r="J82" s="3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3">
         <v>2882</v>
       </c>
-      <c r="K82" s="3">
+      <c r="P82" s="3">
         <v>2430</v>
       </c>
-      <c r="L82" s="3">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3">
         <v>500446</v>
       </c>
-      <c r="M82" s="3">
+      <c r="T82" s="3">
         <v>447188</v>
       </c>
-      <c r="N82" s="3">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3">
         <v>20304</v>
       </c>
-      <c r="O82" s="3">
+      <c r="X82" s="3">
         <v>18803</v>
       </c>
-      <c r="P82" s="3">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3">
         <v>12141</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="AB82" s="3">
         <v>10965</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4937,38 +5897,49 @@
       <c r="G83" s="3">
         <v>153413</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
         <v>4566</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5122</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3">
         <v>2764</v>
       </c>
-      <c r="K83" s="3">
+      <c r="P83" s="3">
         <v>2615</v>
       </c>
-      <c r="L83" s="3">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3">
         <v>455740</v>
       </c>
-      <c r="M83" s="3">
+      <c r="T83" s="3">
         <v>396579</v>
       </c>
-      <c r="N83" s="3">
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3">
         <v>17961</v>
       </c>
-      <c r="O83" s="3">
+      <c r="X83" s="3">
         <v>16446</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3">
         <v>9890</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="AB83" s="3">
         <v>8623</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4987,38 +5958,49 @@
       <c r="G84" s="3">
         <v>23920</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>1018</v>
       </c>
-      <c r="I84" s="3">
+      <c r="K84" s="3">
         <v>985</v>
       </c>
-      <c r="J84" s="3">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3">
         <v>821</v>
       </c>
-      <c r="K84" s="3">
+      <c r="P84" s="3">
         <v>554</v>
       </c>
-      <c r="L84" s="3">
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3">
         <v>34671</v>
       </c>
-      <c r="M84" s="3">
+      <c r="T84" s="3">
         <v>26570</v>
       </c>
-      <c r="N84" s="3">
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3">
         <v>1207</v>
       </c>
-      <c r="O84" s="3">
+      <c r="X84" s="3">
         <v>1115</v>
       </c>
-      <c r="P84" s="3">
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3">
         <v>771</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="AB84" s="3">
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5037,38 +6019,49 @@
       <c r="G85" s="3">
         <v>37423</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
         <v>1701</v>
       </c>
-      <c r="I85" s="3">
+      <c r="K85" s="3">
         <v>1711</v>
       </c>
-      <c r="J85" s="3">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3">
         <v>1341</v>
       </c>
-      <c r="K85" s="3">
+      <c r="P85" s="3">
         <v>1077</v>
       </c>
-      <c r="L85" s="3">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3">
         <v>420550</v>
       </c>
-      <c r="M85" s="3">
+      <c r="T85" s="3">
         <v>372101</v>
       </c>
-      <c r="N85" s="3">
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3">
         <v>15803</v>
       </c>
-      <c r="O85" s="3">
+      <c r="X85" s="3">
         <v>14071</v>
       </c>
-      <c r="P85" s="3">
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3">
         <v>10045</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="AB85" s="3">
         <v>9183</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5087,38 +6080,49 @@
       <c r="G86" s="3">
         <v>735243</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>27520</v>
       </c>
-      <c r="I86" s="3">
+      <c r="K86" s="3">
         <v>26177</v>
       </c>
-      <c r="J86" s="3">
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3">
         <v>20140</v>
       </c>
-      <c r="K86" s="3">
+      <c r="P86" s="3">
         <v>16337</v>
       </c>
-      <c r="L86" s="3">
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3">
         <v>5177560</v>
       </c>
-      <c r="M86" s="3">
+      <c r="T86" s="3">
         <v>4740184</v>
       </c>
-      <c r="N86" s="3">
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3">
         <v>203443</v>
       </c>
-      <c r="O86" s="3">
+      <c r="X86" s="3">
         <v>190667</v>
       </c>
-      <c r="P86" s="3">
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3">
         <v>133600</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="AB86" s="3">
         <v>120783</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -5137,38 +6141,49 @@
       <c r="G87" s="3">
         <v>25534</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
         <v>1108</v>
       </c>
-      <c r="I87" s="3">
+      <c r="K87" s="3">
         <v>1115</v>
       </c>
-      <c r="J87" s="3">
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3">
         <v>898</v>
       </c>
-      <c r="K87" s="3">
+      <c r="P87" s="3">
         <v>682</v>
       </c>
-      <c r="L87" s="3">
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3">
         <v>72392</v>
       </c>
-      <c r="M87" s="3">
+      <c r="T87" s="3">
         <v>58404</v>
       </c>
-      <c r="N87" s="3">
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3">
         <v>3036</v>
       </c>
-      <c r="O87" s="3">
+      <c r="X87" s="3">
         <v>3092</v>
       </c>
-      <c r="P87" s="3">
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3">
         <v>1871</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="AB87" s="3">
         <v>1775</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -5187,38 +6202,49 @@
       <c r="G88" s="3">
         <v>54103</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
         <v>2718</v>
       </c>
-      <c r="I88" s="3">
+      <c r="K88" s="3">
         <v>2666</v>
       </c>
-      <c r="J88" s="3">
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3">
         <v>2529</v>
       </c>
-      <c r="K88" s="3">
+      <c r="P88" s="3">
         <v>1996</v>
       </c>
-      <c r="L88" s="3">
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3">
         <v>422558</v>
       </c>
-      <c r="M88" s="3">
+      <c r="T88" s="3">
         <v>374260</v>
       </c>
-      <c r="N88" s="3">
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3">
         <v>24517</v>
       </c>
-      <c r="O88" s="3">
+      <c r="X88" s="3">
         <v>23480</v>
       </c>
-      <c r="P88" s="3">
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3">
         <v>15785</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="AB88" s="3">
         <v>14066</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -5237,38 +6263,49 @@
       <c r="G89" s="3">
         <v>42061</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
         <v>2180</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2184</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3">
         <v>1497</v>
       </c>
-      <c r="K89" s="3">
+      <c r="P89" s="3">
         <v>1176</v>
       </c>
-      <c r="L89" s="3">
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3">
         <v>383686</v>
       </c>
-      <c r="M89" s="3">
+      <c r="T89" s="3">
         <v>360007</v>
       </c>
-      <c r="N89" s="3">
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3">
         <v>15781</v>
       </c>
-      <c r="O89" s="3">
+      <c r="X89" s="3">
         <v>14920</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3">
         <v>9996</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="AB89" s="3">
         <v>9384</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -5287,38 +6324,49 @@
       <c r="G90" s="3">
         <v>32840</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
         <v>1501</v>
       </c>
-      <c r="I90" s="3">
+      <c r="K90" s="3">
         <v>1805</v>
       </c>
-      <c r="J90" s="3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3">
         <v>1763</v>
       </c>
-      <c r="K90" s="3">
+      <c r="P90" s="3">
         <v>1527</v>
       </c>
-      <c r="L90" s="3">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3">
         <v>286891</v>
       </c>
-      <c r="M90" s="3">
+      <c r="T90" s="3">
         <v>248897</v>
       </c>
-      <c r="N90" s="3">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3">
         <v>12708</v>
       </c>
-      <c r="O90" s="3">
+      <c r="X90" s="3">
         <v>11683</v>
       </c>
-      <c r="P90" s="3">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3">
         <v>9239</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="AB90" s="3">
         <v>8034</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -5337,38 +6385,49 @@
       <c r="G91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
       <c r="J91" s="3" t="s">
         <v>111</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
       <c r="O91" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -5387,38 +6446,49 @@
       <c r="G92" s="3">
         <v>54474</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
         <v>3329</v>
       </c>
-      <c r="I92" s="3">
+      <c r="K92" s="3">
         <v>2979</v>
       </c>
-      <c r="J92" s="3">
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3">
         <v>1560</v>
       </c>
-      <c r="K92" s="3">
+      <c r="P92" s="3">
         <v>803</v>
       </c>
-      <c r="L92" s="3">
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3">
         <v>213539</v>
       </c>
-      <c r="M92" s="3">
+      <c r="T92" s="3">
         <v>130662</v>
       </c>
-      <c r="N92" s="3">
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3">
         <v>4898</v>
       </c>
-      <c r="O92" s="3">
+      <c r="X92" s="3">
         <v>4633</v>
       </c>
-      <c r="P92" s="3">
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3">
         <v>2702</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="AB92" s="3">
         <v>2315</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -5437,38 +6507,49 @@
       <c r="G93" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
         <v>111</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3">
         <v>5094</v>
       </c>
-      <c r="M93" s="3">
+      <c r="T93" s="3">
         <v>2676</v>
       </c>
-      <c r="N93" s="3">
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3">
         <v>84</v>
       </c>
-      <c r="O93" s="3">
+      <c r="X93" s="3">
         <v>99</v>
       </c>
-      <c r="P93" s="3">
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3">
         <v>95</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="AB93" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -5487,38 +6568,49 @@
       <c r="G94" s="3">
         <v>59395</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
         <v>2704</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2682</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3">
         <v>2518</v>
       </c>
-      <c r="K94" s="3">
+      <c r="P94" s="3">
         <v>2141</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M94" s="3">
+      <c r="T94" s="3">
         <v>882677</v>
       </c>
-      <c r="N94" s="3">
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3">
         <v>52078</v>
       </c>
-      <c r="O94" s="3">
+      <c r="X94" s="3">
         <v>49784</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3">
         <v>39360</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="AB94" s="3">
         <v>36747</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -5537,38 +6629,49 @@
       <c r="G95" s="3">
         <v>97860</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
         <v>6100</v>
       </c>
-      <c r="I95" s="3">
+      <c r="K95" s="3">
         <v>5651</v>
       </c>
-      <c r="J95" s="3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3">
         <v>3546</v>
       </c>
-      <c r="K95" s="3">
+      <c r="P95" s="3">
         <v>3425</v>
       </c>
-      <c r="L95" s="3">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3">
         <v>1645632</v>
       </c>
-      <c r="M95" s="3">
+      <c r="T95" s="3">
         <v>1605146</v>
       </c>
-      <c r="N95" s="3">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3">
         <v>97495</v>
       </c>
-      <c r="O95" s="3">
+      <c r="X95" s="3">
         <v>96572</v>
       </c>
-      <c r="P95" s="3">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3">
         <v>60574</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="AB95" s="3">
         <v>56281</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -5587,38 +6690,49 @@
       <c r="G96" s="3">
         <v>4480</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
         <v>398</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>354</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3">
         <v>376</v>
       </c>
-      <c r="K96" s="3">
+      <c r="P96" s="3">
         <v>287</v>
       </c>
-      <c r="L96" s="3">
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3">
         <v>134866</v>
       </c>
-      <c r="M96" s="3">
+      <c r="T96" s="3">
         <v>125108</v>
       </c>
-      <c r="N96" s="3">
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3">
         <v>5349</v>
       </c>
-      <c r="O96" s="3">
+      <c r="X96" s="3">
         <v>5082</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3">
         <v>3812</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="AB96" s="3">
         <v>3545</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -5637,38 +6751,49 @@
       <c r="G97" s="3">
         <v>370747</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
         <v>20088</v>
       </c>
-      <c r="I97" s="3">
+      <c r="K97" s="3">
         <v>19436</v>
       </c>
-      <c r="J97" s="3">
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3">
         <v>14687</v>
       </c>
-      <c r="K97" s="3">
+      <c r="P97" s="3">
         <v>12037</v>
       </c>
-      <c r="L97" s="3">
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3">
         <v>4950236</v>
       </c>
-      <c r="M97" s="3">
+      <c r="T97" s="3">
         <v>3787837</v>
       </c>
-      <c r="N97" s="3">
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3">
         <v>215944</v>
       </c>
-      <c r="O97" s="3">
+      <c r="X97" s="3">
         <v>209345</v>
       </c>
-      <c r="P97" s="3">
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3">
         <v>143434</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="AB97" s="3">
         <v>132193</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -5687,38 +6812,49 @@
       <c r="G98" s="3">
         <v>76396</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
         <v>4042</v>
       </c>
-      <c r="I98" s="3">
+      <c r="K98" s="3">
         <v>3875</v>
       </c>
-      <c r="J98" s="3">
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3">
         <v>3246</v>
       </c>
-      <c r="K98" s="3">
+      <c r="P98" s="3">
         <v>3023</v>
       </c>
-      <c r="L98" s="3">
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3">
         <v>553467</v>
       </c>
-      <c r="M98" s="3">
+      <c r="T98" s="3">
         <v>511479</v>
       </c>
-      <c r="N98" s="3">
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3">
         <v>19425</v>
       </c>
-      <c r="O98" s="3">
+      <c r="X98" s="3">
         <v>18318</v>
       </c>
-      <c r="P98" s="3">
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3">
         <v>9921</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="AB98" s="3">
         <v>9972</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -5737,38 +6873,49 @@
       <c r="G99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
       <c r="J99" s="3" t="s">
         <v>111</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
       <c r="O99" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q99" s="3" t="s">
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB99" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -5787,38 +6934,49 @@
       <c r="G100" s="3">
         <v>68548</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="3" t="s">
         <v>111</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L100" s="3">
-        <v>396244</v>
-      </c>
-      <c r="M100" s="3">
-        <v>341740</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
       <c r="O100" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q100" s="3" t="s">
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3">
+        <v>396244</v>
+      </c>
+      <c r="T100" s="3">
+        <v>341740</v>
+      </c>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -5837,38 +6995,49 @@
       <c r="G101" s="3">
         <v>28269</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
         <v>1704</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1584</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3">
         <v>1416</v>
       </c>
-      <c r="K101" s="3">
+      <c r="P101" s="3">
         <v>1241</v>
       </c>
-      <c r="L101" s="3">
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3">
         <v>459080</v>
       </c>
-      <c r="M101" s="3">
+      <c r="T101" s="3">
         <v>380521</v>
       </c>
-      <c r="N101" s="3">
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3">
         <v>9932</v>
       </c>
-      <c r="O101" s="3">
+      <c r="X101" s="3">
         <v>8442</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3">
         <v>6247</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="AB101" s="3">
         <v>5108</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -5887,38 +7056,49 @@
       <c r="G102" s="3">
         <v>44452</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
         <v>2006</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1856</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3">
         <v>1204</v>
       </c>
-      <c r="K102" s="3">
+      <c r="P102" s="3">
         <v>996</v>
       </c>
-      <c r="L102" s="3">
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3">
         <v>562830</v>
       </c>
-      <c r="M102" s="3">
+      <c r="T102" s="3">
         <v>455863</v>
       </c>
-      <c r="N102" s="3">
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3">
         <v>19346</v>
       </c>
-      <c r="O102" s="3">
+      <c r="X102" s="3">
         <v>15036</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3">
         <v>5211785</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="AB102" s="3">
         <v>9847</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5937,38 +7117,49 @@
       <c r="G103" s="3">
         <v>115981</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
         <v>4705</v>
       </c>
-      <c r="I103" s="3">
+      <c r="K103" s="3">
         <v>4091</v>
       </c>
-      <c r="J103" s="3">
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3">
         <v>2698</v>
       </c>
-      <c r="K103" s="3">
+      <c r="P103" s="3">
         <v>2347</v>
       </c>
-      <c r="L103" s="3">
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3">
         <v>807018</v>
       </c>
-      <c r="M103" s="3">
+      <c r="T103" s="3">
         <v>640288</v>
       </c>
-      <c r="N103" s="3">
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3">
         <v>26550</v>
       </c>
-      <c r="O103" s="3">
+      <c r="X103" s="3">
         <v>18151</v>
       </c>
-      <c r="P103" s="3">
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3">
         <v>17712</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="AB103" s="3">
         <v>13162</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -5987,38 +7178,49 @@
       <c r="G104" s="3">
         <v>17199</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I104" s="3">
+      <c r="K104" s="3">
         <v>965</v>
       </c>
-      <c r="J104" s="3">
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3">
         <v>847</v>
       </c>
-      <c r="K104" s="3">
+      <c r="P104" s="3">
         <v>704</v>
       </c>
-      <c r="L104" s="3">
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3">
         <v>331817</v>
       </c>
-      <c r="M104" s="3">
+      <c r="T104" s="3">
         <v>312856</v>
       </c>
-      <c r="N104" s="3">
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3">
         <v>13219</v>
       </c>
-      <c r="O104" s="3">
+      <c r="X104" s="3">
         <v>12735</v>
       </c>
-      <c r="P104" s="3">
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3">
         <v>8175</v>
       </c>
-      <c r="Q104" s="3" t="s">
+      <c r="AB104" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -6037,38 +7239,49 @@
       <c r="G105" s="3">
         <v>30356</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
         <v>1457</v>
       </c>
-      <c r="I105" s="3">
+      <c r="K105" s="3">
         <v>1389</v>
       </c>
-      <c r="J105" s="3">
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3">
         <v>1033</v>
       </c>
-      <c r="K105" s="3">
+      <c r="P105" s="3">
         <v>969</v>
       </c>
-      <c r="L105" s="3">
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3">
         <v>377298</v>
       </c>
-      <c r="M105" s="3">
+      <c r="T105" s="3">
         <v>338593</v>
       </c>
-      <c r="N105" s="3">
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3">
         <v>9095</v>
       </c>
-      <c r="O105" s="3">
+      <c r="X105" s="3">
         <v>8198</v>
       </c>
-      <c r="P105" s="3">
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3">
         <v>6125</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="AB105" s="3">
         <v>5766</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -6087,38 +7300,49 @@
       <c r="G106" s="3">
         <v>175453</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
         <v>4858</v>
       </c>
-      <c r="I106" s="3">
+      <c r="K106" s="3">
         <v>4740</v>
       </c>
-      <c r="J106" s="3">
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3">
         <v>2679</v>
       </c>
-      <c r="K106" s="3">
+      <c r="P106" s="3">
         <v>2892</v>
       </c>
-      <c r="L106" s="3">
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3">
         <v>858430</v>
       </c>
-      <c r="M106" s="3">
+      <c r="T106" s="3">
         <v>758351</v>
       </c>
-      <c r="N106" s="3">
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3">
         <v>28666</v>
       </c>
-      <c r="O106" s="3">
+      <c r="X106" s="3">
         <v>26716</v>
       </c>
-      <c r="P106" s="3">
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3">
         <v>13576</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="AB106" s="3">
         <v>12349</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -6137,38 +7361,49 @@
       <c r="G107" s="3">
         <v>556604</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
         <v>19908</v>
       </c>
-      <c r="I107" s="3">
+      <c r="K107" s="3">
         <v>18500</v>
       </c>
-      <c r="J107" s="3">
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3">
         <v>18123</v>
       </c>
-      <c r="K107" s="3">
+      <c r="P107" s="3">
         <v>12172</v>
       </c>
-      <c r="L107" s="3">
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3">
         <v>4340190</v>
       </c>
-      <c r="M107" s="3">
+      <c r="T107" s="3">
         <v>3739691</v>
       </c>
-      <c r="N107" s="3">
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3">
         <v>126233</v>
       </c>
-      <c r="O107" s="3">
+      <c r="X107" s="3">
         <v>107596</v>
       </c>
-      <c r="P107" s="3">
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3">
         <v>73541</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="AB107" s="3">
         <v>64094</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -6187,38 +7422,49 @@
       <c r="G108" s="3">
         <v>1662594</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
         <v>67466</v>
       </c>
-      <c r="I108" s="3">
+      <c r="K108" s="3">
         <v>64113</v>
       </c>
-      <c r="J108" s="3">
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3">
         <v>47950</v>
       </c>
-      <c r="K108" s="3">
+      <c r="P108" s="3">
         <v>40516</v>
       </c>
-      <c r="L108" s="3">
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3">
         <v>13573986</v>
       </c>
-      <c r="M108" s="3">
+      <c r="T108" s="3">
         <v>12267712</v>
       </c>
-      <c r="N108" s="3">
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3">
         <v>545629</v>
       </c>
-      <c r="O108" s="3">
+      <c r="X108" s="3">
         <v>507608</v>
       </c>
-      <c r="P108" s="3">
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3">
         <v>350575</v>
       </c>
-      <c r="Q108" s="3">
+      <c r="AB108" s="3">
         <v>317070</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -6237,38 +7483,49 @@
       <c r="G109" s="3">
         <v>10225793</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3">
         <v>394065</v>
       </c>
-      <c r="I109" s="3">
+      <c r="K109" s="3">
         <v>370266</v>
       </c>
-      <c r="J109" s="3">
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3">
         <v>811480</v>
       </c>
-      <c r="K109" s="3">
+      <c r="P109" s="3">
         <v>260360</v>
       </c>
-      <c r="L109" s="3">
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3">
         <v>69332082</v>
       </c>
-      <c r="M109" s="3">
+      <c r="T109" s="3">
         <v>69094585</v>
       </c>
-      <c r="N109" s="3">
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3">
         <v>3065190</v>
       </c>
-      <c r="O109" s="3">
+      <c r="X109" s="3">
         <v>2901187</v>
       </c>
-      <c r="P109" s="3">
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3">
         <v>1990688</v>
       </c>
-      <c r="Q109" s="3">
+      <c r="AB109" s="3">
         <v>1855421</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -6284,8 +7541,19 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -6301,8 +7569,19 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -6318,8 +7597,19 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -6335,8 +7625,19 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+    </row>
+    <row r="114" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -6352,8 +7653,19 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -6369,8 +7681,19 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+    </row>
+    <row r="116" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -6386,8 +7709,19 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -6403,8 +7737,19 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+    </row>
+    <row r="118" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -6420,8 +7765,19 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -6437,8 +7793,19 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+    </row>
+    <row r="120" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -6454,8 +7821,19 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+    </row>
+    <row r="121" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -6471,8 +7849,19 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+    </row>
+    <row r="122" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -6488,8 +7877,19 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+    </row>
+    <row r="123" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -6505,8 +7905,19 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+    </row>
+    <row r="124" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -6522,8 +7933,19 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -6539,8 +7961,19 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+    </row>
+    <row r="126" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -6556,8 +7989,19 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+    </row>
+    <row r="127" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -6573,8 +8017,19 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+    </row>
+    <row r="128" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -6590,8 +8045,19 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
+    </row>
+    <row r="129" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -6607,8 +8073,19 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
+      <c r="AB129" s="3"/>
+    </row>
+    <row r="130" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -6624,8 +8101,19 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
+      <c r="AB130" s="3"/>
+    </row>
+    <row r="131" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6641,8 +8129,19 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+    </row>
+    <row r="132" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -6658,63 +8157,74 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F371EB-AC4F-427D-97A6-1E10D5BC5987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0365D-587B-4B38-A877-8AF0CEFD1C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
   <si>
     <t>губ</t>
   </si>
@@ -406,24 +406,6 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
-  </si>
-  <si>
-    <t>Я15447</t>
-  </si>
-  <si>
-    <t>2575В</t>
-  </si>
-  <si>
-    <t>III17343</t>
-  </si>
-  <si>
-    <t>ИЗО</t>
-  </si>
-  <si>
-    <t>88557»</t>
-  </si>
-  <si>
-    <t>7«90</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -823,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94797F7D-BA3C-41D1-A3B8-3FAF5F45543C}">
   <dimension ref="A1:AC467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AA105" sqref="AA105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,10 +853,10 @@
         <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>115</v>
@@ -883,10 +865,10 @@
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>117</v>
@@ -895,10 +877,10 @@
         <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>119</v>
@@ -907,10 +889,10 @@
         <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>121</v>
@@ -919,10 +901,10 @@
         <v>122</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>123</v>
@@ -931,10 +913,10 @@
         <v>124</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -966,35 +948,34 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3">
+        <v>922</v>
+      </c>
       <c r="O2" s="3">
-        <v>922</v>
-      </c>
-      <c r="P2" s="3">
         <v>681</v>
       </c>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>181013</v>
+      </c>
       <c r="S2" s="3">
-        <v>181013</v>
-      </c>
-      <c r="T2" s="3">
         <v>200832</v>
       </c>
+      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="V2" s="3">
+        <v>8623</v>
+      </c>
       <c r="W2" s="3">
-        <v>8623</v>
-      </c>
-      <c r="X2" s="3">
         <v>8007</v>
       </c>
+      <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3">
+        <v>5505</v>
+      </c>
       <c r="AA2" s="3">
-        <v>5505</v>
-      </c>
-      <c r="AB2" s="3">
         <v>5172</v>
       </c>
     </row>
@@ -1027,35 +1008,34 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>3937</v>
+      </c>
       <c r="O3" s="3">
-        <v>3937</v>
-      </c>
-      <c r="P3" s="3">
         <v>2796</v>
       </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3">
+        <v>568050</v>
+      </c>
       <c r="S3" s="3">
-        <v>568050</v>
-      </c>
-      <c r="T3" s="3">
         <v>537037</v>
       </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3">
+        <v>20935</v>
+      </c>
       <c r="W3" s="3">
-        <v>20935</v>
-      </c>
-      <c r="X3" s="3">
         <v>19494</v>
       </c>
+      <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="3">
+        <v>14285</v>
+      </c>
       <c r="AA3" s="3">
-        <v>14285</v>
-      </c>
-      <c r="AB3" s="3">
         <v>12407</v>
       </c>
     </row>
@@ -1088,35 +1068,34 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>2865</v>
+      </c>
       <c r="O4" s="3">
-        <v>2865</v>
-      </c>
-      <c r="P4" s="3">
         <v>2397</v>
       </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3">
+        <v>828374</v>
+      </c>
       <c r="S4" s="3">
-        <v>828374</v>
-      </c>
-      <c r="T4" s="3">
         <v>845210</v>
       </c>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>28498</v>
+      </c>
       <c r="W4" s="3">
-        <v>28498</v>
-      </c>
-      <c r="X4" s="3">
         <v>27076</v>
       </c>
+      <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3">
+        <v>15597</v>
+      </c>
       <c r="AA4" s="3">
-        <v>15597</v>
-      </c>
-      <c r="AB4" s="3">
         <v>14372</v>
       </c>
     </row>
@@ -1149,35 +1128,34 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>3218</v>
+      </c>
       <c r="O5" s="3">
-        <v>3218</v>
-      </c>
-      <c r="P5" s="3">
         <v>2706</v>
       </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>729472</v>
+      </c>
       <c r="S5" s="3">
-        <v>729472</v>
-      </c>
-      <c r="T5" s="3">
         <v>763603</v>
       </c>
+      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="V5" s="3">
+        <v>28896</v>
+      </c>
       <c r="W5" s="3">
-        <v>28896</v>
-      </c>
-      <c r="X5" s="3">
         <v>27236</v>
       </c>
+      <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="Z5" s="3">
+        <v>16517</v>
+      </c>
       <c r="AA5" s="3">
-        <v>16517</v>
-      </c>
-      <c r="AB5" s="3">
         <v>14674</v>
       </c>
     </row>
@@ -1210,35 +1188,34 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="3">
+        <v>3394</v>
+      </c>
       <c r="O6" s="3">
-        <v>3394</v>
-      </c>
-      <c r="P6" s="3">
         <v>2796</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>1663619</v>
+      </c>
       <c r="S6" s="3">
-        <v>1663619</v>
-      </c>
-      <c r="T6" s="3">
         <v>1656977</v>
       </c>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="V6" s="3">
+        <v>73054</v>
+      </c>
       <c r="W6" s="3">
-        <v>73054</v>
-      </c>
-      <c r="X6" s="3">
         <v>68102</v>
       </c>
+      <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="Z6" s="3">
+        <v>42352</v>
+      </c>
       <c r="AA6" s="3">
-        <v>42352</v>
-      </c>
-      <c r="AB6" s="3">
         <v>38522</v>
       </c>
     </row>
@@ -1271,35 +1248,34 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>2086</v>
+      </c>
       <c r="O7" s="3">
-        <v>2086</v>
-      </c>
-      <c r="P7" s="3">
         <v>1748</v>
       </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>770947</v>
+      </c>
       <c r="S7" s="3">
-        <v>770947</v>
-      </c>
-      <c r="T7" s="3">
         <v>759342</v>
       </c>
+      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3">
+        <v>29413</v>
+      </c>
       <c r="W7" s="3">
-        <v>29413</v>
-      </c>
-      <c r="X7" s="3">
         <v>26889</v>
       </c>
+      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="Z7" s="3">
+        <v>18436</v>
+      </c>
       <c r="AA7" s="3">
-        <v>18436</v>
-      </c>
-      <c r="AB7" s="3">
         <v>17135</v>
       </c>
     </row>
@@ -1332,35 +1308,34 @@
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>8633</v>
+      </c>
       <c r="O8" s="3">
-        <v>8633</v>
-      </c>
-      <c r="P8" s="3">
         <v>6836</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>1893121</v>
+      </c>
       <c r="S8" s="3">
-        <v>1893121</v>
-      </c>
-      <c r="T8" s="3">
         <v>1915784</v>
       </c>
+      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>78977</v>
+      </c>
       <c r="W8" s="3">
-        <v>78977</v>
-      </c>
-      <c r="X8" s="3">
         <v>73420</v>
       </c>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="Z8" s="3">
+        <v>55243</v>
+      </c>
       <c r="AA8" s="3">
-        <v>55243</v>
-      </c>
-      <c r="AB8" s="3">
         <v>50714</v>
       </c>
     </row>
@@ -1393,35 +1368,34 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>1647</v>
+      </c>
       <c r="O9" s="3">
-        <v>1647</v>
-      </c>
-      <c r="P9" s="3">
         <v>1435</v>
       </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>797873</v>
+      </c>
       <c r="S9" s="3">
-        <v>797873</v>
-      </c>
-      <c r="T9" s="3">
         <v>818302</v>
       </c>
+      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3">
+        <v>23829</v>
+      </c>
       <c r="W9" s="3">
-        <v>23829</v>
-      </c>
-      <c r="X9" s="3">
         <v>22991</v>
       </c>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3">
+        <v>15610</v>
+      </c>
       <c r="AA9" s="3">
-        <v>15610</v>
-      </c>
-      <c r="AB9" s="3">
         <v>15057</v>
       </c>
     </row>
@@ -1454,35 +1428,34 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>2826</v>
+      </c>
       <c r="O10" s="3">
-        <v>2826</v>
-      </c>
-      <c r="P10" s="3">
         <v>2220</v>
       </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>1255715</v>
+      </c>
       <c r="S10" s="3">
-        <v>1255715</v>
-      </c>
-      <c r="T10" s="3">
         <v>1254819</v>
       </c>
+      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3">
+        <v>51337</v>
+      </c>
       <c r="W10" s="3">
-        <v>51337</v>
-      </c>
-      <c r="X10" s="3">
         <v>47984</v>
       </c>
+      <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="Z10" s="3">
+        <v>25340</v>
+      </c>
       <c r="AA10" s="3">
-        <v>25340</v>
-      </c>
-      <c r="AB10" s="3">
         <v>22905</v>
       </c>
     </row>
@@ -1515,35 +1488,34 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>1804</v>
+      </c>
       <c r="O11" s="3">
-        <v>1804</v>
-      </c>
-      <c r="P11" s="3">
         <v>1531</v>
       </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>974347</v>
+      </c>
       <c r="S11" s="3">
-        <v>974347</v>
-      </c>
-      <c r="T11" s="3">
         <v>969602</v>
       </c>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="3">
+        <v>38687</v>
+      </c>
       <c r="W11" s="3">
-        <v>38687</v>
-      </c>
-      <c r="X11" s="3">
         <v>37717</v>
       </c>
+      <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3">
+        <v>19376</v>
+      </c>
       <c r="AA11" s="3">
-        <v>19376</v>
-      </c>
-      <c r="AB11" s="3">
         <v>20422</v>
       </c>
     </row>
@@ -1576,35 +1548,34 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="3">
+        <v>5785</v>
+      </c>
       <c r="O12" s="3">
-        <v>5785</v>
-      </c>
-      <c r="P12" s="3">
         <v>5082</v>
       </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>920021</v>
+      </c>
       <c r="S12" s="3">
-        <v>920021</v>
-      </c>
-      <c r="T12" s="3">
         <v>912654</v>
       </c>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="3">
+        <v>56726</v>
+      </c>
       <c r="W12" s="3">
-        <v>56726</v>
-      </c>
-      <c r="X12" s="3">
         <v>54194</v>
       </c>
+      <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="3">
+        <v>36022</v>
+      </c>
       <c r="AA12" s="3">
-        <v>36022</v>
-      </c>
-      <c r="AB12" s="3">
         <v>33535</v>
       </c>
     </row>
@@ -1637,35 +1608,34 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="N13" s="3">
+        <v>2857</v>
+      </c>
       <c r="O13" s="3">
-        <v>2857</v>
-      </c>
-      <c r="P13" s="3">
         <v>2276</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>1630171</v>
+      </c>
       <c r="S13" s="3">
-        <v>1630171</v>
-      </c>
-      <c r="T13" s="3">
         <v>1656558</v>
       </c>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="V13" s="3">
+        <v>70218</v>
+      </c>
       <c r="W13" s="3">
-        <v>70218</v>
-      </c>
-      <c r="X13" s="3">
         <v>65888</v>
       </c>
+      <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="3">
+        <v>45774</v>
+      </c>
       <c r="AA13" s="3">
-        <v>45774</v>
-      </c>
-      <c r="AB13" s="3">
         <v>41662</v>
       </c>
     </row>
@@ -1698,35 +1668,34 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>39974</v>
+      </c>
       <c r="O14" s="3">
-        <v>39974</v>
-      </c>
-      <c r="P14" s="3">
         <v>32504</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>12213223</v>
+      </c>
       <c r="S14" s="3">
-        <v>12213223</v>
-      </c>
-      <c r="T14" s="3">
         <v>12290720</v>
       </c>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3">
+        <v>509193</v>
+      </c>
       <c r="W14" s="3">
-        <v>509193</v>
-      </c>
-      <c r="X14" s="3">
         <v>478998</v>
       </c>
+      <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="3">
+        <v>310567</v>
+      </c>
       <c r="AA14" s="3">
-        <v>310567</v>
-      </c>
-      <c r="AB14" s="3">
         <v>286577</v>
       </c>
     </row>
@@ -1759,35 +1728,34 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3">
+        <v>2205</v>
+      </c>
       <c r="O15" s="3">
-        <v>2205</v>
-      </c>
-      <c r="P15" s="3">
         <v>2000</v>
       </c>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>823732</v>
+      </c>
       <c r="S15" s="3">
-        <v>823732</v>
-      </c>
-      <c r="T15" s="3">
         <v>850640</v>
       </c>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3">
+        <v>26475</v>
+      </c>
       <c r="W15" s="3">
-        <v>26475</v>
-      </c>
-      <c r="X15" s="3">
         <v>23837</v>
       </c>
+      <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="Z15" s="3">
+        <v>15170</v>
+      </c>
       <c r="AA15" s="3">
-        <v>15170</v>
-      </c>
-      <c r="AB15" s="3">
         <v>14221</v>
       </c>
     </row>
@@ -1820,39 +1788,38 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3">
+        <v>8717</v>
+      </c>
       <c r="O16" s="3">
-        <v>8717</v>
-      </c>
-      <c r="P16" s="3">
         <v>7928</v>
       </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
       <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
       <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
         <v>0</v>
       </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <v>0</v>
       </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1881,39 +1848,38 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <v>967</v>
+      </c>
       <c r="O17" s="3">
-        <v>967</v>
-      </c>
-      <c r="P17" s="3">
         <v>831</v>
       </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3">
+        <v>564263</v>
+      </c>
       <c r="S17" s="3">
-        <v>564263</v>
-      </c>
-      <c r="T17" s="3">
         <v>603986</v>
       </c>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="3">
+        <v>22137</v>
+      </c>
       <c r="W17" s="3">
-        <v>22137</v>
-      </c>
-      <c r="X17" s="3">
         <v>22315</v>
       </c>
+      <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="3">
+        <v>11529</v>
+      </c>
       <c r="AA17" s="3">
-        <v>11529</v>
-      </c>
-      <c r="AB17" s="3">
         <v>12072</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1942,39 +1908,38 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3">
+        <v>638</v>
+      </c>
       <c r="O18" s="3">
-        <v>638</v>
-      </c>
-      <c r="P18" s="3">
         <v>504</v>
       </c>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3">
+        <v>530248</v>
+      </c>
       <c r="S18" s="3">
-        <v>530248</v>
-      </c>
-      <c r="T18" s="3">
         <v>530023</v>
       </c>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="V18" s="3">
+        <v>16418</v>
+      </c>
       <c r="W18" s="3">
-        <v>16418</v>
-      </c>
-      <c r="X18" s="3">
         <v>15438</v>
       </c>
+      <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="3">
+        <v>9018</v>
+      </c>
       <c r="AA18" s="3">
-        <v>9018</v>
-      </c>
-      <c r="AB18" s="3">
         <v>9816</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2003,39 +1968,38 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>584</v>
+      </c>
       <c r="O19" s="3">
-        <v>584</v>
-      </c>
-      <c r="P19" s="3">
         <v>578</v>
       </c>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3">
+        <v>305821</v>
+      </c>
       <c r="S19" s="3">
-        <v>305821</v>
-      </c>
-      <c r="T19" s="3">
         <v>348267</v>
       </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="3">
+        <v>7876</v>
+      </c>
       <c r="W19" s="3">
-        <v>7876</v>
-      </c>
-      <c r="X19" s="3">
         <v>8046</v>
       </c>
+      <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="Z19" s="3">
+        <v>5929</v>
+      </c>
       <c r="AA19" s="3">
-        <v>5929</v>
-      </c>
-      <c r="AB19" s="3">
         <v>5347</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2064,39 +2028,38 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>1521</v>
+      </c>
       <c r="O20" s="3">
-        <v>1521</v>
-      </c>
-      <c r="P20" s="3">
         <v>1379</v>
       </c>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3">
+        <v>671635</v>
+      </c>
       <c r="S20" s="3">
-        <v>671635</v>
-      </c>
-      <c r="T20" s="3">
         <v>662656</v>
       </c>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3">
+        <v>23209</v>
+      </c>
       <c r="W20" s="3">
-        <v>23209</v>
-      </c>
-      <c r="X20" s="3">
         <v>22011</v>
       </c>
+      <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="Z20" s="3">
+        <v>14288</v>
+      </c>
       <c r="AA20" s="3">
-        <v>14288</v>
-      </c>
-      <c r="AB20" s="3">
         <v>13193</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2125,39 +2088,38 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>8778</v>
+      </c>
       <c r="O21" s="3">
-        <v>8778</v>
-      </c>
-      <c r="P21" s="3">
         <v>8326</v>
       </c>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="3">
+        <v>645975</v>
+      </c>
       <c r="S21" s="3">
-        <v>645975</v>
-      </c>
-      <c r="T21" s="3">
         <v>648266</v>
       </c>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="V21" s="3">
+        <v>29744</v>
+      </c>
       <c r="W21" s="3">
-        <v>29744</v>
-      </c>
-      <c r="X21" s="3">
         <v>27824</v>
       </c>
+      <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="Z21" s="3">
+        <v>15840</v>
+      </c>
       <c r="AA21" s="3">
-        <v>15840</v>
-      </c>
-      <c r="AB21" s="3">
         <v>14990</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2186,39 +2148,38 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>741</v>
+      </c>
       <c r="O22" s="3">
-        <v>741</v>
-      </c>
-      <c r="P22" s="3">
         <v>730</v>
       </c>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="3">
+        <v>333024</v>
+      </c>
       <c r="S22" s="3">
-        <v>333024</v>
-      </c>
-      <c r="T22" s="3">
-        <v>337406</v>
-      </c>
+        <v>337405</v>
+      </c>
+      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="V22" s="3">
+        <v>9496</v>
+      </c>
       <c r="W22" s="3">
-        <v>9496</v>
-      </c>
-      <c r="X22" s="3">
         <v>9277</v>
       </c>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+      <c r="Z22" s="3">
+        <v>6191</v>
+      </c>
       <c r="AA22" s="3">
-        <v>6191</v>
-      </c>
-      <c r="AB22" s="3">
         <v>6352</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2247,39 +2208,38 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>1167</v>
+      </c>
       <c r="O23" s="3">
-        <v>1167</v>
-      </c>
-      <c r="P23" s="3">
         <v>1299</v>
       </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3">
+        <v>528327</v>
+      </c>
       <c r="S23" s="3">
-        <v>528327</v>
-      </c>
-      <c r="T23" s="3">
         <v>521385</v>
       </c>
+      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="V23" s="3">
+        <v>19176</v>
+      </c>
       <c r="W23" s="3">
-        <v>19176</v>
-      </c>
-      <c r="X23" s="3">
         <v>18805</v>
       </c>
+      <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="Z23" s="3">
+        <v>10749</v>
+      </c>
       <c r="AA23" s="3">
-        <v>10749</v>
-      </c>
-      <c r="AB23" s="3">
         <v>10621</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2308,39 +2268,38 @@
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>470</v>
+      </c>
       <c r="O24" s="3">
-        <v>470</v>
-      </c>
-      <c r="P24" s="3">
         <v>426</v>
       </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="3">
+        <v>295803</v>
+      </c>
       <c r="S24" s="3">
-        <v>295803</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>315447</v>
+      </c>
+      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="3">
+        <v>7994</v>
+      </c>
       <c r="W24" s="3">
-        <v>7994</v>
-      </c>
-      <c r="X24" s="3">
         <v>7820</v>
       </c>
+      <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="3">
+        <v>5943</v>
+      </c>
       <c r="AA24" s="3">
-        <v>5943</v>
-      </c>
-      <c r="AB24" s="3">
         <v>6134</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2369,39 +2328,38 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>1232</v>
+      </c>
       <c r="O25" s="3">
-        <v>1232</v>
-      </c>
-      <c r="P25" s="3">
         <v>1027</v>
       </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3">
+        <v>457431</v>
+      </c>
       <c r="S25" s="3">
-        <v>457431</v>
-      </c>
-      <c r="T25" s="3">
         <v>458424</v>
       </c>
+      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="V25" s="3">
+        <v>16775</v>
+      </c>
       <c r="W25" s="3">
-        <v>16775</v>
-      </c>
-      <c r="X25" s="3">
         <v>16092</v>
       </c>
+      <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="3">
+        <v>9448</v>
+      </c>
       <c r="AA25" s="3">
-        <v>9448</v>
-      </c>
-      <c r="AB25" s="3">
         <v>9663</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2430,39 +2388,38 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>27020</v>
+      </c>
       <c r="O26" s="3">
-        <v>27020</v>
-      </c>
-      <c r="P26" s="3">
         <v>25028</v>
       </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3">
+        <v>5156259</v>
+      </c>
       <c r="S26" s="3">
-        <v>5156259</v>
-      </c>
-      <c r="T26" s="3">
         <v>5276499</v>
       </c>
+      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="3">
+        <v>179300</v>
+      </c>
       <c r="W26" s="3">
-        <v>179300</v>
-      </c>
-      <c r="X26" s="3">
         <v>171465</v>
       </c>
+      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="3">
+        <v>104105</v>
+      </c>
       <c r="AA26" s="3">
-        <v>104105</v>
-      </c>
-      <c r="AB26" s="3">
         <v>102409</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2491,39 +2448,38 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <v>1957</v>
+      </c>
       <c r="O27" s="3">
-        <v>1957</v>
-      </c>
-      <c r="P27" s="3">
         <v>1692</v>
       </c>
+      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <v>266400</v>
+      </c>
       <c r="S27" s="3">
-        <v>266400</v>
-      </c>
-      <c r="T27" s="3">
         <v>289800</v>
       </c>
+      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="V27" s="3">
+        <v>5566</v>
+      </c>
       <c r="W27" s="3">
-        <v>5566</v>
-      </c>
-      <c r="X27" s="3">
         <v>5263</v>
       </c>
+      <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
+      <c r="Z27" s="3">
+        <v>4457</v>
+      </c>
       <c r="AA27" s="3">
-        <v>4457</v>
-      </c>
-      <c r="AB27" s="3">
         <v>4187</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2552,39 +2508,38 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>5797</v>
+      </c>
       <c r="O28" s="3">
-        <v>5797</v>
-      </c>
-      <c r="P28" s="3">
         <v>4939</v>
       </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>507396</v>
+      </c>
       <c r="S28" s="3">
-        <v>507396</v>
-      </c>
-      <c r="T28" s="3">
         <v>543026</v>
       </c>
+      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="V28" s="3">
+        <v>10797</v>
+      </c>
       <c r="W28" s="3">
-        <v>10797</v>
-      </c>
-      <c r="X28" s="3">
         <v>10176</v>
       </c>
+      <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
+      <c r="Z28" s="3">
+        <v>7790</v>
+      </c>
       <c r="AA28" s="3">
-        <v>7790</v>
-      </c>
-      <c r="AB28" s="3">
         <v>7502</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2613,39 +2568,38 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <v>1078</v>
+      </c>
       <c r="O29" s="3">
-        <v>1078</v>
-      </c>
-      <c r="P29" s="3">
         <v>849</v>
       </c>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <v>185576</v>
+      </c>
       <c r="S29" s="3">
-        <v>185576</v>
-      </c>
-      <c r="T29" s="3">
         <v>193830</v>
       </c>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3">
+        <v>4832</v>
+      </c>
       <c r="W29" s="3">
-        <v>4832</v>
-      </c>
-      <c r="X29" s="3">
         <v>4509</v>
       </c>
+      <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="Z29" s="3">
+        <v>3285</v>
+      </c>
       <c r="AA29" s="3">
-        <v>3285</v>
-      </c>
-      <c r="AB29" s="3">
         <v>3085</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2674,39 +2628,38 @@
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3">
+        <v>8832</v>
+      </c>
       <c r="O30" s="3">
-        <v>8832</v>
-      </c>
-      <c r="P30" s="3">
         <v>7480</v>
       </c>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3">
+        <v>959372</v>
+      </c>
       <c r="S30" s="3">
-        <v>959372</v>
-      </c>
-      <c r="T30" s="3">
         <v>1026656</v>
       </c>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="V30" s="3">
+        <v>21193</v>
+      </c>
       <c r="W30" s="3">
-        <v>21193</v>
-      </c>
-      <c r="X30" s="3">
         <v>19948</v>
       </c>
+      <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="3">
+        <v>15532</v>
+      </c>
       <c r="AA30" s="3">
-        <v>15532</v>
-      </c>
-      <c r="AB30" s="3">
         <v>14774</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2735,39 +2688,38 @@
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3">
+        <v>4744</v>
+      </c>
       <c r="O31" s="3">
-        <v>4744</v>
-      </c>
-      <c r="P31" s="3">
         <v>3945</v>
       </c>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>1062789</v>
+      </c>
       <c r="S31" s="3">
-        <v>1062789</v>
-      </c>
-      <c r="T31" s="3">
         <v>1020499</v>
       </c>
+      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="V31" s="3">
+        <v>49371</v>
+      </c>
       <c r="W31" s="3">
-        <v>49371</v>
-      </c>
-      <c r="X31" s="3">
         <v>45287</v>
       </c>
+      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="Z31" s="3">
+        <v>28126</v>
+      </c>
       <c r="AA31" s="3">
-        <v>28126</v>
-      </c>
-      <c r="AB31" s="3">
         <v>25683</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2796,39 +2748,38 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <v>4994</v>
+      </c>
       <c r="O32" s="3">
-        <v>4994</v>
-      </c>
-      <c r="P32" s="3">
         <v>4251</v>
       </c>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3">
+        <v>877363</v>
+      </c>
       <c r="S32" s="3">
-        <v>877363</v>
-      </c>
-      <c r="T32" s="3">
         <v>897695</v>
       </c>
+      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="V32" s="3">
+        <v>39355</v>
+      </c>
       <c r="W32" s="3">
-        <v>39355</v>
-      </c>
-      <c r="X32" s="3">
         <v>37623</v>
       </c>
+      <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="Z32" s="3">
+        <v>26916</v>
+      </c>
       <c r="AA32" s="3">
-        <v>26916</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+        <v>25758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2857,39 +2808,38 @@
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3">
+        <v>1426</v>
+      </c>
       <c r="O33" s="3">
-        <v>1426</v>
-      </c>
-      <c r="P33" s="3">
         <v>1094</v>
       </c>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3">
+        <v>720960</v>
+      </c>
       <c r="S33" s="3">
-        <v>720960</v>
-      </c>
-      <c r="T33" s="3">
         <v>788814</v>
       </c>
+      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="V33" s="3">
+        <v>34611</v>
+      </c>
       <c r="W33" s="3">
-        <v>34611</v>
-      </c>
-      <c r="X33" s="3">
         <v>33111</v>
       </c>
+      <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="Z33" s="3">
+        <v>21602</v>
+      </c>
       <c r="AA33" s="3">
-        <v>21602</v>
-      </c>
-      <c r="AB33" s="3">
         <v>20168</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2918,39 +2868,38 @@
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>2527</v>
+      </c>
       <c r="O34" s="3">
-        <v>2527</v>
-      </c>
-      <c r="P34" s="3">
         <v>1965</v>
       </c>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3">
+        <v>1651381</v>
+      </c>
       <c r="S34" s="3">
-        <v>1651381</v>
-      </c>
-      <c r="T34" s="3">
         <v>1626457</v>
       </c>
+      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="V34" s="3">
+        <v>83491</v>
+      </c>
       <c r="W34" s="3">
-        <v>83491</v>
-      </c>
-      <c r="X34" s="3">
         <v>79867</v>
       </c>
+      <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="Z34" s="3">
+        <v>61371</v>
+      </c>
       <c r="AA34" s="3">
-        <v>61371</v>
-      </c>
-      <c r="AB34" s="3">
         <v>59090</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2979,39 +2928,38 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <v>1852</v>
+      </c>
       <c r="O35" s="3">
-        <v>1852</v>
-      </c>
-      <c r="P35" s="3">
         <v>1527</v>
       </c>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="3">
+        <v>1698182</v>
+      </c>
       <c r="S35" s="3">
-        <v>1698182</v>
-      </c>
-      <c r="T35" s="3">
         <v>1773152</v>
       </c>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="V35" s="3">
+        <v>92086</v>
+      </c>
       <c r="W35" s="3">
-        <v>92086</v>
-      </c>
-      <c r="X35" s="3">
         <v>88818</v>
       </c>
+      <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="Z35" s="3">
+        <v>63648</v>
+      </c>
       <c r="AA35" s="3">
-        <v>63648</v>
-      </c>
-      <c r="AB35" s="3">
         <v>61305</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3040,39 +2988,38 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3">
+        <v>7620</v>
+      </c>
       <c r="O36" s="3">
-        <v>7620</v>
-      </c>
-      <c r="P36" s="3">
         <v>5089</v>
       </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>1389988</v>
+      </c>
       <c r="S36" s="3">
-        <v>1389988</v>
-      </c>
-      <c r="T36" s="3">
         <v>1220043</v>
       </c>
+      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="V36" s="3">
+        <v>71381</v>
+      </c>
       <c r="W36" s="3">
-        <v>71381</v>
-      </c>
-      <c r="X36" s="3">
         <v>68562</v>
       </c>
+      <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="Z36" s="3">
+        <v>38514</v>
+      </c>
       <c r="AA36" s="3">
-        <v>38514</v>
-      </c>
-      <c r="AB36" s="3">
         <v>33320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3101,39 +3048,38 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3">
+        <v>3801</v>
+      </c>
       <c r="O37" s="3">
-        <v>3801</v>
-      </c>
-      <c r="P37" s="3">
         <v>3382</v>
       </c>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3">
+        <v>1195956</v>
+      </c>
       <c r="S37" s="3">
-        <v>1195956</v>
-      </c>
-      <c r="T37" s="3">
         <v>1190961</v>
       </c>
+      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="V37" s="3">
+        <v>55505</v>
+      </c>
       <c r="W37" s="3">
-        <v>55505</v>
-      </c>
-      <c r="X37" s="3">
         <v>53331</v>
       </c>
+      <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="Z37" s="3">
+        <v>37746</v>
+      </c>
       <c r="AA37" s="3">
-        <v>37746</v>
-      </c>
-      <c r="AB37" s="3">
         <v>37111</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3162,39 +3108,38 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="3">
+        <v>1803</v>
+      </c>
       <c r="O38" s="3">
-        <v>1803</v>
-      </c>
-      <c r="P38" s="3">
         <v>1358</v>
       </c>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="3">
+        <v>615793</v>
+      </c>
       <c r="S38" s="3">
-        <v>615793</v>
-      </c>
-      <c r="T38" s="3">
         <v>704664</v>
       </c>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="V38" s="3">
+        <v>29981</v>
+      </c>
       <c r="W38" s="3">
-        <v>29981</v>
-      </c>
-      <c r="X38" s="3">
         <v>28379</v>
       </c>
+      <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+      <c r="Z38" s="3">
+        <v>22209</v>
+      </c>
       <c r="AA38" s="3">
-        <v>22209</v>
-      </c>
-      <c r="AB38" s="3">
         <v>21315</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3223,39 +3168,38 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="3">
+        <v>1793</v>
+      </c>
       <c r="O39" s="3">
-        <v>1793</v>
-      </c>
-      <c r="P39" s="3">
         <v>1513</v>
       </c>
+      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="3">
+        <v>746313</v>
+      </c>
       <c r="S39" s="3">
-        <v>746313</v>
-      </c>
-      <c r="T39" s="3">
         <v>849413</v>
       </c>
+      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="V39" s="3">
+        <v>36326</v>
+      </c>
       <c r="W39" s="3">
-        <v>36326</v>
-      </c>
-      <c r="X39" s="3">
         <v>34718</v>
       </c>
+      <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
+      <c r="Z39" s="3">
+        <v>24612</v>
+      </c>
       <c r="AA39" s="3">
-        <v>24612</v>
-      </c>
-      <c r="AB39" s="3">
         <v>25554</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3284,39 +3228,38 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="3">
+        <v>2699</v>
+      </c>
       <c r="O40" s="3">
-        <v>2699</v>
-      </c>
-      <c r="P40" s="3">
         <v>2531</v>
       </c>
+      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="R40" s="3">
+        <v>1322321</v>
+      </c>
       <c r="S40" s="3">
-        <v>1322321</v>
-      </c>
-      <c r="T40" s="3">
         <v>1333753</v>
       </c>
+      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="V40" s="3">
+        <v>48316</v>
+      </c>
       <c r="W40" s="3">
-        <v>48316</v>
-      </c>
-      <c r="X40" s="3">
         <v>46288</v>
       </c>
+      <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="Z40" s="3">
+        <v>29274</v>
+      </c>
       <c r="AA40" s="3">
-        <v>29274</v>
-      </c>
-      <c r="AB40" s="3">
         <v>28139</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3345,39 +3288,38 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3">
+        <v>2823</v>
+      </c>
       <c r="O41" s="3">
-        <v>2823</v>
-      </c>
-      <c r="P41" s="3">
         <v>2388</v>
       </c>
+      <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="R41" s="3">
+        <v>715058</v>
+      </c>
       <c r="S41" s="3">
-        <v>715058</v>
-      </c>
-      <c r="T41" s="3">
         <v>893823</v>
       </c>
+      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="V41" s="3">
+        <v>36726</v>
+      </c>
       <c r="W41" s="3">
-        <v>36726</v>
-      </c>
-      <c r="X41" s="3">
         <v>35427</v>
       </c>
+      <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="Z41" s="3">
+        <v>29768</v>
+      </c>
       <c r="AA41" s="3">
-        <v>29768</v>
-      </c>
-      <c r="AB41" s="3">
         <v>27014</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3406,39 +3348,38 @@
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="3">
+        <v>23623</v>
+      </c>
       <c r="O42" s="3">
-        <v>23623</v>
-      </c>
-      <c r="P42" s="3">
         <v>19333</v>
       </c>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3467,39 +3408,38 @@
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="3">
+        <v>2630</v>
+      </c>
       <c r="O43" s="3">
-        <v>2630</v>
-      </c>
-      <c r="P43" s="3">
         <v>2229</v>
       </c>
+      <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="R43" s="3">
+        <v>875652</v>
+      </c>
       <c r="S43" s="3">
-        <v>875652</v>
-      </c>
-      <c r="T43" s="3">
         <v>942209</v>
       </c>
+      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="V43" s="3">
+        <v>47127</v>
+      </c>
       <c r="W43" s="3">
-        <v>47127</v>
-      </c>
-      <c r="X43" s="3">
         <v>44838</v>
       </c>
+      <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
+      <c r="Z43" s="3">
+        <v>32171</v>
+      </c>
       <c r="AA43" s="3">
-        <v>32171</v>
-      </c>
-      <c r="AB43" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3528,39 +3468,38 @@
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="3">
+        <v>1973</v>
+      </c>
       <c r="O44" s="3">
-        <v>1973</v>
-      </c>
-      <c r="P44" s="3">
         <v>1505</v>
       </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="R44" s="3">
+        <v>710696</v>
+      </c>
       <c r="S44" s="3">
-        <v>710696</v>
-      </c>
-      <c r="T44" s="3">
         <v>778211</v>
       </c>
+      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="V44" s="3">
+        <v>30866</v>
+      </c>
       <c r="W44" s="3">
-        <v>30866</v>
-      </c>
-      <c r="X44" s="3">
         <v>29156</v>
       </c>
+      <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
+      <c r="Z44" s="3">
+        <v>22513</v>
+      </c>
       <c r="AA44" s="3">
-        <v>22513</v>
-      </c>
-      <c r="AB44" s="3">
         <v>20589</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3589,39 +3528,38 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="3">
+        <v>499</v>
+      </c>
       <c r="O45" s="3">
-        <v>499</v>
-      </c>
-      <c r="P45" s="3">
         <v>456</v>
       </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="R45" s="3">
+        <v>193674</v>
+      </c>
       <c r="S45" s="3">
-        <v>193674</v>
-      </c>
-      <c r="T45" s="3">
         <v>201549</v>
       </c>
+      <c r="T45" s="3"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="V45" s="3">
+        <v>9712</v>
+      </c>
       <c r="W45" s="3">
-        <v>9712</v>
-      </c>
-      <c r="X45" s="3">
         <v>9307</v>
       </c>
+      <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="Z45" s="3">
+        <v>7049</v>
+      </c>
       <c r="AA45" s="3">
-        <v>7049</v>
-      </c>
-      <c r="AB45" s="3">
         <v>6723</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3650,39 +3588,38 @@
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3">
+        <v>4767</v>
+      </c>
       <c r="O46" s="3">
-        <v>4767</v>
-      </c>
-      <c r="P46" s="3">
         <v>4083</v>
       </c>
+      <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="R46" s="3">
+        <v>1134769</v>
+      </c>
       <c r="S46" s="3">
-        <v>1134769</v>
-      </c>
-      <c r="T46" s="3">
         <v>1127762</v>
       </c>
+      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
+      <c r="V46" s="3">
+        <v>52554</v>
+      </c>
       <c r="W46" s="3">
-        <v>52554</v>
-      </c>
-      <c r="X46" s="3">
         <v>52222</v>
       </c>
+      <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
+      <c r="Z46" s="3">
+        <v>39019</v>
+      </c>
       <c r="AA46" s="3">
-        <v>39019</v>
-      </c>
-      <c r="AB46" s="3">
         <v>34848</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3711,39 +3648,38 @@
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="N47" s="3">
+        <v>3338</v>
+      </c>
       <c r="O47" s="3">
-        <v>3338</v>
-      </c>
-      <c r="P47" s="3">
         <v>2768</v>
       </c>
+      <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="R47" s="3">
+        <v>839159</v>
+      </c>
       <c r="S47" s="3">
-        <v>839159</v>
-      </c>
-      <c r="T47" s="3">
         <v>869655</v>
       </c>
+      <c r="T47" s="3"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="V47" s="3">
+        <v>45952</v>
+      </c>
       <c r="W47" s="3">
-        <v>45952</v>
-      </c>
-      <c r="X47" s="3">
         <v>43998</v>
       </c>
+      <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
+      <c r="Z47" s="3">
+        <v>29990</v>
+      </c>
       <c r="AA47" s="3">
-        <v>29990</v>
-      </c>
-      <c r="AB47" s="3">
         <v>28742</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3772,39 +3708,38 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="3">
+        <v>4789</v>
+      </c>
       <c r="O48" s="3">
-        <v>4789</v>
-      </c>
-      <c r="P48" s="3">
         <v>4095</v>
       </c>
+      <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="R48" s="3">
+        <v>1605091</v>
+      </c>
       <c r="S48" s="3">
-        <v>1605091</v>
-      </c>
-      <c r="T48" s="3">
         <v>1735219</v>
       </c>
+      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
+      <c r="V48" s="3">
+        <v>94626</v>
+      </c>
       <c r="W48" s="3">
-        <v>94626</v>
-      </c>
-      <c r="X48" s="3">
         <v>90199</v>
       </c>
+      <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+      <c r="Z48" s="3">
+        <v>76879</v>
+      </c>
       <c r="AA48" s="3">
-        <v>76879</v>
-      </c>
-      <c r="AB48" s="3">
         <v>72039</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3833,39 +3768,38 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="N49" s="3">
+        <v>5272</v>
+      </c>
       <c r="O49" s="3">
-        <v>5272</v>
-      </c>
-      <c r="P49" s="3">
         <v>4396</v>
       </c>
+      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="R49" s="3">
+        <v>1541797</v>
+      </c>
       <c r="S49" s="3">
-        <v>1541797</v>
-      </c>
-      <c r="T49" s="3">
         <v>1534060</v>
       </c>
+      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
+      <c r="V49" s="3">
+        <v>60589</v>
+      </c>
       <c r="W49" s="3">
-        <v>60589</v>
-      </c>
-      <c r="X49" s="3">
         <v>57266</v>
       </c>
+      <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
+      <c r="Z49" s="3">
+        <v>36396</v>
+      </c>
       <c r="AA49" s="3">
-        <v>36396</v>
-      </c>
-      <c r="AB49" s="3">
         <v>33947</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3894,39 +3828,38 @@
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="3">
+        <v>1990</v>
+      </c>
       <c r="O50" s="3">
-        <v>1990</v>
-      </c>
-      <c r="P50" s="3">
         <v>1619</v>
       </c>
+      <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="3">
+        <v>618495</v>
+      </c>
       <c r="S50" s="3">
-        <v>618495</v>
-      </c>
-      <c r="T50" s="3">
         <v>654858</v>
       </c>
+      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="V50" s="3">
+        <v>27199</v>
+      </c>
       <c r="W50" s="3">
-        <v>27199</v>
-      </c>
-      <c r="X50" s="3">
         <v>25362</v>
       </c>
+      <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+      <c r="Z50" s="3">
+        <v>17052</v>
+      </c>
       <c r="AA50" s="3">
-        <v>17052</v>
-      </c>
-      <c r="AB50" s="3">
         <v>15215</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3955,39 +3888,38 @@
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="3">
+        <v>3139</v>
+      </c>
       <c r="O51" s="3">
-        <v>3139</v>
-      </c>
-      <c r="P51" s="3">
         <v>2614</v>
       </c>
+      <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="R51" s="3">
+        <v>1163446</v>
+      </c>
       <c r="S51" s="3">
-        <v>1163446</v>
-      </c>
-      <c r="T51" s="3">
         <v>1178699</v>
       </c>
+      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
+      <c r="V51" s="3">
+        <v>52403</v>
+      </c>
       <c r="W51" s="3">
-        <v>52403</v>
-      </c>
-      <c r="X51" s="3">
         <v>50031</v>
       </c>
+      <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+      <c r="Z51" s="3">
+        <v>35693</v>
+      </c>
       <c r="AA51" s="3">
-        <v>35693</v>
-      </c>
-      <c r="AB51" s="3">
         <v>33173</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -4016,39 +3948,38 @@
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="N52" s="3">
+        <v>5709</v>
+      </c>
       <c r="O52" s="3">
-        <v>5709</v>
-      </c>
-      <c r="P52" s="3">
         <v>4804</v>
       </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
+      <c r="R52" s="3">
+        <v>1662734</v>
+      </c>
       <c r="S52" s="3">
-        <v>1662734</v>
-      </c>
-      <c r="T52" s="3">
         <v>1699749</v>
       </c>
+      <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
+      <c r="V52" s="3">
+        <v>93113</v>
+      </c>
       <c r="W52" s="3">
-        <v>93113</v>
-      </c>
-      <c r="X52" s="3">
         <v>88866</v>
       </c>
+      <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
+      <c r="Z52" s="3">
+        <v>64793</v>
+      </c>
       <c r="AA52" s="3">
-        <v>64793</v>
-      </c>
-      <c r="AB52" s="3">
         <v>62028</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -4077,39 +4008,38 @@
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="3">
+        <v>7381</v>
+      </c>
       <c r="O53" s="3">
-        <v>7381</v>
-      </c>
-      <c r="P53" s="3">
         <v>5853</v>
       </c>
+      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
+      <c r="R53" s="3">
+        <v>427784</v>
+      </c>
       <c r="S53" s="3">
-        <v>427784</v>
-      </c>
-      <c r="T53" s="3">
         <v>430995</v>
       </c>
+      <c r="T53" s="3"/>
       <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
+      <c r="V53" s="3">
+        <v>14541</v>
+      </c>
       <c r="W53" s="3">
-        <v>14541</v>
-      </c>
-      <c r="X53" s="3">
         <v>13364</v>
       </c>
+      <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+      <c r="Z53" s="3">
+        <v>10856</v>
+      </c>
       <c r="AA53" s="3">
-        <v>10856</v>
-      </c>
-      <c r="AB53" s="3">
         <v>9317</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -4138,39 +4068,38 @@
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="N54" s="3">
+        <v>21812</v>
+      </c>
       <c r="O54" s="3">
-        <v>21812</v>
-      </c>
-      <c r="P54" s="3">
         <v>17442</v>
       </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
       <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3">
         <v>0</v>
       </c>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4199,39 +4128,38 @@
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="N55" s="3">
+        <v>8086</v>
+      </c>
       <c r="O55" s="3">
-        <v>8086</v>
-      </c>
-      <c r="P55" s="3">
         <v>6886</v>
       </c>
+      <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
+      <c r="R55" s="3">
+        <v>1324408</v>
+      </c>
       <c r="S55" s="3">
-        <v>1324408</v>
-      </c>
-      <c r="T55" s="3">
         <v>1340625</v>
       </c>
+      <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
+      <c r="V55" s="3">
+        <v>65142</v>
+      </c>
       <c r="W55" s="3">
-        <v>65142</v>
-      </c>
-      <c r="X55" s="3">
         <v>62741</v>
       </c>
+      <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
+      <c r="Z55" s="3">
+        <v>44071</v>
+      </c>
       <c r="AA55" s="3">
-        <v>44071</v>
-      </c>
-      <c r="AB55" s="3">
         <v>42103</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4260,39 +4188,38 @@
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="N56" s="3">
+        <v>3015</v>
+      </c>
       <c r="O56" s="3">
-        <v>3015</v>
-      </c>
-      <c r="P56" s="3">
         <v>2667</v>
       </c>
+      <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
+      <c r="R56" s="3">
+        <v>864633</v>
+      </c>
       <c r="S56" s="3">
-        <v>864633</v>
-      </c>
-      <c r="T56" s="3">
         <v>884739</v>
       </c>
+      <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
+      <c r="V56" s="3">
+        <v>46706</v>
+      </c>
       <c r="W56" s="3">
-        <v>46706</v>
-      </c>
-      <c r="X56" s="3">
         <v>44504</v>
       </c>
+      <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
+      <c r="Z56" s="3">
+        <v>29612</v>
+      </c>
       <c r="AA56" s="3">
-        <v>29612</v>
-      </c>
-      <c r="AB56" s="3">
         <v>28423</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4321,39 +4248,38 @@
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="N57" s="3">
+        <v>1879</v>
+      </c>
       <c r="O57" s="3">
-        <v>1879</v>
-      </c>
-      <c r="P57" s="3">
         <v>1564</v>
       </c>
+      <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
+      <c r="R57" s="3">
+        <v>896876</v>
+      </c>
       <c r="S57" s="3">
-        <v>896876</v>
-      </c>
-      <c r="T57" s="3">
         <v>889799</v>
       </c>
+      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
+      <c r="V57" s="3">
+        <v>43093</v>
+      </c>
       <c r="W57" s="3">
-        <v>43093</v>
-      </c>
-      <c r="X57" s="3">
         <v>41014</v>
       </c>
+      <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
+      <c r="Z57" s="3">
+        <v>30110</v>
+      </c>
       <c r="AA57" s="3">
-        <v>30110</v>
-      </c>
-      <c r="AB57" s="3">
         <v>27835</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4382,39 +4308,38 @@
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="N58" s="3">
+        <v>3544</v>
+      </c>
       <c r="O58" s="3">
-        <v>3544</v>
-      </c>
-      <c r="P58" s="3">
         <v>3915</v>
       </c>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="R58" s="3">
+        <v>773330</v>
+      </c>
       <c r="S58" s="3">
-        <v>773330</v>
-      </c>
-      <c r="T58" s="3">
         <v>737230</v>
       </c>
+      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
+      <c r="V58" s="3">
+        <v>37699</v>
+      </c>
       <c r="W58" s="3">
-        <v>37699</v>
-      </c>
-      <c r="X58" s="3">
         <v>35314</v>
       </c>
+      <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
+      <c r="Z58" s="3">
+        <v>19800</v>
+      </c>
       <c r="AA58" s="3">
-        <v>19800</v>
-      </c>
-      <c r="AB58" s="3">
         <v>17747</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4443,39 +4368,38 @@
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="N59" s="3">
+        <v>749</v>
+      </c>
       <c r="O59" s="3">
-        <v>749</v>
-      </c>
-      <c r="P59" s="3">
         <v>572</v>
       </c>
+      <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4504,39 +4428,38 @@
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="N60" s="3">
+        <v>4975</v>
+      </c>
       <c r="O60" s="3">
-        <v>4975</v>
-      </c>
-      <c r="P60" s="3">
         <v>4472</v>
       </c>
+      <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="R60" s="3">
+        <v>1655500</v>
+      </c>
       <c r="S60" s="3">
-        <v>1655500</v>
-      </c>
-      <c r="T60" s="3">
         <v>1671201</v>
       </c>
+      <c r="T60" s="3"/>
       <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
+      <c r="V60" s="3">
+        <v>81650</v>
+      </c>
       <c r="W60" s="3">
-        <v>81650</v>
-      </c>
-      <c r="X60" s="3">
         <v>78665</v>
       </c>
+      <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
+      <c r="Z60" s="3">
+        <v>54586</v>
+      </c>
       <c r="AA60" s="3">
-        <v>54586</v>
-      </c>
-      <c r="AB60" s="3">
         <v>50474</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4565,39 +4488,38 @@
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="N61" s="3">
+        <v>2656</v>
+      </c>
       <c r="O61" s="3">
-        <v>2656</v>
-      </c>
-      <c r="P61" s="3">
         <v>2436</v>
       </c>
+      <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="3">
+        <v>952345</v>
+      </c>
       <c r="S61" s="3">
-        <v>952345</v>
-      </c>
-      <c r="T61" s="3">
         <v>1144380</v>
       </c>
+      <c r="T61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="V61" s="3">
+        <v>43338</v>
+      </c>
       <c r="W61" s="3">
-        <v>43338</v>
-      </c>
-      <c r="X61" s="3">
         <v>41078</v>
       </c>
+      <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
+      <c r="Z61" s="3">
+        <v>32437</v>
+      </c>
       <c r="AA61" s="3">
-        <v>32437</v>
-      </c>
-      <c r="AB61" s="3">
         <v>29711</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4626,39 +4548,38 @@
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="N62" s="3">
+        <v>3564</v>
+      </c>
       <c r="O62" s="3">
-        <v>3564</v>
-      </c>
-      <c r="P62" s="3">
         <v>3015</v>
       </c>
+      <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="3">
+        <v>829290</v>
+      </c>
       <c r="S62" s="3">
-        <v>829290</v>
-      </c>
-      <c r="T62" s="3">
         <v>844311</v>
       </c>
+      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
+      <c r="V62" s="3">
+        <v>41824</v>
+      </c>
       <c r="W62" s="3">
-        <v>41824</v>
-      </c>
-      <c r="X62" s="3">
         <v>39908</v>
       </c>
+      <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
+      <c r="Z62" s="3">
+        <v>30593</v>
+      </c>
       <c r="AA62" s="3">
-        <v>30593</v>
-      </c>
-      <c r="AB62" s="3">
         <v>27851</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4687,39 +4608,38 @@
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+      <c r="N63" s="3">
+        <v>3670</v>
+      </c>
       <c r="O63" s="3">
-        <v>3670</v>
-      </c>
-      <c r="P63" s="3">
         <v>3000</v>
       </c>
+      <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
+      <c r="R63" s="3">
+        <v>1317583</v>
+      </c>
       <c r="S63" s="3">
-        <v>1317583</v>
-      </c>
-      <c r="T63" s="3">
         <v>1416819</v>
       </c>
+      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
+      <c r="V63" s="3">
+        <v>71049</v>
+      </c>
       <c r="W63" s="3">
-        <v>71049</v>
-      </c>
-      <c r="X63" s="3">
         <v>67891</v>
       </c>
+      <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
+      <c r="Z63" s="3">
+        <v>43475</v>
+      </c>
       <c r="AA63" s="3">
-        <v>43475</v>
-      </c>
-      <c r="AB63" s="3">
         <v>42935</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4748,39 +4668,38 @@
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="N64" s="3">
+        <v>6893</v>
+      </c>
       <c r="O64" s="3">
-        <v>6893</v>
-      </c>
-      <c r="P64" s="3">
         <v>5439</v>
       </c>
+      <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
+      <c r="R64" s="3">
+        <v>1443051</v>
+      </c>
       <c r="S64" s="3">
-        <v>1443051</v>
-      </c>
-      <c r="T64" s="3">
         <v>1358769</v>
       </c>
+      <c r="T64" s="3"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+      <c r="V64" s="3">
+        <v>64492</v>
+      </c>
       <c r="W64" s="3">
-        <v>64492</v>
-      </c>
-      <c r="X64" s="3">
         <v>59977</v>
       </c>
+      <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
+      <c r="Z64" s="3">
+        <v>39591</v>
+      </c>
       <c r="AA64" s="3">
-        <v>39591</v>
-      </c>
-      <c r="AB64" s="3">
         <v>35575</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4809,39 +4728,38 @@
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="N65" s="3">
+        <v>3170</v>
+      </c>
       <c r="O65" s="3">
-        <v>3170</v>
-      </c>
-      <c r="P65" s="3">
         <v>2718</v>
       </c>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
+      <c r="R65" s="3">
+        <v>1366400</v>
+      </c>
       <c r="S65" s="3">
-        <v>1366400</v>
-      </c>
-      <c r="T65" s="3">
         <v>1272873</v>
       </c>
+      <c r="T65" s="3"/>
       <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
+      <c r="V65" s="3">
+        <v>58747</v>
+      </c>
       <c r="W65" s="3">
-        <v>58747</v>
-      </c>
-      <c r="X65" s="3">
         <v>54298</v>
       </c>
+      <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
+      <c r="Z65" s="3">
+        <v>34378</v>
+      </c>
       <c r="AA65" s="3">
-        <v>34378</v>
-      </c>
-      <c r="AB65" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4870,39 +4788,38 @@
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="N66" s="3">
+        <v>1490</v>
+      </c>
       <c r="O66" s="3">
-        <v>1490</v>
-      </c>
-      <c r="P66" s="3">
         <v>1269</v>
       </c>
+      <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
       <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3">
         <v>0</v>
       </c>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-      <c r="AB66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4931,39 +4848,38 @@
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="N67" s="3">
+        <v>6483</v>
+      </c>
       <c r="O67" s="3">
-        <v>6483</v>
-      </c>
-      <c r="P67" s="3">
         <v>4875</v>
       </c>
+      <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
       <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="T67" s="3">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3">
         <v>0</v>
       </c>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
       <c r="W67" s="3">
         <v>0</v>
       </c>
-      <c r="X67" s="3">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
         <v>0</v>
       </c>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
       <c r="AA67" s="3">
         <v>0</v>
       </c>
-      <c r="AB67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4992,39 +4908,38 @@
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="N68" s="3">
+        <v>2990</v>
+      </c>
       <c r="O68" s="3">
-        <v>2990</v>
-      </c>
-      <c r="P68" s="3">
         <v>2582</v>
       </c>
+      <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
+      <c r="R68" s="3">
+        <v>1274210</v>
+      </c>
       <c r="S68" s="3">
-        <v>1274210</v>
-      </c>
-      <c r="T68" s="3">
         <v>1257224</v>
       </c>
+      <c r="T68" s="3"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
+      <c r="V68" s="3">
+        <v>52811</v>
+      </c>
       <c r="W68" s="3">
-        <v>52811</v>
-      </c>
-      <c r="X68" s="3">
         <v>49395</v>
       </c>
+      <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
+      <c r="Z68" s="3">
+        <v>31201</v>
+      </c>
       <c r="AA68" s="3">
-        <v>31201</v>
-      </c>
-      <c r="AB68" s="3">
         <v>28458</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5053,39 +4968,38 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="N69" s="3">
+        <v>4169</v>
+      </c>
       <c r="O69" s="3">
-        <v>4169</v>
-      </c>
-      <c r="P69" s="3">
         <v>3359</v>
       </c>
+      <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
+      <c r="R69" s="3">
+        <v>536618</v>
+      </c>
       <c r="S69" s="3">
-        <v>536618</v>
-      </c>
-      <c r="T69" s="3">
         <v>594767</v>
       </c>
+      <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
+      <c r="V69" s="3">
+        <v>20262</v>
+      </c>
       <c r="W69" s="3">
-        <v>20262</v>
-      </c>
-      <c r="X69" s="3">
         <v>19170</v>
       </c>
+      <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
+      <c r="Z69" s="3">
+        <v>14443</v>
+      </c>
       <c r="AA69" s="3">
-        <v>14443</v>
-      </c>
-      <c r="AB69" s="3">
         <v>14380</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -5114,39 +5028,38 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="N70" s="3">
+        <v>180337</v>
+      </c>
       <c r="O70" s="3">
-        <v>180337</v>
-      </c>
-      <c r="P70" s="3">
         <v>119609</v>
       </c>
+      <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
+      <c r="R70" s="3">
+        <v>30003645</v>
+      </c>
       <c r="S70" s="3">
-        <v>30003645</v>
-      </c>
-      <c r="T70" s="3">
         <v>36804977</v>
       </c>
+      <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
+      <c r="V70" s="3">
+        <v>1732614</v>
+      </c>
       <c r="W70" s="3">
-        <v>1732614</v>
-      </c>
-      <c r="X70" s="3">
         <v>1649975</v>
       </c>
+      <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
+      <c r="Z70" s="3">
+        <v>1160494</v>
+      </c>
       <c r="AA70" s="3">
-        <v>1160494</v>
-      </c>
-      <c r="AB70" s="3">
         <v>1088770</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -5175,39 +5088,38 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+      <c r="N71" s="3">
+        <v>7367</v>
+      </c>
       <c r="O71" s="3">
-        <v>7367</v>
-      </c>
-      <c r="P71" s="3">
         <v>5793</v>
       </c>
+      <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
+      <c r="R71" s="3">
+        <v>1425597</v>
+      </c>
       <c r="S71" s="3">
-        <v>1425597</v>
-      </c>
-      <c r="T71" s="3">
         <v>1368021</v>
       </c>
+      <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
+      <c r="V71" s="3">
+        <v>77238</v>
+      </c>
       <c r="W71" s="3">
-        <v>77238</v>
-      </c>
-      <c r="X71" s="3">
         <v>73193</v>
       </c>
+      <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
+      <c r="Z71" s="3">
+        <v>49425</v>
+      </c>
       <c r="AA71" s="3">
-        <v>49425</v>
-      </c>
-      <c r="AB71" s="3">
         <v>45821</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -5236,39 +5148,38 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="3">
+        <v>263530</v>
+      </c>
       <c r="O72" s="3">
-        <v>263530</v>
-      </c>
-      <c r="P72" s="3">
         <v>219811</v>
       </c>
+      <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
+      <c r="R72" s="3">
+        <v>55758090</v>
+      </c>
       <c r="S72" s="3">
-        <v>55758090</v>
-      </c>
-      <c r="T72" s="3">
         <v>50826873</v>
       </c>
+      <c r="T72" s="3"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
+      <c r="V72" s="3">
+        <v>2519570</v>
+      </c>
       <c r="W72" s="3">
-        <v>2519570</v>
-      </c>
-      <c r="X72" s="3">
         <v>2893579</v>
       </c>
+      <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
+      <c r="Z72" s="3">
+        <v>1640113</v>
+      </c>
       <c r="AA72" s="3">
-        <v>1640113</v>
-      </c>
-      <c r="AB72" s="3">
         <v>1038351</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -5297,39 +5208,38 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="N73" s="3">
+        <v>774</v>
+      </c>
       <c r="O73" s="3">
-        <v>774</v>
-      </c>
-      <c r="P73" s="3">
         <v>606</v>
       </c>
+      <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
+      <c r="R73" s="3">
+        <v>371334</v>
+      </c>
       <c r="S73" s="3">
-        <v>371334</v>
-      </c>
-      <c r="T73" s="3">
         <v>306748</v>
       </c>
+      <c r="T73" s="3"/>
       <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
+      <c r="V73" s="3">
+        <v>9157</v>
+      </c>
       <c r="W73" s="3">
-        <v>9157</v>
-      </c>
-      <c r="X73" s="3">
         <v>8027</v>
       </c>
+      <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
+      <c r="Z73" s="3">
+        <v>7089</v>
+      </c>
       <c r="AA73" s="3">
-        <v>7089</v>
-      </c>
-      <c r="AB73" s="3">
         <v>5689</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -5358,39 +5268,38 @@
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="N74" s="3">
+        <v>3238</v>
+      </c>
       <c r="O74" s="3">
-        <v>3238</v>
-      </c>
-      <c r="P74" s="3">
         <v>2421</v>
       </c>
+      <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
       <c r="S74" s="3">
         <v>0</v>
       </c>
-      <c r="T74" s="3">
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3">
         <v>0</v>
       </c>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
       <c r="W74" s="3">
         <v>0</v>
       </c>
-      <c r="X74" s="3">
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3">
         <v>0</v>
       </c>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-      <c r="AB74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -5419,39 +5328,38 @@
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="N75" s="3">
+        <v>542</v>
+      </c>
       <c r="O75" s="3">
-        <v>542</v>
-      </c>
-      <c r="P75" s="3">
         <v>347</v>
       </c>
+      <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
+      <c r="R75" s="3">
+        <v>61983</v>
+      </c>
       <c r="S75" s="3">
-        <v>61983</v>
-      </c>
-      <c r="T75" s="3">
         <v>58996</v>
       </c>
+      <c r="T75" s="3"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
+      <c r="V75" s="3">
+        <v>1656</v>
+      </c>
       <c r="W75" s="3">
-        <v>1656</v>
-      </c>
-      <c r="X75" s="3">
         <v>1784</v>
       </c>
+      <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
+      <c r="Z75" s="3">
+        <v>1199</v>
+      </c>
       <c r="AA75" s="3">
-        <v>1199</v>
-      </c>
-      <c r="AB75" s="3">
         <v>1146</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -5480,39 +5388,38 @@
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+      <c r="N76" s="3">
+        <v>688</v>
+      </c>
       <c r="O76" s="3">
-        <v>688</v>
-      </c>
-      <c r="P76" s="3">
         <v>552</v>
       </c>
+      <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
+      <c r="R76" s="3">
+        <v>319844</v>
+      </c>
       <c r="S76" s="3">
-        <v>319844</v>
-      </c>
-      <c r="T76" s="3">
         <v>296786</v>
       </c>
+      <c r="T76" s="3"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
+      <c r="V76" s="3">
+        <v>7014</v>
+      </c>
       <c r="W76" s="3">
-        <v>7014</v>
-      </c>
-      <c r="X76" s="3">
         <v>6179</v>
       </c>
+      <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
+      <c r="Z76" s="3">
+        <v>6659</v>
+      </c>
       <c r="AA76" s="3">
-        <v>6659</v>
-      </c>
-      <c r="AB76" s="3">
         <v>5525</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -5541,39 +5448,38 @@
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
+      <c r="N77" s="3">
+        <v>881</v>
+      </c>
       <c r="O77" s="3">
-        <v>881</v>
-      </c>
-      <c r="P77" s="3">
         <v>655</v>
       </c>
+      <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
+      <c r="R77" s="3">
+        <v>521956</v>
+      </c>
       <c r="S77" s="3">
-        <v>521956</v>
-      </c>
-      <c r="T77" s="3">
         <v>468224</v>
       </c>
+      <c r="T77" s="3"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
+      <c r="V77" s="3">
+        <v>10758</v>
+      </c>
       <c r="W77" s="3">
-        <v>10758</v>
-      </c>
-      <c r="X77" s="3">
         <v>9348</v>
       </c>
+      <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
+      <c r="Z77" s="3">
+        <v>7611</v>
+      </c>
       <c r="AA77" s="3">
-        <v>7611</v>
-      </c>
-      <c r="AB77" s="3">
         <v>6315</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -5602,39 +5508,38 @@
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="N78" s="3">
+        <v>239</v>
+      </c>
       <c r="O78" s="3">
-        <v>239</v>
-      </c>
-      <c r="P78" s="3">
         <v>216</v>
       </c>
+      <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
+      <c r="R78" s="3">
+        <v>158265</v>
+      </c>
       <c r="S78" s="3">
-        <v>158265</v>
-      </c>
-      <c r="T78" s="3">
         <v>150241</v>
       </c>
+      <c r="T78" s="3"/>
       <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
+      <c r="V78" s="3">
+        <v>6765</v>
+      </c>
       <c r="W78" s="3">
-        <v>6765</v>
-      </c>
-      <c r="X78" s="3">
         <v>6249</v>
       </c>
+      <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
+      <c r="Z78" s="3">
+        <v>4682</v>
+      </c>
       <c r="AA78" s="3">
-        <v>4682</v>
-      </c>
-      <c r="AB78" s="3">
         <v>3744</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -5663,39 +5568,38 @@
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="N79" s="3">
+        <v>4385</v>
+      </c>
       <c r="O79" s="3">
-        <v>4385</v>
-      </c>
-      <c r="P79" s="3">
         <v>3521</v>
       </c>
+      <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
+      <c r="R79" s="3">
+        <v>1209538</v>
+      </c>
       <c r="S79" s="3">
-        <v>1209538</v>
-      </c>
-      <c r="T79" s="3">
         <v>1184223</v>
       </c>
+      <c r="T79" s="3"/>
       <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
+      <c r="V79" s="3">
+        <v>64842</v>
+      </c>
       <c r="W79" s="3">
-        <v>64842</v>
-      </c>
-      <c r="X79" s="3">
         <v>64188</v>
       </c>
+      <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
+      <c r="Z79" s="3">
+        <v>41100</v>
+      </c>
       <c r="AA79" s="3">
-        <v>41100</v>
-      </c>
-      <c r="AB79" s="3">
         <v>38366</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5724,39 +5628,38 @@
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+      <c r="N80" s="3">
+        <v>480</v>
+      </c>
       <c r="O80" s="3">
-        <v>480</v>
-      </c>
-      <c r="P80" s="3">
         <v>411</v>
       </c>
+      <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
+      <c r="R80" s="3">
+        <v>551290</v>
+      </c>
       <c r="S80" s="3">
-        <v>551290</v>
-      </c>
-      <c r="T80" s="3">
         <v>473354</v>
       </c>
+      <c r="T80" s="3"/>
       <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
+      <c r="V80" s="3">
+        <v>14193</v>
+      </c>
       <c r="W80" s="3">
-        <v>14193</v>
-      </c>
-      <c r="X80" s="3">
         <v>12845</v>
       </c>
+      <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
+      <c r="Z80" s="3">
+        <v>8459</v>
+      </c>
       <c r="AA80" s="3">
-        <v>8459</v>
-      </c>
-      <c r="AB80" s="3">
         <v>7706</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5785,39 +5688,38 @@
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+      <c r="N81" s="3">
+        <v>1105</v>
+      </c>
       <c r="O81" s="3">
-        <v>1105</v>
-      </c>
-      <c r="P81" s="3">
         <v>932</v>
       </c>
+      <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
+      <c r="R81" s="3">
+        <v>571937</v>
+      </c>
       <c r="S81" s="3">
-        <v>571937</v>
-      </c>
-      <c r="T81" s="3">
         <v>559774</v>
       </c>
+      <c r="T81" s="3"/>
       <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
+      <c r="V81" s="3">
+        <v>33783</v>
+      </c>
       <c r="W81" s="3">
-        <v>33783</v>
-      </c>
-      <c r="X81" s="3">
         <v>31612</v>
       </c>
+      <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
+      <c r="Z81" s="3">
+        <v>23954</v>
+      </c>
       <c r="AA81" s="3">
-        <v>23954</v>
-      </c>
-      <c r="AB81" s="3">
         <v>22914</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -5846,39 +5748,38 @@
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="N82" s="3">
+        <v>2882</v>
+      </c>
       <c r="O82" s="3">
-        <v>2882</v>
-      </c>
-      <c r="P82" s="3">
         <v>2430</v>
       </c>
+      <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
+      <c r="R82" s="3">
+        <v>500446</v>
+      </c>
       <c r="S82" s="3">
-        <v>500446</v>
-      </c>
-      <c r="T82" s="3">
         <v>447188</v>
       </c>
+      <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
+      <c r="V82" s="3">
+        <v>20304</v>
+      </c>
       <c r="W82" s="3">
-        <v>20304</v>
-      </c>
-      <c r="X82" s="3">
         <v>18803</v>
       </c>
+      <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
+      <c r="Z82" s="3">
+        <v>12141</v>
+      </c>
       <c r="AA82" s="3">
-        <v>12141</v>
-      </c>
-      <c r="AB82" s="3">
         <v>10965</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -5907,39 +5808,38 @@
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+      <c r="N83" s="3">
+        <v>2764</v>
+      </c>
       <c r="O83" s="3">
-        <v>2764</v>
-      </c>
-      <c r="P83" s="3">
         <v>2615</v>
       </c>
+      <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
+      <c r="R83" s="3">
+        <v>455740</v>
+      </c>
       <c r="S83" s="3">
-        <v>455740</v>
-      </c>
-      <c r="T83" s="3">
         <v>396579</v>
       </c>
+      <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
+      <c r="V83" s="3">
+        <v>17961</v>
+      </c>
       <c r="W83" s="3">
-        <v>17961</v>
-      </c>
-      <c r="X83" s="3">
         <v>16446</v>
       </c>
+      <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
+      <c r="Z83" s="3">
+        <v>9890</v>
+      </c>
       <c r="AA83" s="3">
-        <v>9890</v>
-      </c>
-      <c r="AB83" s="3">
         <v>8623</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -5968,39 +5868,38 @@
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
+      <c r="N84" s="3">
+        <v>821</v>
+      </c>
       <c r="O84" s="3">
-        <v>821</v>
-      </c>
-      <c r="P84" s="3">
         <v>554</v>
       </c>
+      <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
+      <c r="R84" s="3">
+        <v>34671</v>
+      </c>
       <c r="S84" s="3">
-        <v>34671</v>
-      </c>
-      <c r="T84" s="3">
         <v>26570</v>
       </c>
+      <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
+      <c r="V84" s="3">
+        <v>1207</v>
+      </c>
       <c r="W84" s="3">
-        <v>1207</v>
-      </c>
-      <c r="X84" s="3">
         <v>1115</v>
       </c>
+      <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
+      <c r="Z84" s="3">
+        <v>771</v>
+      </c>
       <c r="AA84" s="3">
-        <v>771</v>
-      </c>
-      <c r="AB84" s="3">
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6029,39 +5928,38 @@
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
+      <c r="N85" s="3">
+        <v>1341</v>
+      </c>
       <c r="O85" s="3">
-        <v>1341</v>
-      </c>
-      <c r="P85" s="3">
         <v>1077</v>
       </c>
+      <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
+      <c r="R85" s="3">
+        <v>420550</v>
+      </c>
       <c r="S85" s="3">
-        <v>420550</v>
-      </c>
-      <c r="T85" s="3">
         <v>372101</v>
       </c>
+      <c r="T85" s="3"/>
       <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
+      <c r="V85" s="3">
+        <v>15803</v>
+      </c>
       <c r="W85" s="3">
-        <v>15803</v>
-      </c>
-      <c r="X85" s="3">
         <v>14071</v>
       </c>
+      <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
+      <c r="Z85" s="3">
+        <v>10045</v>
+      </c>
       <c r="AA85" s="3">
-        <v>10045</v>
-      </c>
-      <c r="AB85" s="3">
         <v>9183</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6090,39 +5988,38 @@
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
+      <c r="N86" s="3">
+        <v>20140</v>
+      </c>
       <c r="O86" s="3">
-        <v>20140</v>
-      </c>
-      <c r="P86" s="3">
         <v>16337</v>
       </c>
+      <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
+      <c r="R86" s="3">
+        <v>5177560</v>
+      </c>
       <c r="S86" s="3">
-        <v>5177560</v>
-      </c>
-      <c r="T86" s="3">
         <v>4740184</v>
       </c>
+      <c r="T86" s="3"/>
       <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
+      <c r="V86" s="3">
+        <v>203443</v>
+      </c>
       <c r="W86" s="3">
-        <v>203443</v>
-      </c>
-      <c r="X86" s="3">
         <v>190667</v>
       </c>
+      <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
+      <c r="Z86" s="3">
+        <v>133600</v>
+      </c>
       <c r="AA86" s="3">
-        <v>133600</v>
-      </c>
-      <c r="AB86" s="3">
         <v>120783</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6151,39 +6048,38 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+      <c r="N87" s="3">
+        <v>898</v>
+      </c>
       <c r="O87" s="3">
-        <v>898</v>
-      </c>
-      <c r="P87" s="3">
         <v>682</v>
       </c>
+      <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
+      <c r="R87" s="3">
+        <v>72392</v>
+      </c>
       <c r="S87" s="3">
-        <v>72392</v>
-      </c>
-      <c r="T87" s="3">
         <v>58404</v>
       </c>
+      <c r="T87" s="3"/>
       <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
+      <c r="V87" s="3">
+        <v>3036</v>
+      </c>
       <c r="W87" s="3">
-        <v>3036</v>
-      </c>
-      <c r="X87" s="3">
         <v>3092</v>
       </c>
+      <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
+      <c r="Z87" s="3">
+        <v>1871</v>
+      </c>
       <c r="AA87" s="3">
-        <v>1871</v>
-      </c>
-      <c r="AB87" s="3">
         <v>1775</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6212,39 +6108,38 @@
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="N88" s="3">
+        <v>2529</v>
+      </c>
       <c r="O88" s="3">
-        <v>2529</v>
-      </c>
-      <c r="P88" s="3">
         <v>1996</v>
       </c>
+      <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
+      <c r="R88" s="3">
+        <v>422558</v>
+      </c>
       <c r="S88" s="3">
-        <v>422558</v>
-      </c>
-      <c r="T88" s="3">
         <v>374260</v>
       </c>
+      <c r="T88" s="3"/>
       <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
+      <c r="V88" s="3">
+        <v>24517</v>
+      </c>
       <c r="W88" s="3">
-        <v>24517</v>
-      </c>
-      <c r="X88" s="3">
         <v>23480</v>
       </c>
+      <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
+      <c r="Z88" s="3">
+        <v>15785</v>
+      </c>
       <c r="AA88" s="3">
-        <v>15785</v>
-      </c>
-      <c r="AB88" s="3">
         <v>14066</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -6273,39 +6168,38 @@
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
+      <c r="N89" s="3">
+        <v>1497</v>
+      </c>
       <c r="O89" s="3">
-        <v>1497</v>
-      </c>
-      <c r="P89" s="3">
         <v>1176</v>
       </c>
+      <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
+      <c r="R89" s="3">
+        <v>383686</v>
+      </c>
       <c r="S89" s="3">
-        <v>383686</v>
-      </c>
-      <c r="T89" s="3">
         <v>360007</v>
       </c>
+      <c r="T89" s="3"/>
       <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
+      <c r="V89" s="3">
+        <v>15781</v>
+      </c>
       <c r="W89" s="3">
-        <v>15781</v>
-      </c>
-      <c r="X89" s="3">
         <v>14920</v>
       </c>
+      <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
+      <c r="Z89" s="3">
+        <v>9996</v>
+      </c>
       <c r="AA89" s="3">
-        <v>9996</v>
-      </c>
-      <c r="AB89" s="3">
         <v>9384</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -6334,39 +6228,38 @@
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
+      <c r="N90" s="3">
+        <v>1763</v>
+      </c>
       <c r="O90" s="3">
-        <v>1763</v>
-      </c>
-      <c r="P90" s="3">
         <v>1527</v>
       </c>
+      <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
+      <c r="R90" s="3">
+        <v>286891</v>
+      </c>
       <c r="S90" s="3">
-        <v>286891</v>
-      </c>
-      <c r="T90" s="3">
         <v>248897</v>
       </c>
+      <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
+      <c r="V90" s="3">
+        <v>12708</v>
+      </c>
       <c r="W90" s="3">
-        <v>12708</v>
-      </c>
-      <c r="X90" s="3">
         <v>11683</v>
       </c>
+      <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
+      <c r="Z90" s="3">
+        <v>9239</v>
+      </c>
       <c r="AA90" s="3">
-        <v>9239</v>
-      </c>
-      <c r="AB90" s="3">
         <v>8034</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -6395,39 +6288,38 @@
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
+      <c r="N91" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="O91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
       <c r="S91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
       <c r="AA91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -6456,39 +6348,38 @@
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+      <c r="N92" s="3">
+        <v>1560</v>
+      </c>
       <c r="O92" s="3">
-        <v>1560</v>
-      </c>
-      <c r="P92" s="3">
         <v>803</v>
       </c>
+      <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
+      <c r="R92" s="3">
+        <v>213539</v>
+      </c>
       <c r="S92" s="3">
-        <v>213539</v>
-      </c>
-      <c r="T92" s="3">
         <v>130662</v>
       </c>
+      <c r="T92" s="3"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
+      <c r="V92" s="3">
+        <v>4898</v>
+      </c>
       <c r="W92" s="3">
-        <v>4898</v>
-      </c>
-      <c r="X92" s="3">
         <v>4633</v>
       </c>
+      <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
+      <c r="Z92" s="3">
+        <v>2702</v>
+      </c>
       <c r="AA92" s="3">
-        <v>2702</v>
-      </c>
-      <c r="AB92" s="3">
         <v>2315</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -6517,39 +6408,38 @@
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="N93" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="O93" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P93" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
+      <c r="R93" s="3">
+        <v>5094</v>
+      </c>
       <c r="S93" s="3">
-        <v>5094</v>
-      </c>
-      <c r="T93" s="3">
         <v>2676</v>
       </c>
+      <c r="T93" s="3"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
+      <c r="V93" s="3">
+        <v>84</v>
+      </c>
       <c r="W93" s="3">
-        <v>84</v>
-      </c>
-      <c r="X93" s="3">
         <v>99</v>
       </c>
+      <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
+      <c r="Z93" s="3">
+        <v>95</v>
+      </c>
       <c r="AA93" s="3">
-        <v>95</v>
-      </c>
-      <c r="AB93" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -6578,39 +6468,38 @@
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="N94" s="3">
+        <v>2518</v>
+      </c>
       <c r="O94" s="3">
-        <v>2518</v>
-      </c>
-      <c r="P94" s="3">
         <v>2141</v>
       </c>
+      <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="R94" s="3">
+        <v>885578</v>
+      </c>
+      <c r="S94" s="3">
         <v>882677</v>
       </c>
+      <c r="T94" s="3"/>
       <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
+      <c r="V94" s="3">
+        <v>52078</v>
+      </c>
       <c r="W94" s="3">
-        <v>52078</v>
-      </c>
-      <c r="X94" s="3">
         <v>49784</v>
       </c>
+      <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
+      <c r="Z94" s="3">
+        <v>39360</v>
+      </c>
       <c r="AA94" s="3">
-        <v>39360</v>
-      </c>
-      <c r="AB94" s="3">
         <v>36747</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -6639,39 +6528,38 @@
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
+      <c r="N95" s="3">
+        <v>3546</v>
+      </c>
       <c r="O95" s="3">
-        <v>3546</v>
-      </c>
-      <c r="P95" s="3">
         <v>3425</v>
       </c>
+      <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
+      <c r="R95" s="3">
+        <v>1645632</v>
+      </c>
       <c r="S95" s="3">
-        <v>1645632</v>
-      </c>
-      <c r="T95" s="3">
         <v>1605146</v>
       </c>
+      <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
+      <c r="V95" s="3">
+        <v>97495</v>
+      </c>
       <c r="W95" s="3">
-        <v>97495</v>
-      </c>
-      <c r="X95" s="3">
         <v>96572</v>
       </c>
+      <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
+      <c r="Z95" s="3">
+        <v>60574</v>
+      </c>
       <c r="AA95" s="3">
-        <v>60574</v>
-      </c>
-      <c r="AB95" s="3">
         <v>56281</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -6700,35 +6588,34 @@
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
+      <c r="N96" s="3">
+        <v>376</v>
+      </c>
       <c r="O96" s="3">
-        <v>376</v>
-      </c>
-      <c r="P96" s="3">
         <v>287</v>
       </c>
+      <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
+      <c r="R96" s="3">
+        <v>134866</v>
+      </c>
       <c r="S96" s="3">
-        <v>134866</v>
-      </c>
-      <c r="T96" s="3">
         <v>125108</v>
       </c>
+      <c r="T96" s="3"/>
       <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
+      <c r="V96" s="3">
+        <v>5349</v>
+      </c>
       <c r="W96" s="3">
-        <v>5349</v>
-      </c>
-      <c r="X96" s="3">
         <v>5082</v>
       </c>
+      <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
+      <c r="Z96" s="3">
+        <v>3812</v>
+      </c>
       <c r="AA96" s="3">
-        <v>3812</v>
-      </c>
-      <c r="AB96" s="3">
         <v>3545</v>
       </c>
     </row>
@@ -6761,35 +6648,34 @@
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
+      <c r="N97" s="3">
+        <v>14687</v>
+      </c>
       <c r="O97" s="3">
-        <v>14687</v>
-      </c>
-      <c r="P97" s="3">
         <v>12037</v>
       </c>
+      <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
+      <c r="R97" s="3">
+        <v>4950236</v>
+      </c>
       <c r="S97" s="3">
-        <v>4950236</v>
-      </c>
-      <c r="T97" s="3">
         <v>3787837</v>
       </c>
+      <c r="T97" s="3"/>
       <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
+      <c r="V97" s="3">
+        <v>215944</v>
+      </c>
       <c r="W97" s="3">
-        <v>215944</v>
-      </c>
-      <c r="X97" s="3">
         <v>209345</v>
       </c>
+      <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
+      <c r="Z97" s="3">
+        <v>143434</v>
+      </c>
       <c r="AA97" s="3">
-        <v>143434</v>
-      </c>
-      <c r="AB97" s="3">
         <v>132193</v>
       </c>
     </row>
@@ -6822,35 +6708,34 @@
       </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
+      <c r="N98" s="3">
+        <v>3246</v>
+      </c>
       <c r="O98" s="3">
-        <v>3246</v>
-      </c>
-      <c r="P98" s="3">
         <v>3023</v>
       </c>
+      <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
+      <c r="R98" s="3">
+        <v>553467</v>
+      </c>
       <c r="S98" s="3">
-        <v>553467</v>
-      </c>
-      <c r="T98" s="3">
         <v>511479</v>
       </c>
+      <c r="T98" s="3"/>
       <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
+      <c r="V98" s="3">
+        <v>19425</v>
+      </c>
       <c r="W98" s="3">
-        <v>19425</v>
-      </c>
-      <c r="X98" s="3">
         <v>18318</v>
       </c>
+      <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
+      <c r="Z98" s="3">
+        <v>9921</v>
+      </c>
       <c r="AA98" s="3">
-        <v>9921</v>
-      </c>
-      <c r="AB98" s="3">
         <v>9972</v>
       </c>
     </row>
@@ -6883,35 +6768,34 @@
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+      <c r="N99" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="O99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P99" s="3" t="s">
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
       <c r="S99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T99" s="3" t="s">
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X99" s="3" t="s">
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
       <c r="AA99" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB99" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6944,35 +6828,34 @@
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
+      <c r="N100" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="O100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>396244</v>
+      </c>
+      <c r="S100" s="3">
+        <v>341740</v>
+      </c>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3">
-        <v>396244</v>
-      </c>
-      <c r="T100" s="3">
-        <v>341740</v>
-      </c>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X100" s="3" t="s">
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
       <c r="AA100" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB100" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7005,35 +6888,34 @@
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+      <c r="N101" s="3">
+        <v>1416</v>
+      </c>
       <c r="O101" s="3">
-        <v>1416</v>
-      </c>
-      <c r="P101" s="3">
         <v>1241</v>
       </c>
+      <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
+      <c r="R101" s="3">
+        <v>459080</v>
+      </c>
       <c r="S101" s="3">
-        <v>459080</v>
-      </c>
-      <c r="T101" s="3">
         <v>380521</v>
       </c>
+      <c r="T101" s="3"/>
       <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
+      <c r="V101" s="3">
+        <v>9932</v>
+      </c>
       <c r="W101" s="3">
-        <v>9932</v>
-      </c>
-      <c r="X101" s="3">
         <v>8442</v>
       </c>
+      <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
+      <c r="Z101" s="3">
+        <v>6247</v>
+      </c>
       <c r="AA101" s="3">
-        <v>6247</v>
-      </c>
-      <c r="AB101" s="3">
         <v>5108</v>
       </c>
     </row>
@@ -7066,35 +6948,34 @@
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>1204</v>
+      </c>
       <c r="O102" s="3">
-        <v>1204</v>
-      </c>
-      <c r="P102" s="3">
         <v>996</v>
       </c>
+      <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
+      <c r="R102" s="3">
+        <v>562830</v>
+      </c>
       <c r="S102" s="3">
-        <v>562830</v>
-      </c>
-      <c r="T102" s="3">
         <v>455863</v>
       </c>
+      <c r="T102" s="3"/>
       <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
+      <c r="V102" s="3">
+        <v>19346</v>
+      </c>
       <c r="W102" s="3">
-        <v>19346</v>
-      </c>
-      <c r="X102" s="3">
         <v>15036</v>
       </c>
+      <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
+      <c r="Z102" s="3">
+        <v>5211785</v>
+      </c>
       <c r="AA102" s="3">
-        <v>5211785</v>
-      </c>
-      <c r="AB102" s="3">
         <v>9847</v>
       </c>
     </row>
@@ -7127,35 +7008,34 @@
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
+      <c r="N103" s="3">
+        <v>2698</v>
+      </c>
       <c r="O103" s="3">
-        <v>2698</v>
-      </c>
-      <c r="P103" s="3">
         <v>2347</v>
       </c>
+      <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
+      <c r="R103" s="3">
+        <v>807018</v>
+      </c>
       <c r="S103" s="3">
-        <v>807018</v>
-      </c>
-      <c r="T103" s="3">
         <v>640288</v>
       </c>
+      <c r="T103" s="3"/>
       <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
+      <c r="V103" s="3">
+        <v>26550</v>
+      </c>
       <c r="W103" s="3">
-        <v>26550</v>
-      </c>
-      <c r="X103" s="3">
         <v>18151</v>
       </c>
+      <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
+      <c r="Z103" s="3">
+        <v>17712</v>
+      </c>
       <c r="AA103" s="3">
-        <v>17712</v>
-      </c>
-      <c r="AB103" s="3">
         <v>13162</v>
       </c>
     </row>
@@ -7180,44 +7060,43 @@
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3" t="s">
-        <v>128</v>
+      <c r="J104" s="3">
+        <v>1130</v>
       </c>
       <c r="K104" s="3">
         <v>965</v>
       </c>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
+      <c r="N104" s="3">
+        <v>847</v>
+      </c>
       <c r="O104" s="3">
-        <v>847</v>
-      </c>
-      <c r="P104" s="3">
         <v>704</v>
       </c>
+      <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
+      <c r="R104" s="3">
+        <v>331817</v>
+      </c>
       <c r="S104" s="3">
-        <v>331817</v>
-      </c>
-      <c r="T104" s="3">
         <v>312856</v>
       </c>
+      <c r="T104" s="3"/>
       <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
+      <c r="V104" s="3">
+        <v>13219</v>
+      </c>
       <c r="W104" s="3">
-        <v>13219</v>
-      </c>
-      <c r="X104" s="3">
         <v>12735</v>
       </c>
+      <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
+      <c r="Z104" s="3">
+        <v>8175</v>
+      </c>
       <c r="AA104" s="3">
-        <v>8175</v>
-      </c>
-      <c r="AB104" s="3" t="s">
-        <v>130</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
@@ -7249,35 +7128,34 @@
       </c>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
+      <c r="N105" s="3">
+        <v>1033</v>
+      </c>
       <c r="O105" s="3">
-        <v>1033</v>
-      </c>
-      <c r="P105" s="3">
         <v>969</v>
       </c>
+      <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
+      <c r="R105" s="3">
+        <v>377298</v>
+      </c>
       <c r="S105" s="3">
-        <v>377298</v>
-      </c>
-      <c r="T105" s="3">
         <v>338593</v>
       </c>
+      <c r="T105" s="3"/>
       <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
+      <c r="V105" s="3">
+        <v>9095</v>
+      </c>
       <c r="W105" s="3">
-        <v>9095</v>
-      </c>
-      <c r="X105" s="3">
         <v>8198</v>
       </c>
+      <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
+      <c r="Z105" s="3">
+        <v>6125</v>
+      </c>
       <c r="AA105" s="3">
-        <v>6125</v>
-      </c>
-      <c r="AB105" s="3">
         <v>5766</v>
       </c>
     </row>
@@ -7310,35 +7188,34 @@
       </c>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
+      <c r="N106" s="3">
+        <v>2679</v>
+      </c>
       <c r="O106" s="3">
-        <v>2679</v>
-      </c>
-      <c r="P106" s="3">
         <v>2892</v>
       </c>
+      <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
+      <c r="R106" s="3">
+        <v>858430</v>
+      </c>
       <c r="S106" s="3">
-        <v>858430</v>
-      </c>
-      <c r="T106" s="3">
         <v>758351</v>
       </c>
+      <c r="T106" s="3"/>
       <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
+      <c r="V106" s="3">
+        <v>28666</v>
+      </c>
       <c r="W106" s="3">
-        <v>28666</v>
-      </c>
-      <c r="X106" s="3">
         <v>26716</v>
       </c>
+      <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
+      <c r="Z106" s="3">
+        <v>13576</v>
+      </c>
       <c r="AA106" s="3">
-        <v>13576</v>
-      </c>
-      <c r="AB106" s="3">
         <v>12349</v>
       </c>
     </row>
@@ -7371,35 +7248,34 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
+      <c r="N107" s="3">
+        <v>18123</v>
+      </c>
       <c r="O107" s="3">
-        <v>18123</v>
-      </c>
-      <c r="P107" s="3">
         <v>12172</v>
       </c>
+      <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
+      <c r="R107" s="3">
+        <v>4340190</v>
+      </c>
       <c r="S107" s="3">
-        <v>4340190</v>
-      </c>
-      <c r="T107" s="3">
         <v>3739691</v>
       </c>
+      <c r="T107" s="3"/>
       <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
+      <c r="V107" s="3">
+        <v>126233</v>
+      </c>
       <c r="W107" s="3">
-        <v>126233</v>
-      </c>
-      <c r="X107" s="3">
         <v>107596</v>
       </c>
+      <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
+      <c r="Z107" s="3">
+        <v>73541</v>
+      </c>
       <c r="AA107" s="3">
-        <v>73541</v>
-      </c>
-      <c r="AB107" s="3">
         <v>64094</v>
       </c>
     </row>
@@ -7432,35 +7308,34 @@
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
+      <c r="N108" s="3">
+        <v>47950</v>
+      </c>
       <c r="O108" s="3">
-        <v>47950</v>
-      </c>
-      <c r="P108" s="3">
         <v>40516</v>
       </c>
+      <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
+      <c r="R108" s="3">
+        <v>13573986</v>
+      </c>
       <c r="S108" s="3">
-        <v>13573986</v>
-      </c>
-      <c r="T108" s="3">
         <v>12267712</v>
       </c>
+      <c r="T108" s="3"/>
       <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
+      <c r="V108" s="3">
+        <v>545629</v>
+      </c>
       <c r="W108" s="3">
-        <v>545629</v>
-      </c>
-      <c r="X108" s="3">
         <v>507608</v>
       </c>
+      <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
+      <c r="Z108" s="3">
+        <v>350575</v>
+      </c>
       <c r="AA108" s="3">
-        <v>350575</v>
-      </c>
-      <c r="AB108" s="3">
         <v>317070</v>
       </c>
     </row>
@@ -7477,8 +7352,8 @@
       <c r="D109" s="2">
         <v>4425599</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>127</v>
+      <c r="F109" s="3">
+        <v>11117343</v>
       </c>
       <c r="G109" s="3">
         <v>10225793</v>
@@ -7493,35 +7368,34 @@
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
+      <c r="N109" s="3">
+        <v>811480</v>
+      </c>
       <c r="O109" s="3">
-        <v>811480</v>
-      </c>
-      <c r="P109" s="3">
         <v>260360</v>
       </c>
+      <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
+      <c r="R109" s="3">
+        <v>69332082</v>
+      </c>
       <c r="S109" s="3">
-        <v>69332082</v>
-      </c>
-      <c r="T109" s="3">
         <v>69094585</v>
       </c>
+      <c r="T109" s="3"/>
       <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
+      <c r="V109" s="3">
+        <v>3065190</v>
+      </c>
       <c r="W109" s="3">
-        <v>3065190</v>
-      </c>
-      <c r="X109" s="3">
         <v>2901187</v>
       </c>
+      <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
+      <c r="Z109" s="3">
+        <v>1990688</v>
+      </c>
       <c r="AA109" s="3">
-        <v>1990688</v>
-      </c>
-      <c r="AB109" s="3">
         <v>1855421</v>
       </c>
     </row>

--- a/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1909.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D459152-0FE6-4EFB-9AE6-F029E276119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1243-893A-4CB7-9275-82162239CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57540" yWindow="15" windowWidth="29115" windowHeight="23100" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
+    <workbookView xWindow="58515" yWindow="915" windowWidth="28830" windowHeight="23010" xr2:uid="{ACC770B4-9B70-4D2E-BEE0-2CAD7D6DD853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,6 +537,9 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,10 +858,10 @@
   <dimension ref="A1:AC467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB90" sqref="AB90"/>
+      <selection pane="bottomRight" activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8470,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>455740</v>
+        <v>455746</v>
       </c>
       <c r="S83" s="3">
         <v>396579</v>
@@ -8480,7 +8489,7 @@
       </c>
       <c r="U83" s="6">
         <f t="shared" si="9"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>17961</v>
@@ -10274,14 +10283,14 @@
         <v>146937</v>
       </c>
       <c r="G103" s="3">
-        <v>115981</v>
+        <v>115931</v>
       </c>
       <c r="H103" s="3">
         <v>262868</v>
       </c>
       <c r="I103" s="6">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3">
         <v>4705</v>
@@ -10365,7 +10374,7 @@
       <c r="F104" s="3">
         <v>18638</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="10">
         <v>17199</v>
       </c>
       <c r="H104" s="3">
